--- a/Global_M2/TVDataFeed/FinalData/Macau.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Macau.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D466"/>
+  <dimension ref="A1:D468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6334,6 +6334,34 @@
         <v>88576885397.9838</v>
       </c>
     </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B467" t="n">
+        <v>726812580000</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0.1236873678091257</v>
+      </c>
+      <c r="D467" t="n">
+        <v>89897534910.75957</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B468" t="n">
+        <v>723226840000</v>
+      </c>
+      <c r="C468" t="n">
+        <v>0.1236888976845438</v>
+      </c>
+      <c r="D468" t="n">
+        <v>89455130615.47597</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/Macau.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Macau.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D468"/>
+  <dimension ref="A1:D469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6362,6 +6362,20 @@
         <v>89455130615.47597</v>
       </c>
     </row>
+    <row r="469">
+      <c r="A469" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B469" t="n">
+        <v>713559810000</v>
+      </c>
+      <c r="C469" t="n">
+        <v>0.1240048609905508</v>
+      </c>
+      <c r="D469" t="n">
+        <v>88484885047.49387</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/Macau.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Macau.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D469"/>
+  <dimension ref="A1:D470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6297,13 +6297,13 @@
         <v>44896</v>
       </c>
       <c r="B464" t="n">
-        <v>717857231000</v>
+        <v>717868353000</v>
       </c>
       <c r="C464" t="n">
         <v>0.1243239883135451</v>
       </c>
       <c r="D464" t="n">
-        <v>89246873997.63785</v>
+        <v>89248256729.03587</v>
       </c>
     </row>
     <row r="465">
@@ -6339,13 +6339,13 @@
         <v>44986</v>
       </c>
       <c r="B467" t="n">
-        <v>726812580000</v>
+        <v>726196941000</v>
       </c>
       <c r="C467" t="n">
         <v>0.1236873678091257</v>
       </c>
       <c r="D467" t="n">
-        <v>89897534910.75957</v>
+        <v>89821388143.32893</v>
       </c>
     </row>
     <row r="468">
@@ -6353,13 +6353,13 @@
         <v>45017</v>
       </c>
       <c r="B468" t="n">
-        <v>723226840000</v>
+        <v>723226837000</v>
       </c>
       <c r="C468" t="n">
         <v>0.1236888976845438</v>
       </c>
       <c r="D468" t="n">
-        <v>89455130615.47597</v>
+        <v>89455130244.40927</v>
       </c>
     </row>
     <row r="469">
@@ -6367,13 +6367,27 @@
         <v>45047</v>
       </c>
       <c r="B469" t="n">
-        <v>713559810000</v>
+        <v>713359810000</v>
       </c>
       <c r="C469" t="n">
         <v>0.1240048609905508</v>
       </c>
       <c r="D469" t="n">
-        <v>88484885047.49387</v>
+        <v>88460084075.29575</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B470" t="n">
+        <v>717217430000</v>
+      </c>
+      <c r="C470" t="n">
+        <v>0.123898848979693</v>
+      </c>
+      <c r="D470" t="n">
+        <v>88862414045.17352</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Macau.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Macau.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D470"/>
+  <dimension ref="A1:D473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6367,13 +6367,13 @@
         <v>45047</v>
       </c>
       <c r="B469" t="n">
-        <v>713359810000</v>
+        <v>713359814000</v>
       </c>
       <c r="C469" t="n">
         <v>0.1240048609905508</v>
       </c>
       <c r="D469" t="n">
-        <v>88460084075.29575</v>
+        <v>88460084571.3152</v>
       </c>
     </row>
     <row r="470">
@@ -6388,6 +6388,48 @@
       </c>
       <c r="D470" t="n">
         <v>88862414045.17352</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B471" t="n">
+        <v>725593240000</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0.1245050922582734</v>
+      </c>
+      <c r="D471" t="n">
+        <v>90340053288.17949</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B472" t="n">
+        <v>723739340000</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0.1238098775520311</v>
+      </c>
+      <c r="D472" t="n">
+        <v>89606079064.98781</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B473" t="n">
+        <v>727283340000</v>
+      </c>
+      <c r="C473" t="n">
+        <v>0.1239864110893446</v>
+      </c>
+      <c r="D473" t="n">
+        <v>90173251171.67159</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Macau.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Macau.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Macau_M2 (MOP)</t>
+  </si>
+  <si>
+    <t>Macau_FX (USD)</t>
+  </si>
+  <si>
+    <t>Macau_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,6013 +385,5685 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D473"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Macau_M2 (MOP)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Macau_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Macau_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>30834</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>7381000000</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>30864</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>7403000000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>30895</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>7442000000</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>30926</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>7414000000</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>30956</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>7563000000</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>30987</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>8030000000</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>31017</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>8331000000</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>31048</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>8439000000</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>31079</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>8513000000</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>31107</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>8560000000</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>31138</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>8638000000</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>31168</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>8686000000</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>31199</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>8870000000</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>31229</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>9103000000</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>31260</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>9268000000</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
         <v>31291</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>9360000000</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
         <v>31321</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>9332000000</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
         <v>31352</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>9499000000</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
         <v>31382</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>9593000000</v>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
         <v>31413</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>9882000000</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
         <v>31444</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>10043000000</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
         <v>31472</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>10106000000</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
         <v>31503</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>10377000000</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
         <v>31533</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>10447000000</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
         <v>31564</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>10604000000</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
         <v>31594</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>10640000000</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
         <v>31625</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>10879000000</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
         <v>31656</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>11263000000</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
         <v>31686</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>11293000000</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
         <v>31717</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>11542000000</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
         <v>31747</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>11444000000</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
         <v>31778</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>11654000000</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
         <v>31809</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>11892000000</v>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
         <v>31837</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>12366000000</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
         <v>31868</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>12530000000</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
         <v>31898</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>12779000000</v>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
         <v>31929</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>13065000000</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
         <v>31959</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>13400000000</v>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
         <v>31990</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>13691000000</v>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
         <v>32021</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>13884000000</v>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
         <v>32051</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>14093000000</v>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
         <v>32082</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>14380000000</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
         <v>32112</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>14582000000</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
         <v>32143</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>14964000000</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
         <v>32174</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>15020000000</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
         <v>32203</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>15360000000</v>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
         <v>32234</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>15689000000</v>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
         <v>32264</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>15926000000</v>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
         <v>32295</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>17069000000</v>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
         <v>32325</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>17357000000</v>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
         <v>32356</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>17443000000</v>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
         <v>32387</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>17895000000</v>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
         <v>32417</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>17828000000</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
         <v>32448</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>18383000000</v>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
         <v>32478</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>20087000000</v>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
         <v>32509</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>20205000000</v>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
         <v>32540</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>20243000000</v>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
         <v>32568</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>21029000000</v>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
         <v>32599</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>21265000000</v>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
         <v>32629</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>21747000000</v>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
         <v>32660</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>21614000000</v>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
         <v>32690</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>22134000000</v>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
         <v>32721</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>22392000000</v>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
         <v>32752</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>22582000000</v>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
         <v>32782</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>22982000000</v>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
         <v>32813</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>23556000000</v>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
         <v>32843</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>24441000000</v>
       </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
         <v>32874</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>24850000000</v>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
         <v>32905</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>25199000000</v>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
         <v>32933</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>25661000000</v>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
         <v>32964</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>25865000000</v>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
         <v>32994</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>26290000000</v>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
         <v>33025</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>27031000000</v>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
         <v>33055</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>27265000000</v>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
         <v>33086</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>27463000000</v>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
         <v>33117</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>28428000000</v>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
         <v>33147</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>30246000000</v>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
         <v>33178</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>30892000000</v>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
         <v>33208</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>30745000000</v>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
         <v>33239</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>31592000000</v>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
         <v>33270</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>31740000000</v>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
         <v>33298</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>32254000000</v>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
         <v>33329</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>32576000000</v>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2">
         <v>33359</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>33444000000</v>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2">
         <v>33390</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>34677000000</v>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2">
         <v>33420</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>35299000000</v>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2">
         <v>33451</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>37086000000</v>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2">
         <v>33482</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>37545000000</v>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2">
         <v>33512</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>38891000000</v>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2">
         <v>33543</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>40722000000</v>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
         <v>33573</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>42069000000</v>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
         <v>33604</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>43256000000</v>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
         <v>33635</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>43645000000</v>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
         <v>33664</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>44667000000</v>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
         <v>33695</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>44897000000</v>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2">
         <v>33725</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>46928000000</v>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
         <v>33756</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>48021000000</v>
       </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
         <v>33786</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>49090000000</v>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2">
         <v>33817</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>48754000000</v>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
         <v>33848</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>48841000000</v>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2">
         <v>33878</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>48710000000</v>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
         <v>33909</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>49557000000</v>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
         <v>33939</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>50801000000</v>
       </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
         <v>33970</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>51401000000</v>
       </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
         <v>34001</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>51055000000</v>
       </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
         <v>34029</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>52339000000</v>
       </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
         <v>34060</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>52659000000</v>
       </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
         <v>34090</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>53566000000</v>
       </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
         <v>34121</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>53368000000</v>
       </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
         <v>34151</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>53253000000</v>
       </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
         <v>34182</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>53616000000</v>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
         <v>34213</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>53730000000</v>
       </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
         <v>34243</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>53698000000</v>
       </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
         <v>34274</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>53882000000</v>
       </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
         <v>34304</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>54312000000</v>
       </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
         <v>34335</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>54828000000</v>
       </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
         <v>34366</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>55262000000</v>
       </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
         <v>34394</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>54950000000</v>
       </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
         <v>34425</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>56290000000</v>
       </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
         <v>34455</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>56823000000</v>
       </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
         <v>34486</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>58048000000</v>
       </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
         <v>34516</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>59087000000</v>
       </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
         <v>34547</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>59379000000</v>
       </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2">
         <v>34578</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>59941000000</v>
       </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2">
         <v>34608</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>60784000000</v>
       </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2">
         <v>34639</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>60761000000</v>
       </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2">
         <v>34669</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>61213000000</v>
       </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
         <v>34700</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>61565000000</v>
       </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
         <v>34731</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>62317000000</v>
       </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
         <v>34759</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>62652000000</v>
       </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
         <v>34790</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>63357000000</v>
       </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
         <v>34820</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>63886000000</v>
       </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
         <v>34851</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>67348000000</v>
       </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
         <v>34881</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>66250000000</v>
       </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
         <v>34912</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>66432000000</v>
       </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
         <v>34943</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>66366000000</v>
       </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
         <v>34973</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>67004000000</v>
       </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
         <v>35004</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>67712000000</v>
       </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
         <v>35034</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>69444000000</v>
       </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2">
         <v>35065</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>69947000000</v>
       </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
         <v>35096</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>71126000000</v>
       </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2">
         <v>35125</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>71418000000</v>
       </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2">
         <v>35156</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>71411000000</v>
       </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>35186</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>72189000000</v>
       </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>35217</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>72920000000</v>
       </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>35247</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>72527000000</v>
       </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>35278</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>73499000000</v>
       </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>35309</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>74465000000</v>
       </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>35339</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>74981000000</v>
       </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>35370</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>75448000000</v>
       </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>35400</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>74333000000</v>
       </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>35431</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>75136000000</v>
       </c>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>35462</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>75617000000</v>
       </c>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>35490</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>76062000000</v>
       </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>35521</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>75147000000</v>
       </c>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>35551</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>75892000000</v>
       </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>35582</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>76330000000</v>
       </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>35612</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>75666000000</v>
       </c>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>35643</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>77273000000</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>0.1250468925847193</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>9662748530.699013</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>35674</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>77317000000</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>9673088952.833729</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>35704</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>77141000000</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>0.1250719163519023</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>9648172699.302099</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>35735</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>77114000000</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>0.1250468925847193</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>9642866074.778042</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>35765</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>78183000000</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>0.1251079055685529</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>9781311381.066168</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>35796</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>74824000000</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>0.1250390747108472</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>9355923726.164429</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>35827</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>76728000000</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>0.1250390747108472</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>9593998124.413881</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>35855</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>77263000000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>0.1250390747108472</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>9660894029.384184</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>35886</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>76643000000</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>0.1249141215414403</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>9573793017.300606</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>35916</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>76676000000</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>0.1249032000199845</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>9577077764.732332</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>35947</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>76677000000</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>0.1249266056191987</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>9578997339.063301</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>35977</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>76907000000</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>0.1249500199920032</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>9609531187.52499</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>36008</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>78428000000</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>0.124962511246626</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>9800559832.050385</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>36039</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>79151000000</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>0.1249500199920032</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>9889919032.387045</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>36069</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>80085000000</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>0.1249188027781942</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>10004122320.49168</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>36100</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>80928000000</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>0.1250390747108472</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>10119162238.19944</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>36130</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>80628000000</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>0.124979690800245</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>10076862509.84215</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>36161</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>81921000000</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>0.1249406531897349</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>10235263249.95627</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>36192</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>82453000000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>0.1249344094350466</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>10301216861.1479</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>36220</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>83041000000</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>0.1259445843828715</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>10458564231.73804</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>36251</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>83813000000</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>0.1258811681772407</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>10550478348.43907</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>36281</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>83480000000</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>0.1258494840171155</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>10505914925.74881</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>36312</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>83909000000</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>0.1247816321437484</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>10470301971.54979</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>36342</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>84098000000</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>0.1257229067136032</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>10573045008.8006</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>36373</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>84542000000</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>0.1246773972346553</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>10540476517.01223</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>36404</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>84500000000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>0.1246354413340977</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>10531694792.73126</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>36434</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>84600000000</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>0.1255965837729214</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>10625470987.18915</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>36465</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>85740000000</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>0.1255413972757517</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>10763919402.42295</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>36495</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>86096000000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>0.1255808112520407</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>10812005525.55569</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>36526</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>85895000000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>0.1254233036498181</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>10773234667.00113</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>36557</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>85761000000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>0.1243889393355143</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>10667719826.35304</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>36586</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>86485000000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>0.125328988595062</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>10839077578.64394</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>36617</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>79765000000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>0.125281884239539</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>9993109496.366825</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>36647</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>79572000000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.1252348152786475</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>9965184721.352535</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>36678</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>80774000000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.125203455615375</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>10113183923.8763</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>36708</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>82051000000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>0.1251251251251251</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>10266641641.64164</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>36739</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>83576000000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>0.1251564455569462</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>10460075093.86733</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>36770</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>83257000000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>0.1251564455569462</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>10420150187.73467</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>36800</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>83834000000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>0.1244555071561917</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>10433602986.93217</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>36831</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>84728000000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>10600275240.83573</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>36861</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>84918000000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>10624046040.28525</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>36892</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>86060000000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0.1244245365186015</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>10707975612.79084</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>36923</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>85996000000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0.1244555071561917</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>10702675793.40386</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>36951</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>85347000000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>0.1243781094527363</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>10615298507.46269</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>36982</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>85730000000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>10725634930.56424</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>37012</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>87370000000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>10930814462.65482</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>37043</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>87803000000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>0.125093820365274</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>10983612709.53215</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>37073</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>88413000000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>11061303640.6856</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>37104</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>89167000000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>11155636181.65895</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>37135</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>89527000000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.1244864932154861</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>11144902278.10283</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>37165</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>90342000000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>11302639809.8336</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>37196</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>90605000000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>11335543600.65057</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>37226</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>91550000000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.125140783381304</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>11456638718.55838</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>37257</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>91752000000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.1244864932154861</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>11421884725.50728</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>37288</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>91989000000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.1244864932154861</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>11451388024.39935</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>37316</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>93632000000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>11714249968.72263</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>37347</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>94271000000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>11794194920.55549</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>37377</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>95047000000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>11891279869.88615</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>37408</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>95696000000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.125093820365274</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>11970978233.67526</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>37438</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>94820000000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.125093820365274</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>11861396047.03528</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>37469</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>95664000000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>0.125093820365274</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>11966975231.42357</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>37500</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>95659000000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>11967846866.00776</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>37530</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>96797000000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>12110221443.76329</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>37561</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>98135000000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>0.1251251251251251</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>12279154154.15416</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>37591</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>98959000000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>0.1251251251251251</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>12382257257.25726</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>37622</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>100010000000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>0.125093820365274</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>12510632974.73105</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>37653</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>100474000000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>12570248967.84687</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>37681</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>100884000000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>12621543850.86951</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>37712</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>100241000000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>12541098461.15351</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>37742</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>101864000000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>0.1244942421413009</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>12681481481.48148</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>37773</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>101696000000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>0.1251251251251251</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>12724724724.72473</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>37803</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>102340000000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>0.1244833939152517</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>12739630533.28686</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>37834</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>107306000000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>13424996872.26323</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>37865</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>108071000000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>0.126008064516129</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>13617817540.32258</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>37895</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>109445000000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>0.125012501250125</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>13681993199.31993</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>37926</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>110752000000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>0.1254044292844423</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>13888791352.11056</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>37956</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>111090000000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>0.1254044292844423</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>13931178049.2087</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>37987</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>112373000000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>0.1248782437123804</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>14032942880.69133</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>38018</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>110989000000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>0.1248969600079934</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>13862188694.32718</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>38047</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>110898000000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>0.1248969600079934</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>13850823070.96645</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>38078</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>110138000000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>0.1248969600079934</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>13755901381.36038</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>38108</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>109862000000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>13722286756.34828</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>38139</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>111721000000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>13954484705.41212</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>38169</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>113468000000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>14172693321.34248</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>38200</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>114252000000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>14270618653.27688</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>38231</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>115262000000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>14396772460.99849</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>38261</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>117236000000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>14643334457.47617</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>38292</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>118590000000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>0.124912561207155</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>14813380633.55651</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>38322</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>120947000000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>0.124912561207155</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>15107799540.32178</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>38353</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>123030000000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>0.124912561207155</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>15367992405.31628</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>38384</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>123775000000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>0.124912561207155</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>15461052263.41561</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>38412</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>122484000000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>0.124912561207155</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>15299790146.89717</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>38443</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>126656000000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>0.124912561207155</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>15820925352.25342</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>38473</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>127669000000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>0.124912561207155</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>15947461776.75627</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>38504</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>129774000000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>0.124912561207155</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>16210402718.09733</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>38534</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>130331000000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>0.124912561207155</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>16279979014.68972</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>38565</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>132191000000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>0.124912561207155</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>16512316378.53503</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>38596</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>132008000000</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>0.124912561207155</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>16489457379.83412</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>38626</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>132610000000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>0.124912561207155</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>16564654741.68083</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>38657</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>133005000000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>0.124912561207155</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>16613995203.35765</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>38687</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>135660000000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>0.124912561207155</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>16945638053.36265</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>38718</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>142820000000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>0.124912561207155</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>17840011991.60588</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>38749</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>144325000000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>0.124912561207155</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>18028005396.22264</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>38777</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>146247000000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>0.124912561207155</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>18268087338.8628</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>38808</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>150290000000</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>0.124912561207155</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>18773108823.82333</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
         <v>38838</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>150560000000</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>0.124912561207155</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>18806835215.34926</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
         <v>38869</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>153025000000</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>0.124912561207155</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>19114744678.7249</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
         <v>38899</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>155120000000</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>0.124912561207155</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>19376436494.45388</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
         <v>38930</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>156440000000</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>0.124912561207155</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>19541321075.24733</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
         <v>38961</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>160117000000</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>0.124912561207155</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>20000624562.80604</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
         <v>38991</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>162451000000</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>0.124912561207155</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>20292170480.66354</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
         <v>39022</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>163731000000</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>0.124912561207155</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>20452058559.0087</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
         <v>39052</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>168912000000</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>21097912841.45839</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>39083</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>169105000000</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>21122019460.16162</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>39114</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>167475000000</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>20918424701.16536</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>39142</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>168856000000</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>21090918174.89164</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>39173</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>174191000000</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>21757285070.13402</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>39203</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>175749000000</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>0.1243765624805662</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>21859056479.39702</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>39234</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>175226000000</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>21886561496.85865</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>39264</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>180077000000</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>0.1242621932277105</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>22376762969.86642</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>39295</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>181189000000</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>0.1245717844908128</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>22571037060.10589</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>39326</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>182288000000</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>0.1246882793017456</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>22729177057.35661</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>39356</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>187427000000</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>0.125328988595062</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>23490036345.40669</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>39387</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>182415000000</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>0.1249921879882507</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>22800449971.87675</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>39417</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>185541000000</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>0.1246882793017456</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>23134788029.92519</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>39448</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>186941000000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>0.1245562682942019</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>23284673351.1864</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>39479</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>187789000000</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>0.1248252446574795</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>23440807868.98342</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>39508</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>185286000000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>0.1248657692980047</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>23135878930.15009</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>39539</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>184837000000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>0.1247271593389461</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>23054193950.73277</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>39569</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>184615000000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>0.1247271593389461</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>23026504521.35953</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>39600</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>182659000000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>0.1243672814555947</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>22716803263.39747</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>39630</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>186419000000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>0.1244338260912846</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>23196829426.11119</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>39661</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>190077000000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>0.124317806039359</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>23629955618.54324</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>39692</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>191094000000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>0.124317806039359</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>23756386827.28527</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>39722</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>189541000000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>0.125250501002004</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>23740105210.42084</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>39753</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>185056000000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>0.125250501002004</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>23178356713.42685</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>39783</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>189790000000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>0.125278745208088</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>23776653053.04302</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>39814</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>194191000000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>0.125278745208088</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>24328004810.70382</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>39845</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>192423000000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>0.1252112940587241</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>24093532836.66187</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>39873</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>196618000000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>0.1252803147041505</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>24632364916.50067</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>39904</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>197265000000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>0.1252756063339346</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>24712492483.46362</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>39934</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>201731000000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>0.1252646215129461</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>25269757362.42813</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>39965</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>203308000000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>0.1253478402567124</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>25484218706.91168</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>39995</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>208472000000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>0.1253525540582889</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>26132497649.63961</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>40026</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>207801000000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>0.1253352718522046</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>26044794826.15998</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>40057</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>208371000000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>0.1253478402567124</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D305">
         <v>26118854822.13141</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>40087</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>211018000000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>0.1253494114845131</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D306">
         <v>26450982112.63898</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>40118</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>211404000000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>0.1253509827517048</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D307">
         <v>26499699157.6414</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>40148</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>212233000000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>0.1252693290574736</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D308">
         <v>26586285513.85479</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>40179</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>215433000000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>0.1249828148629564</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D309">
         <v>26925422754.37128</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>40210</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>210201000000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>0.1251204284123469</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D310">
         <v>26300439172.70373</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>40238</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>215934000000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>0.1251219939440955</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D311">
         <v>27018092640.32431</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>40269</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>216852000000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>0.1251032101483724</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D312">
         <v>27128881327.09485</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>40299</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>216097000000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>0.1247147150892334</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D313">
         <v>26950475786.63807</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>40330</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>222160000000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>0.1247863034553327</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D314">
         <v>27722525175.63672</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>40360</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>228319000000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>0.1250891260022766</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D315">
         <v>28560224159.71379</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>40391</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>230230000000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>0.124857974054513</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D316">
         <v>28746051366.57053</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>40422</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>236764000000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>0.1251846473548484</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D317">
         <v>29639217846.32333</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>40452</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>244398000000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>0.1252395205831152</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D318">
         <v>30608288351.47219</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>40483</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>240260000000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>0.1251126013412071</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D319">
         <v>30059553598.23841</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>40513</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>243054000000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320">
         <v>0.1248314775053678</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D320">
         <v>30340789933.58966</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>40544</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>259017000000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321">
         <v>0.1246727340730582</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D321">
         <v>32292357561.40132</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>40575</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>252537000000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322">
         <v>0.1246447624270828</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D322">
         <v>31477414369.04821</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>40603</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>258770000000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323">
         <v>0.1247831892087498</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D323">
         <v>32290145871.54818</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>40634</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>267595000000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C324">
         <v>0.1250203158013177</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D324">
         <v>33454811406.85361</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>40664</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>270182000000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C325">
         <v>0.1249016399585327</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D325">
         <v>33746174887.27627</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>40695</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>271083000000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C326">
         <v>0.1248377109757315</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D326">
         <v>33841381204.43423</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>40725</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>274137000000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C327">
         <v>0.1246649629121735</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D327">
         <v>34175278937.85452</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>40756</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>278920000000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C328">
         <v>0.1246121446996224</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D328">
         <v>34756819399.61868</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>40787</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>278433000000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C329">
         <v>0.1245935136616788</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D329">
         <v>34690945789.36221</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>40817</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>292363000000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C330">
         <v>0.1251204284123469</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D330">
         <v>36580583811.91898</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>40848</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>301987000000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C331">
         <v>0.1247193813918683</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D331">
         <v>37663631828.38613</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>40878</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>297964000000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C332">
         <v>0.1250046876757878</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D332">
         <v>37246896758.62845</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>40909</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>310516000000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C333">
         <v>0.12523167860542</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D333">
         <v>38886439913.84061</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>40940</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>310551000000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C334">
         <v>0.1252677598366508</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D334">
         <v>38902028085.03175</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>40969</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>310588000000</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C335">
         <v>0.1251126013412071</v>
       </c>
-      <c r="D335" t="n">
+      <c r="D335">
         <v>38858472625.36282</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
         <v>41000</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>316667000000</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C336">
         <v>0.1252050232255318</v>
       </c>
-      <c r="D336" t="n">
+      <c r="D336">
         <v>39648299089.75948</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
         <v>41030</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>320500000000</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C337">
         <v>0.1251047752492713</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D337">
         <v>40096080467.39144</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
         <v>41061</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>321474000000</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C338">
         <v>0.1252128618651708</v>
       </c>
-      <c r="D338" t="n">
+      <c r="D338">
         <v>40252679555.24392</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
         <v>41091</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>330800000000</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C339">
         <v>0.1252708983176118</v>
       </c>
-      <c r="D339" t="n">
+      <c r="D339">
         <v>41439613163.46599</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
         <v>41122</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>348118000000</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C340">
         <v>0.125250501002004</v>
       </c>
-      <c r="D340" t="n">
+      <c r="D340">
         <v>43601953907.81563</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
         <v>41153</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>348199000000</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C341">
         <v>0.1252960118279435</v>
       </c>
-      <c r="D341" t="n">
+      <c r="D341">
         <v>43627946022.47811</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
         <v>41183</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>360070000000</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C342">
         <v>0.1253509827517048</v>
       </c>
-      <c r="D342" t="n">
+      <c r="D342">
         <v>45135128359.40634</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
         <v>41214</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>370320000000</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C343">
         <v>0.12531328320802</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D343">
         <v>46406015037.59398</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
         <v>41244</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>374431000000</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C344">
         <v>0.125328988595062</v>
       </c>
-      <c r="D344" t="n">
+      <c r="D344">
         <v>46927058528.63767</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
         <v>41275</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>389960000000</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C345">
         <v>0.1252207014863697</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D345">
         <v>48831064751.62474</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
         <v>41306</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>390682000000</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C346">
         <v>0.1252426576491953</v>
       </c>
-      <c r="D346" t="n">
+      <c r="D346">
         <v>48930051975.70293</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
         <v>41334</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>391113000000</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C347">
         <v>0.125140783381304</v>
       </c>
-      <c r="D347" t="n">
+      <c r="D347">
         <v>48944187210.61194</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
         <v>41365</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>396465000000</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C348">
         <v>0.1251721116535236</v>
       </c>
-      <c r="D348" t="n">
+      <c r="D348">
         <v>49626361246.71423</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
         <v>41395</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>407601000000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C349">
         <v>0.1251360854929736</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D349">
         <v>51005593583.02154</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
         <v>41426</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>396394190000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C350">
         <v>0.1252395205831152</v>
       </c>
-      <c r="D350" t="n">
+      <c r="D350">
         <v>49644218317.53228</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
         <v>41456</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>410672260000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C351">
         <v>0.1252410890965108</v>
       </c>
-      <c r="D351" t="n">
+      <c r="D351">
         <v>51433041104.12543</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
         <v>41487</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>419338080000</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C352">
         <v>0.1252599143222186</v>
       </c>
-      <c r="D352" t="n">
+      <c r="D352">
         <v>52526251972.84365</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
         <v>41518</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>426604400000</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C353">
         <v>0.1252850234282994</v>
       </c>
-      <c r="D353" t="n">
+      <c r="D353">
         <v>53447142248.61561</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
         <v>41548</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>445420290000</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C354">
         <v>0.1253007217321572</v>
       </c>
-      <c r="D354" t="n">
+      <c r="D354">
         <v>55811483811.14675</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
         <v>41579</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>445714670000</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C355">
         <v>0.12531328320802</v>
       </c>
-      <c r="D355" t="n">
+      <c r="D355">
         <v>55853968671.67919</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
         <v>41609</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>441362440000</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C356">
         <v>0.1252850234282994</v>
       </c>
-      <c r="D356" t="n">
+      <c r="D356">
         <v>55296103635.77139</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
         <v>41640</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>460936010000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C357">
         <v>0.1251564455569462</v>
       </c>
-      <c r="D357" t="n">
+      <c r="D357">
         <v>57689112640.801</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
         <v>41671</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>456966590000</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C358">
         <v>0.1251799461726232</v>
       </c>
-      <c r="D358" t="n">
+      <c r="D358">
         <v>57203053138.88715</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
         <v>41699</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>455333990000</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C359">
         <v>0.1252301103277272</v>
       </c>
-      <c r="D359" t="n">
+      <c r="D359">
         <v>57021525803.66424</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
         <v>41730</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>464955250000</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C360">
         <v>0.1253007217321572</v>
       </c>
-      <c r="D360" t="n">
+      <c r="D360">
         <v>58259228398.15557</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
         <v>41760</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>473845700000</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C361">
         <v>0.1253070021552804</v>
       </c>
-      <c r="D361" t="n">
+      <c r="D361">
         <v>59376184151.17036</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="2" t="n">
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
         <v>41791</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>483607010000</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C362">
         <v>0.1253274178792094</v>
       </c>
-      <c r="D362" t="n">
+      <c r="D362">
         <v>60609217831.58501</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="2" t="n">
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
         <v>41821</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>489436210000</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C363">
         <v>0.1253494114845131</v>
       </c>
-      <c r="D363" t="n">
+      <c r="D363">
         <v>61350540882.71056</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="2" t="n">
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
         <v>41852</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>489102480000</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C364">
         <v>0.1253494114845131</v>
       </c>
-      <c r="D364" t="n">
+      <c r="D364">
         <v>61308708023.61584</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="2" t="n">
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
         <v>41883</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>487364580000</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C365">
         <v>0.125140783381304</v>
       </c>
-      <c r="D365" t="n">
+      <c r="D365">
         <v>60989185333.50019</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="2" t="n">
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
         <v>41913</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>489591870000</v>
       </c>
-      <c r="C366" t="n">
+      <c r="C366">
         <v>0.1252693290574736</v>
       </c>
-      <c r="D366" t="n">
+      <c r="D366">
         <v>61330845066.89382</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="2" t="n">
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
         <v>41944</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B367">
         <v>484318600000</v>
       </c>
-      <c r="C367" t="n">
+      <c r="C367">
         <v>0.1253070021552804</v>
       </c>
-      <c r="D367" t="n">
+      <c r="D367">
         <v>60688511854.0424</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="2" t="n">
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
         <v>41974</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B368">
         <v>487593340000</v>
       </c>
-      <c r="C368" t="n">
+      <c r="C368">
         <v>0.125236383674185</v>
       </c>
-      <c r="D368" t="n">
+      <c r="D368">
         <v>61064426605.21735</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="2" t="n">
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
         <v>42005</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B369">
         <v>493438020000</v>
       </c>
-      <c r="C369" t="n">
+      <c r="C369">
         <v>0.1253164239705256</v>
       </c>
-      <c r="D369" t="n">
+      <c r="D369">
         <v>61835888117.49668</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="2" t="n">
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
         <v>42036</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B370">
         <v>481679130000</v>
       </c>
-      <c r="C370" t="n">
+      <c r="C370">
         <v>0.1252614833464858</v>
       </c>
-      <c r="D370" t="n">
+      <c r="D370">
         <v>60335842320.84476</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="2" t="n">
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
         <v>42064</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B371">
         <v>477595350000</v>
       </c>
-      <c r="C371" t="n">
+      <c r="C371">
         <v>0.1252803147041505</v>
       </c>
-      <c r="D371" t="n">
+      <c r="D371">
         <v>59833295749.23893</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="2" t="n">
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
         <v>42095</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B372">
         <v>492456520000</v>
       </c>
-      <c r="C372" t="n">
+      <c r="C372">
         <v>0.1253415557393898</v>
       </c>
-      <c r="D372" t="n">
+      <c r="D372">
         <v>61725266350.80595</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="2" t="n">
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
         <v>42125</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B373">
         <v>493361090000</v>
       </c>
-      <c r="C373" t="n">
+      <c r="C373">
         <v>0.1252975817566721</v>
       </c>
-      <c r="D373" t="n">
+      <c r="D373">
         <v>61816951509.83586</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="2" t="n">
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
         <v>42156</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B374">
         <v>488763124000</v>
       </c>
-      <c r="C374" t="n">
+      <c r="C374">
         <v>0.1253148535695936</v>
       </c>
-      <c r="D374" t="n">
+      <c r="D374">
         <v>61249279314.27711</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="2" t="n">
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
         <v>42186</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B375">
         <v>485290528000</v>
       </c>
-      <c r="C375" t="n">
+      <c r="C375">
         <v>0.12531328320802</v>
       </c>
-      <c r="D375" t="n">
+      <c r="D375">
         <v>60813349373.43358</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="2" t="n">
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
         <v>42217</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B376">
         <v>478454632000</v>
       </c>
-      <c r="C376" t="n">
+      <c r="C376">
         <v>0.1253478402567124</v>
       </c>
-      <c r="D376" t="n">
+      <c r="D376">
         <v>59973254782.0201</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="2" t="n">
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
         <v>42248</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B377">
         <v>482321910000</v>
       </c>
-      <c r="C377" t="n">
+      <c r="C377">
         <v>0.1253509827517048</v>
       </c>
-      <c r="D377" t="n">
+      <c r="D377">
         <v>60459525421.17931</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="2" t="n">
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
         <v>42278</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B378">
         <v>478053893000</v>
       </c>
-      <c r="C378" t="n">
+      <c r="C378">
         <v>0.1253509827517048</v>
       </c>
-      <c r="D378" t="n">
+      <c r="D378">
         <v>59924525295.82832</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="2" t="n">
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
         <v>42309</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B379">
         <v>469695529000</v>
       </c>
-      <c r="C379" t="n">
+      <c r="C379">
         <v>0.1253478402567124</v>
       </c>
-      <c r="D379" t="n">
+      <c r="D379">
         <v>58875320138.38401</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="2" t="n">
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
         <v>42339</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B380">
         <v>472826401000</v>
       </c>
-      <c r="C380" t="n">
+      <c r="C380">
         <v>0.125338413717036</v>
       </c>
-      <c r="D380" t="n">
+      <c r="D380">
         <v>59263311064.87516</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="2" t="n">
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
         <v>42370</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B381">
         <v>473827000000</v>
       </c>
-      <c r="C381" t="n">
+      <c r="C381">
         <v>0.1246851699458866</v>
       </c>
-      <c r="D381" t="n">
+      <c r="D381">
         <v>59079200019.94962</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="2" t="n">
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
         <v>42401</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B382">
         <v>469553414000</v>
       </c>
-      <c r="C382" t="n">
+      <c r="C382">
         <v>0.1246867246044314</v>
       </c>
-      <c r="D382" t="n">
+      <c r="D382">
         <v>58547077218.48856</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="2" t="n">
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
         <v>42430</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B383">
         <v>469849073000</v>
       </c>
-      <c r="C383" t="n">
+      <c r="C383">
         <v>0.1251689781204626</v>
       </c>
-      <c r="D383" t="n">
+      <c r="D383">
         <v>58810528338.25665</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="2" t="n">
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
         <v>42461</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B384">
         <v>463657875000</v>
       </c>
-      <c r="C384" t="n">
+      <c r="C384">
         <v>0.125145481622386</v>
       </c>
-      <c r="D384" t="n">
+      <c r="D384">
         <v>58024688074.88705</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="2" t="n">
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
         <v>42491</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B385">
         <v>465286082000</v>
       </c>
-      <c r="C385" t="n">
+      <c r="C385">
         <v>0.1249359703152135</v>
       </c>
-      <c r="D385" t="n">
+      <c r="D385">
         <v>58130968128.83398</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="2" t="n">
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
         <v>42522</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B386">
         <v>478843715000</v>
       </c>
-      <c r="C386" t="n">
+      <c r="C386">
         <v>0.125140783381304</v>
       </c>
-      <c r="D386" t="n">
+      <c r="D386">
         <v>59922877612.31385</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="2" t="n">
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
         <v>42552</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B387">
         <v>491343402000</v>
       </c>
-      <c r="C387" t="n">
+      <c r="C387">
         <v>0.1251658447442862</v>
       </c>
-      <c r="D387" t="n">
+      <c r="D387">
         <v>61499411970.8614</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="2" t="n">
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
         <v>42583</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B388">
         <v>503738744000</v>
       </c>
-      <c r="C388" t="n">
+      <c r="C388">
         <v>0.1251658447442862</v>
       </c>
-      <c r="D388" t="n">
+      <c r="D388">
         <v>63050885423.18572</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="2" t="n">
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
         <v>42614</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B389">
         <v>505799597000</v>
       </c>
-      <c r="C389" t="n">
+      <c r="C389">
         <v>0.1252222695284129</v>
       </c>
-      <c r="D389" t="n">
+      <c r="D389">
         <v>63337373462.89664</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="2" t="n">
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
         <v>42644</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B390">
         <v>516157449000</v>
       </c>
-      <c r="C390" t="n">
+      <c r="C390">
         <v>0.1251924834432941</v>
       </c>
-      <c r="D390" t="n">
+      <c r="D390">
         <v>64619032888.0654</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="2" t="n">
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
         <v>42675</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B391">
         <v>519386361000</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C391">
         <v>0.1251799461726232</v>
       </c>
-      <c r="D391" t="n">
+      <c r="D391">
         <v>65016756712.77462</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="2" t="n">
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
         <v>42705</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B392">
         <v>532448942000.0001</v>
       </c>
-      <c r="C392" t="n">
+      <c r="C392">
         <v>0.1252159975958528</v>
       </c>
-      <c r="D392" t="n">
+      <c r="D392">
         <v>66671125441.3864</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="2" t="n">
+    <row r="393" spans="1:4">
+      <c r="A393" s="2">
         <v>42736</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B393">
         <v>536784029000</v>
       </c>
-      <c r="C393" t="n">
+      <c r="C393">
         <v>0.1251376514165582</v>
       </c>
-      <c r="D393" t="n">
+      <c r="D393">
         <v>67171892706.97768</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="2" t="n">
+    <row r="394" spans="1:4">
+      <c r="A394" s="2">
         <v>42767</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B394">
         <v>540694398000.0001</v>
       </c>
-      <c r="C394" t="n">
+      <c r="C394">
         <v>0.1250813028468505</v>
       </c>
-      <c r="D394" t="n">
+      <c r="D394">
         <v>67630759743.83351</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="2" t="n">
+    <row r="395" spans="1:4">
+      <c r="A395" s="2">
         <v>42795</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B395">
         <v>547202142000</v>
       </c>
-      <c r="C395" t="n">
+      <c r="C395">
         <v>0.1249640728290616</v>
       </c>
-      <c r="D395" t="n">
+      <c r="D395">
         <v>68380608325.10654</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="2" t="n">
+    <row r="396" spans="1:4">
+      <c r="A396" s="2">
         <v>42826</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B396">
         <v>543502480000</v>
       </c>
-      <c r="C396" t="n">
+      <c r="C396">
         <v>0.1248221284669346</v>
       </c>
-      <c r="D396" t="n">
+      <c r="D396">
         <v>67841136380.65756</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="2" t="n">
+    <row r="397" spans="1:4">
+      <c r="A397" s="2">
         <v>42856</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B397">
         <v>553831055000</v>
       </c>
-      <c r="C397" t="n">
+      <c r="C397">
         <v>0.1246043810900391</v>
       </c>
-      <c r="D397" t="n">
+      <c r="D397">
         <v>69009775836.71841</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="2" t="n">
+    <row r="398" spans="1:4">
+      <c r="A398" s="2">
         <v>42887</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B398">
         <v>556634227000</v>
       </c>
-      <c r="C398" t="n">
+      <c r="C398">
         <v>0.1243812035125252</v>
       </c>
-      <c r="D398" t="n">
+      <c r="D398">
         <v>69234835070.52415</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="2" t="n">
+    <row r="399" spans="1:4">
+      <c r="A399" s="2">
         <v>42917</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B399">
         <v>568320269000</v>
       </c>
-      <c r="C399" t="n">
+      <c r="C399">
         <v>0.1243317170210121</v>
       </c>
-      <c r="D399" t="n">
+      <c r="D399">
         <v>70660234862.61346</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="2" t="n">
+    <row r="400" spans="1:4">
+      <c r="A400" s="2">
         <v>42948</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B400">
         <v>574373547000</v>
       </c>
-      <c r="C400" t="n">
+      <c r="C400">
         <v>0.1240664003374606</v>
       </c>
-      <c r="D400" t="n">
+      <c r="D400">
         <v>71260458425.34924</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="2" t="n">
+    <row r="401" spans="1:4">
+      <c r="A401" s="2">
         <v>42979</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B401">
         <v>567686365000</v>
       </c>
-      <c r="C401" t="n">
+      <c r="C401">
         <v>0.124313169737202</v>
       </c>
-      <c r="D401" t="n">
+      <c r="D401">
         <v>70570891449.74019</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="2" t="n">
+    <row r="402" spans="1:4">
+      <c r="A402" s="2">
         <v>43009</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B402">
         <v>580929323000</v>
       </c>
-      <c r="C402" t="n">
+      <c r="C402">
         <v>0.1244818443230055</v>
       </c>
-      <c r="D402" t="n">
+      <c r="D402">
         <v>72315153548.35497</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="2" t="n">
+    <row r="403" spans="1:4">
+      <c r="A403" s="2">
         <v>43040</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B403">
         <v>588456782000</v>
       </c>
-      <c r="C403" t="n">
+      <c r="C403">
         <v>0.1243224426873539</v>
       </c>
-      <c r="D403" t="n">
+      <c r="D403">
         <v>73158384554.17972</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="2" t="n">
+    <row r="404" spans="1:4">
+      <c r="A404" s="2">
         <v>43070</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B404">
         <v>591485041000</v>
       </c>
-      <c r="C404" t="n">
+      <c r="C404">
         <v>0.1242884486315842</v>
       </c>
-      <c r="D404" t="n">
+      <c r="D404">
         <v>73514758134.67897</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
+    <row r="405" spans="1:4">
+      <c r="A405" s="2">
         <v>43101</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B405">
         <v>606873414000</v>
       </c>
-      <c r="C405" t="n">
+      <c r="C405">
         <v>0.1242266888618351</v>
       </c>
-      <c r="D405" t="n">
+      <c r="D405">
         <v>75389874779.49763</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
+    <row r="406" spans="1:4">
+      <c r="A406" s="2">
         <v>43132</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B406">
         <v>606106271000</v>
       </c>
-      <c r="C406" t="n">
+      <c r="C406">
         <v>0.1241018131274898</v>
       </c>
-      <c r="D406" t="n">
+      <c r="D406">
         <v>75218887179.04169</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
+    <row r="407" spans="1:4">
+      <c r="A407" s="2">
         <v>43160</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B407">
         <v>604204020000</v>
       </c>
-      <c r="C407" t="n">
+      <c r="C407">
         <v>0.123806811850788</v>
       </c>
-      <c r="D407" t="n">
+      <c r="D407">
         <v>74804573423.62978</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
+    <row r="408" spans="1:4">
+      <c r="A408" s="2">
         <v>43191</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B408">
         <v>610441234000</v>
       </c>
-      <c r="C408" t="n">
+      <c r="C408">
         <v>0.1237087895094946</v>
       </c>
-      <c r="D408" t="n">
+      <c r="D408">
         <v>75516946124.82216</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
+    <row r="409" spans="1:4">
+      <c r="A409" s="2">
         <v>43221</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B409">
         <v>610236871000</v>
       </c>
-      <c r="C409" t="n">
+      <c r="C409">
         <v>0.1237746311515992</v>
       </c>
-      <c r="D409" t="n">
+      <c r="D409">
         <v>75531843623.131</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
+    <row r="410" spans="1:4">
+      <c r="A410" s="2">
         <v>43252</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B410">
         <v>601124196000</v>
       </c>
-      <c r="C410" t="n">
+      <c r="C410">
         <v>0.1237562496906094</v>
       </c>
-      <c r="D410" t="n">
+      <c r="D410">
         <v>74392876095.24281</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
+    <row r="411" spans="1:4">
+      <c r="A411" s="2">
         <v>43282</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B411">
         <v>616356372000</v>
       </c>
-      <c r="C411" t="n">
+      <c r="C411">
         <v>0.1237011380504701</v>
       </c>
-      <c r="D411" t="n">
+      <c r="D411">
         <v>76243984661.05888</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
+    <row r="412" spans="1:4">
+      <c r="A412" s="2">
         <v>43313</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B412">
         <v>621523060000</v>
       </c>
-      <c r="C412" t="n">
+      <c r="C412">
         <v>0.123714911358266</v>
       </c>
-      <c r="D412" t="n">
+      <c r="D412">
         <v>76891670275.01825</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
+    <row r="413" spans="1:4">
+      <c r="A413" s="2">
         <v>43344</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B413">
         <v>626433507000</v>
       </c>
-      <c r="C413" t="n">
+      <c r="C413">
         <v>0.1240463933511133</v>
       </c>
-      <c r="D413" t="n">
+      <c r="D413">
         <v>77706817217.63939</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="2" t="n">
+    <row r="414" spans="1:4">
+      <c r="A414" s="2">
         <v>43374</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B414">
         <v>623805715000</v>
       </c>
-      <c r="C414" t="n">
+      <c r="C414">
         <v>0.1238144763885794</v>
       </c>
-      <c r="D414" t="n">
+      <c r="D414">
         <v>77236177970.92838</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="2" t="n">
+    <row r="415" spans="1:4">
+      <c r="A415" s="2">
         <v>43405</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B415">
         <v>632969007000</v>
       </c>
-      <c r="C415" t="n">
+      <c r="C415">
         <v>0.1240910331819423</v>
       </c>
-      <c r="D415" t="n">
+      <c r="D415">
         <v>78545778050.77805</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="2" t="n">
+    <row r="416" spans="1:4">
+      <c r="A416" s="2">
         <v>43435</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B416">
         <v>651438044000</v>
       </c>
-      <c r="C416" t="n">
+      <c r="C416">
         <v>0.1239756511821078</v>
       </c>
-      <c r="D416" t="n">
+      <c r="D416">
         <v>80762455709.69861</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="2" t="n">
+    <row r="417" spans="1:4">
+      <c r="A417" s="2">
         <v>43466</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B417">
         <v>658699256000</v>
       </c>
-      <c r="C417" t="n">
+      <c r="C417">
         <v>0.123734811551882</v>
       </c>
-      <c r="D417" t="n">
+      <c r="D417">
         <v>81504028310.52489</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="2" t="n">
+    <row r="418" spans="1:4">
+      <c r="A418" s="2">
         <v>43497</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B418">
         <v>654236925000</v>
       </c>
-      <c r="C418" t="n">
+      <c r="C418">
         <v>0.1236873678091257</v>
       </c>
-      <c r="D418" t="n">
+      <c r="D418">
         <v>80920843176.78636</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="2" t="n">
+    <row r="419" spans="1:4">
+      <c r="A419" s="2">
         <v>43525</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B419">
         <v>662080521000</v>
       </c>
-      <c r="C419" t="n">
+      <c r="C419">
         <v>0.1236858379715522</v>
       </c>
-      <c r="D419" t="n">
+      <c r="D419">
         <v>81889984044.5269</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="2" t="n">
+    <row r="420" spans="1:4">
+      <c r="A420" s="2">
         <v>43556</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B420">
         <v>665051643000</v>
       </c>
-      <c r="C420" t="n">
+      <c r="C420">
         <v>0.123768503391257</v>
       </c>
-      <c r="D420" t="n">
+      <c r="D420">
         <v>82312446532.00655</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="2" t="n">
+    <row r="421" spans="1:4">
+      <c r="A421" s="2">
         <v>43586</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B421">
         <v>671192556000</v>
       </c>
-      <c r="C421" t="n">
+      <c r="C421">
         <v>0.1238834999566408</v>
       </c>
-      <c r="D421" t="n">
+      <c r="D421">
         <v>83149682982.1236</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="2" t="n">
+    <row r="422" spans="1:4">
+      <c r="A422" s="2">
         <v>43617</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B422">
         <v>671099875000</v>
       </c>
-      <c r="C422" t="n">
+      <c r="C422">
         <v>0.1242869038889372</v>
       </c>
-      <c r="D422" t="n">
+      <c r="D422">
         <v>83408925664.00279</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="2" t="n">
+    <row r="423" spans="1:4">
+      <c r="A423" s="2">
         <v>43647</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B423">
         <v>662771606000</v>
       </c>
-      <c r="C423" t="n">
+      <c r="C423">
         <v>0.1240356230309345</v>
       </c>
-      <c r="D423" t="n">
+      <c r="D423">
         <v>82207289077.42303</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="2" t="n">
+    <row r="424" spans="1:4">
+      <c r="A424" s="2">
         <v>43678</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B424">
         <v>663644010000</v>
       </c>
-      <c r="C424" t="n">
+      <c r="C424">
         <v>0.1237976156579224</v>
       </c>
-      <c r="D424" t="n">
+      <c r="D424">
         <v>82157546083.66243</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="2" t="n">
+    <row r="425" spans="1:4">
+      <c r="A425" s="2">
         <v>43709</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B425">
         <v>671390795000</v>
       </c>
-      <c r="C425" t="n">
+      <c r="C425">
         <v>0.123851279383716</v>
       </c>
-      <c r="D425" t="n">
+      <c r="D425">
         <v>83152608927.20023</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="2" t="n">
+    <row r="426" spans="1:4">
+      <c r="A426" s="2">
         <v>43739</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B426">
         <v>673722070000</v>
       </c>
-      <c r="C426" t="n">
+      <c r="C426">
         <v>0.1238881042642286</v>
       </c>
-      <c r="D426" t="n">
+      <c r="D426">
         <v>83466150053.2719</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="2" t="n">
+    <row r="427" spans="1:4">
+      <c r="A427" s="2">
         <v>43770</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B427">
         <v>672913614000</v>
       </c>
-      <c r="C427" t="n">
+      <c r="C427">
         <v>0.1240202401031848</v>
       </c>
-      <c r="D427" t="n">
+      <c r="D427">
         <v>83454907976.98184</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="2" t="n">
+    <row r="428" spans="1:4">
+      <c r="A428" s="2">
         <v>43800</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B428">
         <v>687530823000</v>
       </c>
-      <c r="C428" t="n">
+      <c r="C428">
         <v>0.1246292280465615</v>
       </c>
-      <c r="D428" t="n">
+      <c r="D428">
         <v>85686435728.70711</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="2" t="n">
+    <row r="429" spans="1:4">
+      <c r="A429" s="2">
         <v>43831</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B429">
         <v>699396883000</v>
       </c>
-      <c r="C429" t="n">
+      <c r="C429">
         <v>0.1250468925847193</v>
       </c>
-      <c r="D429" t="n">
+      <c r="D429">
         <v>87457406902.58847</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="2" t="n">
+    <row r="430" spans="1:4">
+      <c r="A430" s="2">
         <v>43862</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B430">
         <v>687777999000</v>
       </c>
-      <c r="C430" t="n">
+      <c r="C430">
         <v>0.1245733363230934</v>
       </c>
-      <c r="D430" t="n">
+      <c r="D430">
         <v>85678799985.05119</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="2" t="n">
+    <row r="431" spans="1:4">
+      <c r="A431" s="2">
         <v>43891</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B431">
         <v>679287550000</v>
       </c>
-      <c r="C431" t="n">
+      <c r="C431">
         <v>0.1252646215129461</v>
       </c>
-      <c r="D431" t="n">
+      <c r="D431">
         <v>85090697849.20645</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="2" t="n">
+    <row r="432" spans="1:4">
+      <c r="A432" s="2">
         <v>43922</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B432">
         <v>682365069000</v>
       </c>
-      <c r="C432" t="n">
+      <c r="C432">
         <v>0.1252489322528526</v>
       </c>
-      <c r="D432" t="n">
+      <c r="D432">
         <v>85465496298.89406</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="2" t="n">
+    <row r="433" spans="1:4">
+      <c r="A433" s="2">
         <v>43952</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B433">
         <v>686829754000</v>
       </c>
-      <c r="C433" t="n">
+      <c r="C433">
         <v>0.1252583453372581</v>
       </c>
-      <c r="D433" t="n">
+      <c r="D433">
         <v>86031158514.43604</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="2" t="n">
+    <row r="434" spans="1:4">
+      <c r="A434" s="2">
         <v>43983</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B434">
         <v>712227002000</v>
       </c>
-      <c r="C434" t="n">
+      <c r="C434">
         <v>0.1252724676170671</v>
       </c>
-      <c r="D434" t="n">
+      <c r="D434">
         <v>89222434044.04579</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
+    <row r="435" spans="1:4">
+      <c r="A435" s="2">
         <v>44013</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B435">
         <v>708411658000</v>
       </c>
-      <c r="C435" t="n">
+      <c r="C435">
         <v>0.1252756063339346</v>
       </c>
-      <c r="D435" t="n">
+      <c r="D435">
         <v>88746699989.97794</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="2" t="n">
+    <row r="436" spans="1:4">
+      <c r="A436" s="2">
         <v>44044</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B436">
         <v>701677932000</v>
       </c>
-      <c r="C436" t="n">
+      <c r="C436">
         <v>0.1252771757513499</v>
       </c>
-      <c r="D436" t="n">
+      <c r="D436">
         <v>87904229608.00772</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
+    <row r="437" spans="1:4">
+      <c r="A437" s="2">
         <v>44075</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B437">
         <v>690518190000</v>
       </c>
-      <c r="C437" t="n">
+      <c r="C437">
         <v>0.125278745208088</v>
       </c>
-      <c r="D437" t="n">
+      <c r="D437">
         <v>86507252386.56009</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
+    <row r="438" spans="1:4">
+      <c r="A438" s="2">
         <v>44105</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B438">
         <v>685648021000</v>
       </c>
-      <c r="C438" t="n">
+      <c r="C438">
         <v>0.1252379521090071</v>
       </c>
-      <c r="D438" t="n">
+      <c r="D438">
         <v>85869154017.63351</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
+    <row r="439" spans="1:4">
+      <c r="A439" s="2">
         <v>44136</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B439">
         <v>695269339000</v>
       </c>
-      <c r="C439" t="n">
+      <c r="C439">
         <v>0.1252599143222186</v>
       </c>
-      <c r="D439" t="n">
+      <c r="D439">
         <v>87089377834.00557</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
+    <row r="440" spans="1:4">
+      <c r="A440" s="2">
         <v>44166</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B440">
         <v>692358396000</v>
       </c>
-      <c r="C440" t="n">
+      <c r="C440">
         <v>0.1252426576491953</v>
       </c>
-      <c r="D440" t="n">
+      <c r="D440">
         <v>86712805560.774</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="2" t="n">
+    <row r="441" spans="1:4">
+      <c r="A441" s="2">
         <v>44197</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B441">
         <v>695875668000</v>
       </c>
-      <c r="C441" t="n">
+      <c r="C441">
         <v>0.1252301103277272</v>
       </c>
-      <c r="D441" t="n">
+      <c r="D441">
         <v>87144586678.02087</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="2" t="n">
+    <row r="442" spans="1:4">
+      <c r="A442" s="2">
         <v>44228</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B442">
         <v>695806782000</v>
       </c>
-      <c r="C442" t="n">
+      <c r="C442">
         <v>0.1251736784788895</v>
       </c>
-      <c r="D442" t="n">
+      <c r="D442">
         <v>87096694413.49873</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="2" t="n">
+    <row r="443" spans="1:4">
+      <c r="A443" s="2">
         <v>44256</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B443">
         <v>699380241000</v>
       </c>
-      <c r="C443" t="n">
+      <c r="C443">
         <v>0.124890720619458</v>
       </c>
-      <c r="D443" t="n">
+      <c r="D443">
         <v>87346102285.5002</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="2" t="n">
+    <row r="444" spans="1:4">
+      <c r="A444" s="2">
         <v>44287</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B444">
         <v>698098486000</v>
       </c>
-      <c r="C444" t="n">
+      <c r="C444">
         <v>0.124998437519531</v>
       </c>
-      <c r="D444" t="n">
+      <c r="D444">
         <v>87261219984.75018</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="2" t="n">
+    <row r="445" spans="1:4">
+      <c r="A445" s="2">
         <v>44317</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B445">
         <v>702975198000</v>
       </c>
-      <c r="C445" t="n">
+      <c r="C445">
         <v>0.1251016450866329</v>
       </c>
-      <c r="D445" t="n">
+      <c r="D445">
         <v>87943353724.90147</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="2" t="n">
+    <row r="446" spans="1:4">
+      <c r="A446" s="2">
         <v>44348</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B446">
         <v>695097335000</v>
       </c>
-      <c r="C446" t="n">
+      <c r="C446">
         <v>0.1250328211155428</v>
       </c>
-      <c r="D446" t="n">
+      <c r="D446">
         <v>86909980744.94556</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="2" t="n">
+    <row r="447" spans="1:4">
+      <c r="A447" s="2">
         <v>44378</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B447">
         <v>690246004000</v>
       </c>
-      <c r="C447" t="n">
+      <c r="C447">
         <v>0.1249172423269584</v>
       </c>
-      <c r="D447" t="n">
+      <c r="D447">
         <v>86223627346.88269</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="2" t="n">
+    <row r="448" spans="1:4">
+      <c r="A448" s="2">
         <v>44409</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B448">
         <v>687094515000</v>
       </c>
-      <c r="C448" t="n">
+      <c r="C448">
         <v>0.1248314775053678</v>
       </c>
-      <c r="D448" t="n">
+      <c r="D448">
         <v>85771023493.28407</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="2" t="n">
+    <row r="449" spans="1:4">
+      <c r="A449" s="2">
         <v>44440</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B449">
         <v>688497998000</v>
       </c>
-      <c r="C449" t="n">
+      <c r="C449">
         <v>0.1247007182761373</v>
       </c>
-      <c r="D449" t="n">
+      <c r="D449">
         <v>85856194882.28253</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="2" t="n">
+    <row r="450" spans="1:4">
+      <c r="A450" s="2">
         <v>44470</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B450">
         <v>693836253000</v>
       </c>
-      <c r="C450" t="n">
+      <c r="C450">
         <v>0.1248143386712265</v>
       </c>
-      <c r="D450" t="n">
+      <c r="D450">
         <v>86600713064.31682</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="2" t="n">
+    <row r="451" spans="1:4">
+      <c r="A451" s="2">
         <v>44501</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B451">
         <v>691080659000</v>
       </c>
-      <c r="C451" t="n">
+      <c r="C451">
         <v>0.1245283488786222</v>
       </c>
-      <c r="D451" t="n">
+      <c r="D451">
         <v>86059133407.22015</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="2" t="n">
+    <row r="452" spans="1:4">
+      <c r="A452" s="2">
         <v>44531</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B452">
         <v>687542070000</v>
       </c>
-      <c r="C452" t="n">
+      <c r="C452">
         <v>0.1245392049417157</v>
       </c>
-      <c r="D452" t="n">
+      <c r="D452">
         <v>85625942761.7814</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="2" t="n">
+    <row r="453" spans="1:4">
+      <c r="A453" s="2">
         <v>44562</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B453">
         <v>692254530000</v>
       </c>
-      <c r="C453" t="n">
+      <c r="C453">
         <v>0.1245190451879615</v>
       </c>
-      <c r="D453" t="n">
+      <c r="D453">
         <v>86198873102.64104</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="2" t="n">
+    <row r="454" spans="1:4">
+      <c r="A454" s="2">
         <v>44593</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B454">
         <v>688343391000</v>
       </c>
-      <c r="C454" t="n">
+      <c r="C454">
         <v>0.1242575610725913</v>
       </c>
-      <c r="D454" t="n">
+      <c r="D454">
         <v>85531870946.09706</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="2" t="n">
+    <row r="455" spans="1:4">
+      <c r="A455" s="2">
         <v>44621</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B455">
         <v>686330104000</v>
       </c>
-      <c r="C455" t="n">
+      <c r="C455">
         <v>0.1239587465291551</v>
       </c>
-      <c r="D455" t="n">
+      <c r="D455">
         <v>85076619397.06467</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="2" t="n">
+    <row r="456" spans="1:4">
+      <c r="A456" s="2">
         <v>44652</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B456">
         <v>673886009000</v>
       </c>
-      <c r="C456" t="n">
+      <c r="C456">
         <v>0.1237394048134628</v>
       </c>
-      <c r="D456" t="n">
+      <c r="D456">
         <v>83386253665.77988</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="2" t="n">
+    <row r="457" spans="1:4">
+      <c r="A457" s="2">
         <v>44682</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B457">
         <v>674492103000</v>
       </c>
-      <c r="C457" t="n">
+      <c r="C457">
         <v>0.123733280540467</v>
       </c>
-      <c r="D457" t="n">
+      <c r="D457">
         <v>83457120602.82855</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
+    <row r="458" spans="1:4">
+      <c r="A458" s="2">
         <v>44713</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B458">
         <v>680090698000</v>
       </c>
-      <c r="C458" t="n">
+      <c r="C458">
         <v>0.1237409359764397</v>
       </c>
-      <c r="D458" t="n">
+      <c r="D458">
         <v>84155059519.3902</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="2" t="n">
+    <row r="459" spans="1:4">
+      <c r="A459" s="2">
         <v>44743</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B459">
         <v>681645831000</v>
       </c>
-      <c r="C459" t="n">
+      <c r="C459">
         <v>0.1236812486858867</v>
       </c>
-      <c r="D459" t="n">
+      <c r="D459">
         <v>84306807539.60892</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="2" t="n">
+    <row r="460" spans="1:4">
+      <c r="A460" s="2">
         <v>44774</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B460">
         <v>689582855000</v>
       </c>
-      <c r="C460" t="n">
+      <c r="C460">
         <v>0.1236965476293557</v>
       </c>
-      <c r="D460" t="n">
+      <c r="D460">
         <v>85299018467.89456</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="2" t="n">
+    <row r="461" spans="1:4">
+      <c r="A461" s="2">
         <v>44805</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B461">
         <v>679741430000</v>
       </c>
-      <c r="C461" t="n">
+      <c r="C461">
         <v>0.1236858379715522</v>
       </c>
-      <c r="D461" t="n">
+      <c r="D461">
         <v>84074388373.53122</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="2" t="n">
+    <row r="462" spans="1:4">
+      <c r="A462" s="2">
         <v>44835</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B462">
         <v>681040162000</v>
       </c>
-      <c r="C462" t="n">
+      <c r="C462">
         <v>0.1236934875378811</v>
       </c>
-      <c r="D462" t="n">
+      <c r="D462">
         <v>84240232791.14355</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
+    <row r="463" spans="1:4">
+      <c r="A463" s="2">
         <v>44866</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B463">
         <v>682745255000</v>
       </c>
-      <c r="C463" t="n">
+      <c r="C463">
         <v>0.1243286254227173</v>
       </c>
-      <c r="D463" t="n">
+      <c r="D463">
         <v>84884779068.03262</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="2" t="n">
+    <row r="464" spans="1:4">
+      <c r="A464" s="2">
         <v>44896</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B464">
         <v>717868353000</v>
       </c>
-      <c r="C464" t="n">
+      <c r="C464">
         <v>0.1243239883135451</v>
       </c>
-      <c r="D464" t="n">
+      <c r="D464">
         <v>89248256729.03587</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="2" t="n">
+    <row r="465" spans="1:4">
+      <c r="A465" s="2">
         <v>44927</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B465">
         <v>724117483000</v>
       </c>
-      <c r="C465" t="n">
+      <c r="C465">
         <v>0.1238390092879257</v>
       </c>
-      <c r="D465" t="n">
+      <c r="D465">
         <v>89673991702.78639</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="2" t="n">
+    <row r="466" spans="1:4">
+      <c r="A466" s="2">
         <v>44958</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B466">
         <v>716099830000</v>
       </c>
-      <c r="C466" t="n">
+      <c r="C466">
         <v>0.1236934875378811</v>
       </c>
-      <c r="D466" t="n">
+      <c r="D466">
         <v>88576885397.9838</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="2" t="n">
+    <row r="467" spans="1:4">
+      <c r="A467" s="2">
         <v>44986</v>
       </c>
-      <c r="B467" t="n">
+      <c r="B467">
         <v>726196941000</v>
       </c>
-      <c r="C467" t="n">
+      <c r="C467">
         <v>0.1236873678091257</v>
       </c>
-      <c r="D467" t="n">
+      <c r="D467">
         <v>89821388143.32893</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="2" t="n">
+    <row r="468" spans="1:4">
+      <c r="A468" s="2">
         <v>45017</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B468">
         <v>723226837000</v>
       </c>
-      <c r="C468" t="n">
+      <c r="C468">
         <v>0.1236888976845438</v>
       </c>
-      <c r="D468" t="n">
+      <c r="D468">
         <v>89455130244.40927</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="2" t="n">
+    <row r="469" spans="1:4">
+      <c r="A469" s="2">
         <v>45047</v>
       </c>
-      <c r="B469" t="n">
+      <c r="B469">
         <v>713359814000</v>
       </c>
-      <c r="C469" t="n">
+      <c r="C469">
         <v>0.1240048609905508</v>
       </c>
-      <c r="D469" t="n">
+      <c r="D469">
         <v>88460084571.3152</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="2" t="n">
+    <row r="470" spans="1:4">
+      <c r="A470" s="2">
         <v>45078</v>
       </c>
-      <c r="B470" t="n">
+      <c r="B470">
         <v>717217430000</v>
       </c>
-      <c r="C470" t="n">
+      <c r="C470">
         <v>0.123898848979693</v>
       </c>
-      <c r="D470" t="n">
+      <c r="D470">
         <v>88862414045.17352</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="2" t="n">
+    <row r="471" spans="1:4">
+      <c r="A471" s="2">
         <v>45108</v>
       </c>
-      <c r="B471" t="n">
+      <c r="B471">
         <v>725593240000</v>
       </c>
-      <c r="C471" t="n">
+      <c r="C471">
         <v>0.1245050922582734</v>
       </c>
-      <c r="D471" t="n">
+      <c r="D471">
         <v>90340053288.17949</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" s="2" t="n">
+    <row r="472" spans="1:4">
+      <c r="A472" s="2">
         <v>45139</v>
       </c>
-      <c r="B472" t="n">
+      <c r="B472">
         <v>723739340000</v>
       </c>
-      <c r="C472" t="n">
+      <c r="C472">
         <v>0.1238098775520311</v>
       </c>
-      <c r="D472" t="n">
+      <c r="D472">
         <v>89606079064.98781</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="2" t="n">
+    <row r="473" spans="1:4">
+      <c r="A473" s="2">
         <v>45170</v>
       </c>
-      <c r="B473" t="n">
+      <c r="B473">
         <v>727283340000</v>
       </c>
-      <c r="C473" t="n">
+      <c r="C473">
         <v>0.1239864110893446</v>
       </c>
-      <c r="D473" t="n">
+      <c r="D473">
         <v>90173251171.67159</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/Macau.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Macau.xlsx
@@ -1,57 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Macau_M2 (MOP)</t>
-  </si>
-  <si>
-    <t>Macau_FX (USD)</t>
-  </si>
-  <si>
-    <t>Macau_M2 (USD)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,5685 +426,6041 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D473"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D475"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Macau_M2 (MOP)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Macau_FX (USD)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Macau_M2 (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>30834</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>7381000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>30864</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>7403000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>30895</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>7442000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>30926</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>7414000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>30956</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>7563000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>30987</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>8030000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>31017</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>8331000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>31048</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>8439000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>31079</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>8513000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>31107</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>8560000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>31138</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>8638000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>31168</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>8686000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>31199</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>8870000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>31229</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>9103000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>31260</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>9268000000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>31291</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>9360000000</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>31321</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>9332000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>31352</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>9499000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>31382</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>9593000000</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>31413</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>9882000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>31444</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>10043000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>31472</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>10106000000</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>31503</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>10377000000</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>31533</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>10447000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>31564</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>10604000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>31594</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>10640000000</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>31625</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>10879000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>31656</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>11263000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>31686</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>11293000000</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>31717</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>11542000000</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>31747</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>11444000000</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>31778</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>11654000000</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>31809</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>11892000000</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>31837</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>12366000000</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>31868</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>12530000000</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>31898</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>12779000000</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>31929</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>13065000000</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>31959</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>13400000000</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>31990</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>13691000000</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>32021</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>13884000000</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>32051</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>14093000000</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>32082</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>14380000000</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2">
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>32112</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>14582000000</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2">
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>32143</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>14964000000</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2">
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>32174</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>15020000000</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2">
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>32203</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>15360000000</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2">
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>32234</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>15689000000</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2">
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>32264</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>15926000000</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2">
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>32295</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>17069000000</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2">
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>32325</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>17357000000</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2">
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>32356</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>17443000000</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2">
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>32387</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>17895000000</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2">
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>32417</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>17828000000</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2">
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>32448</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>18383000000</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2">
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>32478</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>20087000000</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2">
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>32509</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>20205000000</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2">
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>32540</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>20243000000</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2">
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>32568</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>21029000000</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2">
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>32599</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>21265000000</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2">
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>32629</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>21747000000</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2">
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>32660</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>21614000000</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2">
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>32690</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>22134000000</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2">
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>32721</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>22392000000</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2">
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>32752</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>22582000000</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2">
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>32782</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>22982000000</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2">
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>32813</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>23556000000</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2">
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>32843</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>24441000000</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2">
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>32874</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>24850000000</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2">
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>32905</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>25199000000</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2">
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>32933</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>25661000000</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2">
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>32964</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>25865000000</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2">
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>32994</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>26290000000</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2">
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>33025</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>27031000000</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2">
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>33055</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>27265000000</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2">
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>33086</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>27463000000</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2">
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>33117</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>28428000000</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2">
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>33147</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>30246000000</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2">
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>33178</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>30892000000</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2">
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>33208</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>30745000000</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2">
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>33239</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>31592000000</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2">
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>33270</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>31740000000</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="2">
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>33298</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>32254000000</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2">
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>33329</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>32576000000</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="2">
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>33359</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>33444000000</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="2">
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>33390</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>34677000000</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="2">
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>33420</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>35299000000</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="2">
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>33451</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>37086000000</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="2">
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>33482</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>37545000000</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="2">
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>33512</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>38891000000</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="2">
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>33543</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>40722000000</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="2">
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>33573</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>42069000000</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="2">
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>33604</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>43256000000</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="2">
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>33635</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>43645000000</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="2">
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>33664</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>44667000000</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="2">
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>33695</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>44897000000</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="2">
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>33725</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>46928000000</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="2">
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>33756</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>48021000000</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="2">
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>33786</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>49090000000</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="2">
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>33817</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>48754000000</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="2">
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>33848</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>48841000000</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="2">
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>33878</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>48710000000</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="2">
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>33909</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>49557000000</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="2">
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>33939</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>50801000000</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="2">
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>33970</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>51401000000</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="2">
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>34001</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>51055000000</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="2">
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>34029</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>52339000000</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="2">
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>34060</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>52659000000</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="2">
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>34090</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>53566000000</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="2">
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>34121</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>53368000000</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="2">
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>34151</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>53253000000</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="2">
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>34182</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>53616000000</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="2">
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>34213</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>53730000000</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="2">
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>34243</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>53698000000</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="2">
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>34274</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>53882000000</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="2">
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>34304</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>54312000000</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="2">
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>34335</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>54828000000</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="2">
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>34366</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>55262000000</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="2">
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>34394</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>54950000000</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="2">
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>34425</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>56290000000</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="2">
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>34455</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>56823000000</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="2">
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>34486</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>58048000000</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="2">
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>34516</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>59087000000</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="2">
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>34547</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>59379000000</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="2">
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>34578</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>59941000000</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="2">
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>34608</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>60784000000</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="2">
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>34639</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>60761000000</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="2">
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>34669</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>61213000000</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="2">
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>34700</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>61565000000</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="2">
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>34731</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>62317000000</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="2">
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>34759</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>62652000000</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="2">
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>34790</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>63357000000</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="2">
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>34820</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>63886000000</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="2">
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>34851</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>67348000000</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="2">
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>34881</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>66250000000</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="2">
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>34912</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>66432000000</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="2">
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>34943</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>66366000000</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="2">
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>34973</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="n">
         <v>67004000000</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="2">
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>35004</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="n">
         <v>67712000000</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="2">
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>35034</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="n">
         <v>69444000000</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="2">
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>35065</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="n">
         <v>69947000000</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="2">
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>35096</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="n">
         <v>71126000000</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="2">
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>35125</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="n">
         <v>71418000000</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="2">
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>35156</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="n">
         <v>71411000000</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="2">
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>35186</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="n">
         <v>72189000000</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="2">
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
         <v>35217</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="n">
         <v>72920000000</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="2">
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
         <v>35247</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="n">
         <v>72527000000</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="2">
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>35278</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="n">
         <v>73499000000</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="2">
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
         <v>35309</v>
       </c>
-      <c r="B149">
+      <c r="B149" t="n">
         <v>74465000000</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="2">
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
         <v>35339</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="n">
         <v>74981000000</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="2">
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
         <v>35370</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="n">
         <v>75448000000</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="2">
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
         <v>35400</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="n">
         <v>74333000000</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="2">
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
         <v>35431</v>
       </c>
-      <c r="B153">
+      <c r="B153" t="n">
         <v>75136000000</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="2">
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
         <v>35462</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="n">
         <v>75617000000</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="2">
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
         <v>35490</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="n">
         <v>76062000000</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="2">
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
         <v>35521</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="n">
         <v>75147000000</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="2">
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
         <v>35551</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="n">
         <v>75892000000</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="2">
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
         <v>35582</v>
       </c>
-      <c r="B158">
+      <c r="B158" t="n">
         <v>76330000000</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="2">
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
         <v>35612</v>
       </c>
-      <c r="B159">
+      <c r="B159" t="n">
         <v>75666000000</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="2">
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
         <v>35643</v>
       </c>
-      <c r="B160">
+      <c r="B160" t="n">
         <v>77273000000</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>0.1250468925847193</v>
       </c>
-      <c r="D160">
+      <c r="D160" t="n">
         <v>9662748530.699013</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="2">
+    <row r="161">
+      <c r="A161" s="2" t="n">
         <v>35674</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="n">
         <v>77317000000</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D161">
+      <c r="D161" t="n">
         <v>9673088952.833729</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="2">
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>35704</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="n">
         <v>77141000000</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>0.1250719163519023</v>
       </c>
-      <c r="D162">
+      <c r="D162" t="n">
         <v>9648172699.302099</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="2">
+    <row r="163">
+      <c r="A163" s="2" t="n">
         <v>35735</v>
       </c>
-      <c r="B163">
+      <c r="B163" t="n">
         <v>77114000000</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>0.1250468925847193</v>
       </c>
-      <c r="D163">
+      <c r="D163" t="n">
         <v>9642866074.778042</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="2">
+    <row r="164">
+      <c r="A164" s="2" t="n">
         <v>35765</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="n">
         <v>78183000000</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="n">
         <v>0.1251079055685529</v>
       </c>
-      <c r="D164">
+      <c r="D164" t="n">
         <v>9781311381.066168</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="2">
+    <row r="165">
+      <c r="A165" s="2" t="n">
         <v>35796</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="n">
         <v>74824000000</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>0.1250390747108472</v>
       </c>
-      <c r="D165">
+      <c r="D165" t="n">
         <v>9355923726.164429</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="2">
+    <row r="166">
+      <c r="A166" s="2" t="n">
         <v>35827</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="n">
         <v>76728000000</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="n">
         <v>0.1250390747108472</v>
       </c>
-      <c r="D166">
+      <c r="D166" t="n">
         <v>9593998124.413881</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="2">
+    <row r="167">
+      <c r="A167" s="2" t="n">
         <v>35855</v>
       </c>
-      <c r="B167">
+      <c r="B167" t="n">
         <v>77263000000</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>0.1250390747108472</v>
       </c>
-      <c r="D167">
+      <c r="D167" t="n">
         <v>9660894029.384184</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="2">
+    <row r="168">
+      <c r="A168" s="2" t="n">
         <v>35886</v>
       </c>
-      <c r="B168">
+      <c r="B168" t="n">
         <v>76643000000</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="n">
         <v>0.1249141215414403</v>
       </c>
-      <c r="D168">
+      <c r="D168" t="n">
         <v>9573793017.300606</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="2">
+    <row r="169">
+      <c r="A169" s="2" t="n">
         <v>35916</v>
       </c>
-      <c r="B169">
+      <c r="B169" t="n">
         <v>76676000000</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="n">
         <v>0.1249032000199845</v>
       </c>
-      <c r="D169">
+      <c r="D169" t="n">
         <v>9577077764.732332</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="2">
+    <row r="170">
+      <c r="A170" s="2" t="n">
         <v>35947</v>
       </c>
-      <c r="B170">
+      <c r="B170" t="n">
         <v>76677000000</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="n">
         <v>0.1249266056191987</v>
       </c>
-      <c r="D170">
+      <c r="D170" t="n">
         <v>9578997339.063301</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="2">
+    <row r="171">
+      <c r="A171" s="2" t="n">
         <v>35977</v>
       </c>
-      <c r="B171">
+      <c r="B171" t="n">
         <v>76907000000</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="n">
         <v>0.1249500199920032</v>
       </c>
-      <c r="D171">
+      <c r="D171" t="n">
         <v>9609531187.52499</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="2">
+    <row r="172">
+      <c r="A172" s="2" t="n">
         <v>36008</v>
       </c>
-      <c r="B172">
+      <c r="B172" t="n">
         <v>78428000000</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="n">
         <v>0.124962511246626</v>
       </c>
-      <c r="D172">
+      <c r="D172" t="n">
         <v>9800559832.050385</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="2">
+    <row r="173">
+      <c r="A173" s="2" t="n">
         <v>36039</v>
       </c>
-      <c r="B173">
+      <c r="B173" t="n">
         <v>79151000000</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="n">
         <v>0.1249500199920032</v>
       </c>
-      <c r="D173">
+      <c r="D173" t="n">
         <v>9889919032.387045</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="2">
+    <row r="174">
+      <c r="A174" s="2" t="n">
         <v>36069</v>
       </c>
-      <c r="B174">
+      <c r="B174" t="n">
         <v>80085000000</v>
       </c>
-      <c r="C174">
+      <c r="C174" t="n">
         <v>0.1249188027781942</v>
       </c>
-      <c r="D174">
+      <c r="D174" t="n">
         <v>10004122320.49168</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="2">
+    <row r="175">
+      <c r="A175" s="2" t="n">
         <v>36100</v>
       </c>
-      <c r="B175">
+      <c r="B175" t="n">
         <v>80928000000</v>
       </c>
-      <c r="C175">
+      <c r="C175" t="n">
         <v>0.1250390747108472</v>
       </c>
-      <c r="D175">
+      <c r="D175" t="n">
         <v>10119162238.19944</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="2">
+    <row r="176">
+      <c r="A176" s="2" t="n">
         <v>36130</v>
       </c>
-      <c r="B176">
+      <c r="B176" t="n">
         <v>80628000000</v>
       </c>
-      <c r="C176">
+      <c r="C176" t="n">
         <v>0.124979690800245</v>
       </c>
-      <c r="D176">
+      <c r="D176" t="n">
         <v>10076862509.84215</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="2">
+    <row r="177">
+      <c r="A177" s="2" t="n">
         <v>36161</v>
       </c>
-      <c r="B177">
+      <c r="B177" t="n">
         <v>81921000000</v>
       </c>
-      <c r="C177">
+      <c r="C177" t="n">
         <v>0.1249406531897349</v>
       </c>
-      <c r="D177">
+      <c r="D177" t="n">
         <v>10235263249.95627</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="2">
+    <row r="178">
+      <c r="A178" s="2" t="n">
         <v>36192</v>
       </c>
-      <c r="B178">
+      <c r="B178" t="n">
         <v>82453000000</v>
       </c>
-      <c r="C178">
+      <c r="C178" t="n">
         <v>0.1249344094350466</v>
       </c>
-      <c r="D178">
+      <c r="D178" t="n">
         <v>10301216861.1479</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="2">
+    <row r="179">
+      <c r="A179" s="2" t="n">
         <v>36220</v>
       </c>
-      <c r="B179">
+      <c r="B179" t="n">
         <v>83041000000</v>
       </c>
-      <c r="C179">
+      <c r="C179" t="n">
         <v>0.1259445843828715</v>
       </c>
-      <c r="D179">
+      <c r="D179" t="n">
         <v>10458564231.73804</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="2">
+    <row r="180">
+      <c r="A180" s="2" t="n">
         <v>36251</v>
       </c>
-      <c r="B180">
+      <c r="B180" t="n">
         <v>83813000000</v>
       </c>
-      <c r="C180">
+      <c r="C180" t="n">
         <v>0.1258811681772407</v>
       </c>
-      <c r="D180">
+      <c r="D180" t="n">
         <v>10550478348.43907</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="2">
+    <row r="181">
+      <c r="A181" s="2" t="n">
         <v>36281</v>
       </c>
-      <c r="B181">
+      <c r="B181" t="n">
         <v>83480000000</v>
       </c>
-      <c r="C181">
+      <c r="C181" t="n">
         <v>0.1258494840171155</v>
       </c>
-      <c r="D181">
+      <c r="D181" t="n">
         <v>10505914925.74881</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="2">
+    <row r="182">
+      <c r="A182" s="2" t="n">
         <v>36312</v>
       </c>
-      <c r="B182">
+      <c r="B182" t="n">
         <v>83909000000</v>
       </c>
-      <c r="C182">
+      <c r="C182" t="n">
         <v>0.1247816321437484</v>
       </c>
-      <c r="D182">
+      <c r="D182" t="n">
         <v>10470301971.54979</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="2">
+    <row r="183">
+      <c r="A183" s="2" t="n">
         <v>36342</v>
       </c>
-      <c r="B183">
+      <c r="B183" t="n">
         <v>84098000000</v>
       </c>
-      <c r="C183">
+      <c r="C183" t="n">
         <v>0.1257229067136032</v>
       </c>
-      <c r="D183">
+      <c r="D183" t="n">
         <v>10573045008.8006</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="2">
+    <row r="184">
+      <c r="A184" s="2" t="n">
         <v>36373</v>
       </c>
-      <c r="B184">
+      <c r="B184" t="n">
         <v>84542000000</v>
       </c>
-      <c r="C184">
+      <c r="C184" t="n">
         <v>0.1246773972346553</v>
       </c>
-      <c r="D184">
+      <c r="D184" t="n">
         <v>10540476517.01223</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="2">
+    <row r="185">
+      <c r="A185" s="2" t="n">
         <v>36404</v>
       </c>
-      <c r="B185">
+      <c r="B185" t="n">
         <v>84500000000</v>
       </c>
-      <c r="C185">
+      <c r="C185" t="n">
         <v>0.1246354413340977</v>
       </c>
-      <c r="D185">
+      <c r="D185" t="n">
         <v>10531694792.73126</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="2">
+    <row r="186">
+      <c r="A186" s="2" t="n">
         <v>36434</v>
       </c>
-      <c r="B186">
+      <c r="B186" t="n">
         <v>84600000000</v>
       </c>
-      <c r="C186">
+      <c r="C186" t="n">
         <v>0.1255965837729214</v>
       </c>
-      <c r="D186">
+      <c r="D186" t="n">
         <v>10625470987.18915</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="2">
+    <row r="187">
+      <c r="A187" s="2" t="n">
         <v>36465</v>
       </c>
-      <c r="B187">
+      <c r="B187" t="n">
         <v>85740000000</v>
       </c>
-      <c r="C187">
+      <c r="C187" t="n">
         <v>0.1255413972757517</v>
       </c>
-      <c r="D187">
+      <c r="D187" t="n">
         <v>10763919402.42295</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="2">
+    <row r="188">
+      <c r="A188" s="2" t="n">
         <v>36495</v>
       </c>
-      <c r="B188">
+      <c r="B188" t="n">
         <v>86096000000</v>
       </c>
-      <c r="C188">
+      <c r="C188" t="n">
         <v>0.1255808112520407</v>
       </c>
-      <c r="D188">
+      <c r="D188" t="n">
         <v>10812005525.55569</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="2">
+    <row r="189">
+      <c r="A189" s="2" t="n">
         <v>36526</v>
       </c>
-      <c r="B189">
+      <c r="B189" t="n">
         <v>85895000000</v>
       </c>
-      <c r="C189">
+      <c r="C189" t="n">
         <v>0.1254233036498181</v>
       </c>
-      <c r="D189">
+      <c r="D189" t="n">
         <v>10773234667.00113</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="2">
+    <row r="190">
+      <c r="A190" s="2" t="n">
         <v>36557</v>
       </c>
-      <c r="B190">
+      <c r="B190" t="n">
         <v>85761000000</v>
       </c>
-      <c r="C190">
+      <c r="C190" t="n">
         <v>0.1243889393355143</v>
       </c>
-      <c r="D190">
+      <c r="D190" t="n">
         <v>10667719826.35304</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="2">
+    <row r="191">
+      <c r="A191" s="2" t="n">
         <v>36586</v>
       </c>
-      <c r="B191">
+      <c r="B191" t="n">
         <v>86485000000</v>
       </c>
-      <c r="C191">
+      <c r="C191" t="n">
         <v>0.125328988595062</v>
       </c>
-      <c r="D191">
+      <c r="D191" t="n">
         <v>10839077578.64394</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="2">
+    <row r="192">
+      <c r="A192" s="2" t="n">
         <v>36617</v>
       </c>
-      <c r="B192">
+      <c r="B192" t="n">
         <v>79765000000</v>
       </c>
-      <c r="C192">
+      <c r="C192" t="n">
         <v>0.125281884239539</v>
       </c>
-      <c r="D192">
+      <c r="D192" t="n">
         <v>9993109496.366825</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="2">
+    <row r="193">
+      <c r="A193" s="2" t="n">
         <v>36647</v>
       </c>
-      <c r="B193">
+      <c r="B193" t="n">
         <v>79572000000</v>
       </c>
-      <c r="C193">
+      <c r="C193" t="n">
         <v>0.1252348152786475</v>
       </c>
-      <c r="D193">
+      <c r="D193" t="n">
         <v>9965184721.352535</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="2">
+    <row r="194">
+      <c r="A194" s="2" t="n">
         <v>36678</v>
       </c>
-      <c r="B194">
+      <c r="B194" t="n">
         <v>80774000000</v>
       </c>
-      <c r="C194">
+      <c r="C194" t="n">
         <v>0.125203455615375</v>
       </c>
-      <c r="D194">
+      <c r="D194" t="n">
         <v>10113183923.8763</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="2">
+    <row r="195">
+      <c r="A195" s="2" t="n">
         <v>36708</v>
       </c>
-      <c r="B195">
+      <c r="B195" t="n">
         <v>82051000000</v>
       </c>
-      <c r="C195">
+      <c r="C195" t="n">
         <v>0.1251251251251251</v>
       </c>
-      <c r="D195">
+      <c r="D195" t="n">
         <v>10266641641.64164</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="2">
+    <row r="196">
+      <c r="A196" s="2" t="n">
         <v>36739</v>
       </c>
-      <c r="B196">
+      <c r="B196" t="n">
         <v>83576000000</v>
       </c>
-      <c r="C196">
+      <c r="C196" t="n">
         <v>0.1251564455569462</v>
       </c>
-      <c r="D196">
+      <c r="D196" t="n">
         <v>10460075093.86733</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="2">
+    <row r="197">
+      <c r="A197" s="2" t="n">
         <v>36770</v>
       </c>
-      <c r="B197">
+      <c r="B197" t="n">
         <v>83257000000</v>
       </c>
-      <c r="C197">
+      <c r="C197" t="n">
         <v>0.1251564455569462</v>
       </c>
-      <c r="D197">
+      <c r="D197" t="n">
         <v>10420150187.73467</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="2">
+    <row r="198">
+      <c r="A198" s="2" t="n">
         <v>36800</v>
       </c>
-      <c r="B198">
+      <c r="B198" t="n">
         <v>83834000000</v>
       </c>
-      <c r="C198">
+      <c r="C198" t="n">
         <v>0.1244555071561917</v>
       </c>
-      <c r="D198">
+      <c r="D198" t="n">
         <v>10433602986.93217</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="2">
+    <row r="199">
+      <c r="A199" s="2" t="n">
         <v>36831</v>
       </c>
-      <c r="B199">
+      <c r="B199" t="n">
         <v>84728000000</v>
       </c>
-      <c r="C199">
+      <c r="C199" t="n">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D199">
+      <c r="D199" t="n">
         <v>10600275240.83573</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="2">
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>36861</v>
       </c>
-      <c r="B200">
+      <c r="B200" t="n">
         <v>84918000000</v>
       </c>
-      <c r="C200">
+      <c r="C200" t="n">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D200">
+      <c r="D200" t="n">
         <v>10624046040.28525</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="2">
+    <row r="201">
+      <c r="A201" s="2" t="n">
         <v>36892</v>
       </c>
-      <c r="B201">
+      <c r="B201" t="n">
         <v>86060000000</v>
       </c>
-      <c r="C201">
+      <c r="C201" t="n">
         <v>0.1244245365186015</v>
       </c>
-      <c r="D201">
+      <c r="D201" t="n">
         <v>10707975612.79084</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="2">
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>36923</v>
       </c>
-      <c r="B202">
+      <c r="B202" t="n">
         <v>85996000000</v>
       </c>
-      <c r="C202">
+      <c r="C202" t="n">
         <v>0.1244555071561917</v>
       </c>
-      <c r="D202">
+      <c r="D202" t="n">
         <v>10702675793.40386</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="2">
+    <row r="203">
+      <c r="A203" s="2" t="n">
         <v>36951</v>
       </c>
-      <c r="B203">
+      <c r="B203" t="n">
         <v>85347000000</v>
       </c>
-      <c r="C203">
+      <c r="C203" t="n">
         <v>0.1243781094527363</v>
       </c>
-      <c r="D203">
+      <c r="D203" t="n">
         <v>10615298507.46269</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="2">
+    <row r="204">
+      <c r="A204" s="2" t="n">
         <v>36982</v>
       </c>
-      <c r="B204">
+      <c r="B204" t="n">
         <v>85730000000</v>
       </c>
-      <c r="C204">
+      <c r="C204" t="n">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D204">
+      <c r="D204" t="n">
         <v>10725634930.56424</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="2">
+    <row r="205">
+      <c r="A205" s="2" t="n">
         <v>37012</v>
       </c>
-      <c r="B205">
+      <c r="B205" t="n">
         <v>87370000000</v>
       </c>
-      <c r="C205">
+      <c r="C205" t="n">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D205">
+      <c r="D205" t="n">
         <v>10930814462.65482</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="2">
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>37043</v>
       </c>
-      <c r="B206">
+      <c r="B206" t="n">
         <v>87803000000</v>
       </c>
-      <c r="C206">
+      <c r="C206" t="n">
         <v>0.125093820365274</v>
       </c>
-      <c r="D206">
+      <c r="D206" t="n">
         <v>10983612709.53215</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="2">
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>37073</v>
       </c>
-      <c r="B207">
+      <c r="B207" t="n">
         <v>88413000000</v>
       </c>
-      <c r="C207">
+      <c r="C207" t="n">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D207">
+      <c r="D207" t="n">
         <v>11061303640.6856</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="2">
+    <row r="208">
+      <c r="A208" s="2" t="n">
         <v>37104</v>
       </c>
-      <c r="B208">
+      <c r="B208" t="n">
         <v>89167000000</v>
       </c>
-      <c r="C208">
+      <c r="C208" t="n">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D208">
+      <c r="D208" t="n">
         <v>11155636181.65895</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="2">
+    <row r="209">
+      <c r="A209" s="2" t="n">
         <v>37135</v>
       </c>
-      <c r="B209">
+      <c r="B209" t="n">
         <v>89527000000</v>
       </c>
-      <c r="C209">
+      <c r="C209" t="n">
         <v>0.1244864932154861</v>
       </c>
-      <c r="D209">
+      <c r="D209" t="n">
         <v>11144902278.10283</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="2">
+    <row r="210">
+      <c r="A210" s="2" t="n">
         <v>37165</v>
       </c>
-      <c r="B210">
+      <c r="B210" t="n">
         <v>90342000000</v>
       </c>
-      <c r="C210">
+      <c r="C210" t="n">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D210">
+      <c r="D210" t="n">
         <v>11302639809.8336</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="2">
+    <row r="211">
+      <c r="A211" s="2" t="n">
         <v>37196</v>
       </c>
-      <c r="B211">
+      <c r="B211" t="n">
         <v>90605000000</v>
       </c>
-      <c r="C211">
+      <c r="C211" t="n">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D211">
+      <c r="D211" t="n">
         <v>11335543600.65057</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="2">
+    <row r="212">
+      <c r="A212" s="2" t="n">
         <v>37226</v>
       </c>
-      <c r="B212">
+      <c r="B212" t="n">
         <v>91550000000</v>
       </c>
-      <c r="C212">
+      <c r="C212" t="n">
         <v>0.125140783381304</v>
       </c>
-      <c r="D212">
+      <c r="D212" t="n">
         <v>11456638718.55838</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="2">
+    <row r="213">
+      <c r="A213" s="2" t="n">
         <v>37257</v>
       </c>
-      <c r="B213">
+      <c r="B213" t="n">
         <v>91752000000</v>
       </c>
-      <c r="C213">
+      <c r="C213" t="n">
         <v>0.1244864932154861</v>
       </c>
-      <c r="D213">
+      <c r="D213" t="n">
         <v>11421884725.50728</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="2">
+    <row r="214">
+      <c r="A214" s="2" t="n">
         <v>37288</v>
       </c>
-      <c r="B214">
+      <c r="B214" t="n">
         <v>91989000000</v>
       </c>
-      <c r="C214">
+      <c r="C214" t="n">
         <v>0.1244864932154861</v>
       </c>
-      <c r="D214">
+      <c r="D214" t="n">
         <v>11451388024.39935</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="2">
+    <row r="215">
+      <c r="A215" s="2" t="n">
         <v>37316</v>
       </c>
-      <c r="B215">
+      <c r="B215" t="n">
         <v>93632000000</v>
       </c>
-      <c r="C215">
+      <c r="C215" t="n">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D215">
+      <c r="D215" t="n">
         <v>11714249968.72263</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="2">
+    <row r="216">
+      <c r="A216" s="2" t="n">
         <v>37347</v>
       </c>
-      <c r="B216">
+      <c r="B216" t="n">
         <v>94271000000</v>
       </c>
-      <c r="C216">
+      <c r="C216" t="n">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D216">
+      <c r="D216" t="n">
         <v>11794194920.55549</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="2">
+    <row r="217">
+      <c r="A217" s="2" t="n">
         <v>37377</v>
       </c>
-      <c r="B217">
+      <c r="B217" t="n">
         <v>95047000000</v>
       </c>
-      <c r="C217">
+      <c r="C217" t="n">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D217">
+      <c r="D217" t="n">
         <v>11891279869.88615</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="2">
+    <row r="218">
+      <c r="A218" s="2" t="n">
         <v>37408</v>
       </c>
-      <c r="B218">
+      <c r="B218" t="n">
         <v>95696000000</v>
       </c>
-      <c r="C218">
+      <c r="C218" t="n">
         <v>0.125093820365274</v>
       </c>
-      <c r="D218">
+      <c r="D218" t="n">
         <v>11970978233.67526</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="2">
+    <row r="219">
+      <c r="A219" s="2" t="n">
         <v>37438</v>
       </c>
-      <c r="B219">
+      <c r="B219" t="n">
         <v>94820000000</v>
       </c>
-      <c r="C219">
+      <c r="C219" t="n">
         <v>0.125093820365274</v>
       </c>
-      <c r="D219">
+      <c r="D219" t="n">
         <v>11861396047.03528</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="2">
+    <row r="220">
+      <c r="A220" s="2" t="n">
         <v>37469</v>
       </c>
-      <c r="B220">
+      <c r="B220" t="n">
         <v>95664000000</v>
       </c>
-      <c r="C220">
+      <c r="C220" t="n">
         <v>0.125093820365274</v>
       </c>
-      <c r="D220">
+      <c r="D220" t="n">
         <v>11966975231.42357</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="2">
+    <row r="221">
+      <c r="A221" s="2" t="n">
         <v>37500</v>
       </c>
-      <c r="B221">
+      <c r="B221" t="n">
         <v>95659000000</v>
       </c>
-      <c r="C221">
+      <c r="C221" t="n">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D221">
+      <c r="D221" t="n">
         <v>11967846866.00776</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="2">
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>37530</v>
       </c>
-      <c r="B222">
+      <c r="B222" t="n">
         <v>96797000000</v>
       </c>
-      <c r="C222">
+      <c r="C222" t="n">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D222">
+      <c r="D222" t="n">
         <v>12110221443.76329</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="2">
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>37561</v>
       </c>
-      <c r="B223">
+      <c r="B223" t="n">
         <v>98135000000</v>
       </c>
-      <c r="C223">
+      <c r="C223" t="n">
         <v>0.1251251251251251</v>
       </c>
-      <c r="D223">
+      <c r="D223" t="n">
         <v>12279154154.15416</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="2">
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>37591</v>
       </c>
-      <c r="B224">
+      <c r="B224" t="n">
         <v>98959000000</v>
       </c>
-      <c r="C224">
+      <c r="C224" t="n">
         <v>0.1251251251251251</v>
       </c>
-      <c r="D224">
+      <c r="D224" t="n">
         <v>12382257257.25726</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="2">
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>37622</v>
       </c>
-      <c r="B225">
+      <c r="B225" t="n">
         <v>100010000000</v>
       </c>
-      <c r="C225">
+      <c r="C225" t="n">
         <v>0.125093820365274</v>
       </c>
-      <c r="D225">
+      <c r="D225" t="n">
         <v>12510632974.73105</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="2">
+    <row r="226">
+      <c r="A226" s="2" t="n">
         <v>37653</v>
       </c>
-      <c r="B226">
+      <c r="B226" t="n">
         <v>100474000000</v>
       </c>
-      <c r="C226">
+      <c r="C226" t="n">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D226">
+      <c r="D226" t="n">
         <v>12570248967.84687</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="2">
+    <row r="227">
+      <c r="A227" s="2" t="n">
         <v>37681</v>
       </c>
-      <c r="B227">
+      <c r="B227" t="n">
         <v>100884000000</v>
       </c>
-      <c r="C227">
+      <c r="C227" t="n">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D227">
+      <c r="D227" t="n">
         <v>12621543850.86951</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="2">
+    <row r="228">
+      <c r="A228" s="2" t="n">
         <v>37712</v>
       </c>
-      <c r="B228">
+      <c r="B228" t="n">
         <v>100241000000</v>
       </c>
-      <c r="C228">
+      <c r="C228" t="n">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D228">
+      <c r="D228" t="n">
         <v>12541098461.15351</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="2">
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>37742</v>
       </c>
-      <c r="B229">
+      <c r="B229" t="n">
         <v>101864000000</v>
       </c>
-      <c r="C229">
+      <c r="C229" t="n">
         <v>0.1244942421413009</v>
       </c>
-      <c r="D229">
+      <c r="D229" t="n">
         <v>12681481481.48148</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="2">
+    <row r="230">
+      <c r="A230" s="2" t="n">
         <v>37773</v>
       </c>
-      <c r="B230">
+      <c r="B230" t="n">
         <v>101696000000</v>
       </c>
-      <c r="C230">
+      <c r="C230" t="n">
         <v>0.1251251251251251</v>
       </c>
-      <c r="D230">
+      <c r="D230" t="n">
         <v>12724724724.72473</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="2">
+    <row r="231">
+      <c r="A231" s="2" t="n">
         <v>37803</v>
       </c>
-      <c r="B231">
+      <c r="B231" t="n">
         <v>102340000000</v>
       </c>
-      <c r="C231">
+      <c r="C231" t="n">
         <v>0.1244833939152517</v>
       </c>
-      <c r="D231">
+      <c r="D231" t="n">
         <v>12739630533.28686</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="2">
+    <row r="232">
+      <c r="A232" s="2" t="n">
         <v>37834</v>
       </c>
-      <c r="B232">
+      <c r="B232" t="n">
         <v>107306000000</v>
       </c>
-      <c r="C232">
+      <c r="C232" t="n">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D232">
+      <c r="D232" t="n">
         <v>13424996872.26323</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="2">
+    <row r="233">
+      <c r="A233" s="2" t="n">
         <v>37865</v>
       </c>
-      <c r="B233">
+      <c r="B233" t="n">
         <v>108071000000</v>
       </c>
-      <c r="C233">
+      <c r="C233" t="n">
         <v>0.126008064516129</v>
       </c>
-      <c r="D233">
+      <c r="D233" t="n">
         <v>13617817540.32258</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="2">
+    <row r="234">
+      <c r="A234" s="2" t="n">
         <v>37895</v>
       </c>
-      <c r="B234">
+      <c r="B234" t="n">
         <v>109445000000</v>
       </c>
-      <c r="C234">
+      <c r="C234" t="n">
         <v>0.125012501250125</v>
       </c>
-      <c r="D234">
+      <c r="D234" t="n">
         <v>13681993199.31993</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="2">
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>37926</v>
       </c>
-      <c r="B235">
+      <c r="B235" t="n">
         <v>110752000000</v>
       </c>
-      <c r="C235">
+      <c r="C235" t="n">
         <v>0.1254044292844423</v>
       </c>
-      <c r="D235">
+      <c r="D235" t="n">
         <v>13888791352.11056</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="2">
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>37956</v>
       </c>
-      <c r="B236">
+      <c r="B236" t="n">
         <v>111090000000</v>
       </c>
-      <c r="C236">
+      <c r="C236" t="n">
         <v>0.1254044292844423</v>
       </c>
-      <c r="D236">
+      <c r="D236" t="n">
         <v>13931178049.2087</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="2">
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>37987</v>
       </c>
-      <c r="B237">
+      <c r="B237" t="n">
         <v>112373000000</v>
       </c>
-      <c r="C237">
+      <c r="C237" t="n">
         <v>0.1248782437123804</v>
       </c>
-      <c r="D237">
+      <c r="D237" t="n">
         <v>14032942880.69133</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="2">
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>38018</v>
       </c>
-      <c r="B238">
+      <c r="B238" t="n">
         <v>110989000000</v>
       </c>
-      <c r="C238">
+      <c r="C238" t="n">
         <v>0.1248969600079934</v>
       </c>
-      <c r="D238">
+      <c r="D238" t="n">
         <v>13862188694.32718</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="2">
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>38047</v>
       </c>
-      <c r="B239">
+      <c r="B239" t="n">
         <v>110898000000</v>
       </c>
-      <c r="C239">
+      <c r="C239" t="n">
         <v>0.1248969600079934</v>
       </c>
-      <c r="D239">
+      <c r="D239" t="n">
         <v>13850823070.96645</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="2">
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>38078</v>
       </c>
-      <c r="B240">
+      <c r="B240" t="n">
         <v>110138000000</v>
       </c>
-      <c r="C240">
+      <c r="C240" t="n">
         <v>0.1248969600079934</v>
       </c>
-      <c r="D240">
+      <c r="D240" t="n">
         <v>13755901381.36038</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="2">
+    <row r="241">
+      <c r="A241" s="2" t="n">
         <v>38108</v>
       </c>
-      <c r="B241">
+      <c r="B241" t="n">
         <v>109862000000</v>
       </c>
-      <c r="C241">
+      <c r="C241" t="n">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D241">
+      <c r="D241" t="n">
         <v>13722286756.34828</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="2">
+    <row r="242">
+      <c r="A242" s="2" t="n">
         <v>38139</v>
       </c>
-      <c r="B242">
+      <c r="B242" t="n">
         <v>111721000000</v>
       </c>
-      <c r="C242">
+      <c r="C242" t="n">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D242">
+      <c r="D242" t="n">
         <v>13954484705.41212</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="2">
+    <row r="243">
+      <c r="A243" s="2" t="n">
         <v>38169</v>
       </c>
-      <c r="B243">
+      <c r="B243" t="n">
         <v>113468000000</v>
       </c>
-      <c r="C243">
+      <c r="C243" t="n">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D243">
+      <c r="D243" t="n">
         <v>14172693321.34248</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="2">
+    <row r="244">
+      <c r="A244" s="2" t="n">
         <v>38200</v>
       </c>
-      <c r="B244">
+      <c r="B244" t="n">
         <v>114252000000</v>
       </c>
-      <c r="C244">
+      <c r="C244" t="n">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D244">
+      <c r="D244" t="n">
         <v>14270618653.27688</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="2">
+    <row r="245">
+      <c r="A245" s="2" t="n">
         <v>38231</v>
       </c>
-      <c r="B245">
+      <c r="B245" t="n">
         <v>115262000000</v>
       </c>
-      <c r="C245">
+      <c r="C245" t="n">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D245">
+      <c r="D245" t="n">
         <v>14396772460.99849</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="2">
+    <row r="246">
+      <c r="A246" s="2" t="n">
         <v>38261</v>
       </c>
-      <c r="B246">
+      <c r="B246" t="n">
         <v>117236000000</v>
       </c>
-      <c r="C246">
+      <c r="C246" t="n">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D246">
+      <c r="D246" t="n">
         <v>14643334457.47617</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="2">
+    <row r="247">
+      <c r="A247" s="2" t="n">
         <v>38292</v>
       </c>
-      <c r="B247">
+      <c r="B247" t="n">
         <v>118590000000</v>
       </c>
-      <c r="C247">
+      <c r="C247" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D247">
+      <c r="D247" t="n">
         <v>14813380633.55651</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="2">
+    <row r="248">
+      <c r="A248" s="2" t="n">
         <v>38322</v>
       </c>
-      <c r="B248">
+      <c r="B248" t="n">
         <v>120947000000</v>
       </c>
-      <c r="C248">
+      <c r="C248" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D248">
+      <c r="D248" t="n">
         <v>15107799540.32178</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="2">
+    <row r="249">
+      <c r="A249" s="2" t="n">
         <v>38353</v>
       </c>
-      <c r="B249">
+      <c r="B249" t="n">
         <v>123030000000</v>
       </c>
-      <c r="C249">
+      <c r="C249" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D249">
+      <c r="D249" t="n">
         <v>15367992405.31628</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="2">
+    <row r="250">
+      <c r="A250" s="2" t="n">
         <v>38384</v>
       </c>
-      <c r="B250">
+      <c r="B250" t="n">
         <v>123775000000</v>
       </c>
-      <c r="C250">
+      <c r="C250" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D250">
+      <c r="D250" t="n">
         <v>15461052263.41561</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="2">
+    <row r="251">
+      <c r="A251" s="2" t="n">
         <v>38412</v>
       </c>
-      <c r="B251">
+      <c r="B251" t="n">
         <v>122484000000</v>
       </c>
-      <c r="C251">
+      <c r="C251" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D251">
+      <c r="D251" t="n">
         <v>15299790146.89717</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="2">
+    <row r="252">
+      <c r="A252" s="2" t="n">
         <v>38443</v>
       </c>
-      <c r="B252">
+      <c r="B252" t="n">
         <v>126656000000</v>
       </c>
-      <c r="C252">
+      <c r="C252" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D252">
+      <c r="D252" t="n">
         <v>15820925352.25342</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="2">
+    <row r="253">
+      <c r="A253" s="2" t="n">
         <v>38473</v>
       </c>
-      <c r="B253">
+      <c r="B253" t="n">
         <v>127669000000</v>
       </c>
-      <c r="C253">
+      <c r="C253" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D253">
+      <c r="D253" t="n">
         <v>15947461776.75627</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="2">
+    <row r="254">
+      <c r="A254" s="2" t="n">
         <v>38504</v>
       </c>
-      <c r="B254">
+      <c r="B254" t="n">
         <v>129774000000</v>
       </c>
-      <c r="C254">
+      <c r="C254" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D254">
+      <c r="D254" t="n">
         <v>16210402718.09733</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="2">
+    <row r="255">
+      <c r="A255" s="2" t="n">
         <v>38534</v>
       </c>
-      <c r="B255">
+      <c r="B255" t="n">
         <v>130331000000</v>
       </c>
-      <c r="C255">
+      <c r="C255" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D255">
+      <c r="D255" t="n">
         <v>16279979014.68972</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="2">
+    <row r="256">
+      <c r="A256" s="2" t="n">
         <v>38565</v>
       </c>
-      <c r="B256">
+      <c r="B256" t="n">
         <v>132191000000</v>
       </c>
-      <c r="C256">
+      <c r="C256" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D256">
+      <c r="D256" t="n">
         <v>16512316378.53503</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="2">
+    <row r="257">
+      <c r="A257" s="2" t="n">
         <v>38596</v>
       </c>
-      <c r="B257">
+      <c r="B257" t="n">
         <v>132008000000</v>
       </c>
-      <c r="C257">
+      <c r="C257" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D257">
+      <c r="D257" t="n">
         <v>16489457379.83412</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="2">
+    <row r="258">
+      <c r="A258" s="2" t="n">
         <v>38626</v>
       </c>
-      <c r="B258">
+      <c r="B258" t="n">
         <v>132610000000</v>
       </c>
-      <c r="C258">
+      <c r="C258" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D258">
+      <c r="D258" t="n">
         <v>16564654741.68083</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="2">
+    <row r="259">
+      <c r="A259" s="2" t="n">
         <v>38657</v>
       </c>
-      <c r="B259">
+      <c r="B259" t="n">
         <v>133005000000</v>
       </c>
-      <c r="C259">
+      <c r="C259" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D259">
+      <c r="D259" t="n">
         <v>16613995203.35765</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="2">
+    <row r="260">
+      <c r="A260" s="2" t="n">
         <v>38687</v>
       </c>
-      <c r="B260">
+      <c r="B260" t="n">
         <v>135660000000</v>
       </c>
-      <c r="C260">
+      <c r="C260" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D260">
+      <c r="D260" t="n">
         <v>16945638053.36265</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="2">
+    <row r="261">
+      <c r="A261" s="2" t="n">
         <v>38718</v>
       </c>
-      <c r="B261">
+      <c r="B261" t="n">
         <v>142820000000</v>
       </c>
-      <c r="C261">
+      <c r="C261" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D261">
+      <c r="D261" t="n">
         <v>17840011991.60588</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="2">
+    <row r="262">
+      <c r="A262" s="2" t="n">
         <v>38749</v>
       </c>
-      <c r="B262">
+      <c r="B262" t="n">
         <v>144325000000</v>
       </c>
-      <c r="C262">
+      <c r="C262" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D262">
+      <c r="D262" t="n">
         <v>18028005396.22264</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="2">
+    <row r="263">
+      <c r="A263" s="2" t="n">
         <v>38777</v>
       </c>
-      <c r="B263">
+      <c r="B263" t="n">
         <v>146247000000</v>
       </c>
-      <c r="C263">
+      <c r="C263" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D263">
+      <c r="D263" t="n">
         <v>18268087338.8628</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
-      <c r="A264" s="2">
+    <row r="264">
+      <c r="A264" s="2" t="n">
         <v>38808</v>
       </c>
-      <c r="B264">
+      <c r="B264" t="n">
         <v>150290000000</v>
       </c>
-      <c r="C264">
+      <c r="C264" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D264">
+      <c r="D264" t="n">
         <v>18773108823.82333</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="2">
+    <row r="265">
+      <c r="A265" s="2" t="n">
         <v>38838</v>
       </c>
-      <c r="B265">
+      <c r="B265" t="n">
         <v>150560000000</v>
       </c>
-      <c r="C265">
+      <c r="C265" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D265">
+      <c r="D265" t="n">
         <v>18806835215.34926</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
-      <c r="A266" s="2">
+    <row r="266">
+      <c r="A266" s="2" t="n">
         <v>38869</v>
       </c>
-      <c r="B266">
+      <c r="B266" t="n">
         <v>153025000000</v>
       </c>
-      <c r="C266">
+      <c r="C266" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D266">
+      <c r="D266" t="n">
         <v>19114744678.7249</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="2">
+    <row r="267">
+      <c r="A267" s="2" t="n">
         <v>38899</v>
       </c>
-      <c r="B267">
+      <c r="B267" t="n">
         <v>155120000000</v>
       </c>
-      <c r="C267">
+      <c r="C267" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D267">
+      <c r="D267" t="n">
         <v>19376436494.45388</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="2">
+    <row r="268">
+      <c r="A268" s="2" t="n">
         <v>38930</v>
       </c>
-      <c r="B268">
+      <c r="B268" t="n">
         <v>156440000000</v>
       </c>
-      <c r="C268">
+      <c r="C268" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D268">
+      <c r="D268" t="n">
         <v>19541321075.24733</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
-      <c r="A269" s="2">
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>38961</v>
       </c>
-      <c r="B269">
+      <c r="B269" t="n">
         <v>160117000000</v>
       </c>
-      <c r="C269">
+      <c r="C269" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D269">
+      <c r="D269" t="n">
         <v>20000624562.80604</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="2">
+    <row r="270">
+      <c r="A270" s="2" t="n">
         <v>38991</v>
       </c>
-      <c r="B270">
+      <c r="B270" t="n">
         <v>162451000000</v>
       </c>
-      <c r="C270">
+      <c r="C270" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D270">
+      <c r="D270" t="n">
         <v>20292170480.66354</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="2">
+    <row r="271">
+      <c r="A271" s="2" t="n">
         <v>39022</v>
       </c>
-      <c r="B271">
+      <c r="B271" t="n">
         <v>163731000000</v>
       </c>
-      <c r="C271">
+      <c r="C271" t="n">
         <v>0.124912561207155</v>
       </c>
-      <c r="D271">
+      <c r="D271" t="n">
         <v>20452058559.0087</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="2">
+    <row r="272">
+      <c r="A272" s="2" t="n">
         <v>39052</v>
       </c>
-      <c r="B272">
+      <c r="B272" t="n">
         <v>168912000000</v>
       </c>
-      <c r="C272">
+      <c r="C272" t="n">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D272">
+      <c r="D272" t="n">
         <v>21097912841.45839</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="2">
+    <row r="273">
+      <c r="A273" s="2" t="n">
         <v>39083</v>
       </c>
-      <c r="B273">
+      <c r="B273" t="n">
         <v>169105000000</v>
       </c>
-      <c r="C273">
+      <c r="C273" t="n">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D273">
+      <c r="D273" t="n">
         <v>21122019460.16162</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="2">
+    <row r="274">
+      <c r="A274" s="2" t="n">
         <v>39114</v>
       </c>
-      <c r="B274">
+      <c r="B274" t="n">
         <v>167475000000</v>
       </c>
-      <c r="C274">
+      <c r="C274" t="n">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D274">
+      <c r="D274" t="n">
         <v>20918424701.16536</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="2">
+    <row r="275">
+      <c r="A275" s="2" t="n">
         <v>39142</v>
       </c>
-      <c r="B275">
+      <c r="B275" t="n">
         <v>168856000000</v>
       </c>
-      <c r="C275">
+      <c r="C275" t="n">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D275">
+      <c r="D275" t="n">
         <v>21090918174.89164</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="2">
+    <row r="276">
+      <c r="A276" s="2" t="n">
         <v>39173</v>
       </c>
-      <c r="B276">
+      <c r="B276" t="n">
         <v>174191000000</v>
       </c>
-      <c r="C276">
+      <c r="C276" t="n">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D276">
+      <c r="D276" t="n">
         <v>21757285070.13402</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="2">
+    <row r="277">
+      <c r="A277" s="2" t="n">
         <v>39203</v>
       </c>
-      <c r="B277">
+      <c r="B277" t="n">
         <v>175749000000</v>
       </c>
-      <c r="C277">
+      <c r="C277" t="n">
         <v>0.1243765624805662</v>
       </c>
-      <c r="D277">
+      <c r="D277" t="n">
         <v>21859056479.39702</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="2">
+    <row r="278">
+      <c r="A278" s="2" t="n">
         <v>39234</v>
       </c>
-      <c r="B278">
+      <c r="B278" t="n">
         <v>175226000000</v>
       </c>
-      <c r="C278">
+      <c r="C278" t="n">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D278">
+      <c r="D278" t="n">
         <v>21886561496.85865</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="2">
+    <row r="279">
+      <c r="A279" s="2" t="n">
         <v>39264</v>
       </c>
-      <c r="B279">
+      <c r="B279" t="n">
         <v>180077000000</v>
       </c>
-      <c r="C279">
+      <c r="C279" t="n">
         <v>0.1242621932277105</v>
       </c>
-      <c r="D279">
+      <c r="D279" t="n">
         <v>22376762969.86642</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="2">
+    <row r="280">
+      <c r="A280" s="2" t="n">
         <v>39295</v>
       </c>
-      <c r="B280">
+      <c r="B280" t="n">
         <v>181189000000</v>
       </c>
-      <c r="C280">
+      <c r="C280" t="n">
         <v>0.1245717844908128</v>
       </c>
-      <c r="D280">
+      <c r="D280" t="n">
         <v>22571037060.10589</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="2">
+    <row r="281">
+      <c r="A281" s="2" t="n">
         <v>39326</v>
       </c>
-      <c r="B281">
+      <c r="B281" t="n">
         <v>182288000000</v>
       </c>
-      <c r="C281">
+      <c r="C281" t="n">
         <v>0.1246882793017456</v>
       </c>
-      <c r="D281">
+      <c r="D281" t="n">
         <v>22729177057.35661</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="2">
+    <row r="282">
+      <c r="A282" s="2" t="n">
         <v>39356</v>
       </c>
-      <c r="B282">
+      <c r="B282" t="n">
         <v>187427000000</v>
       </c>
-      <c r="C282">
+      <c r="C282" t="n">
         <v>0.125328988595062</v>
       </c>
-      <c r="D282">
+      <c r="D282" t="n">
         <v>23490036345.40669</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="2">
+    <row r="283">
+      <c r="A283" s="2" t="n">
         <v>39387</v>
       </c>
-      <c r="B283">
+      <c r="B283" t="n">
         <v>182415000000</v>
       </c>
-      <c r="C283">
+      <c r="C283" t="n">
         <v>0.1249921879882507</v>
       </c>
-      <c r="D283">
+      <c r="D283" t="n">
         <v>22800449971.87675</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="2">
+    <row r="284">
+      <c r="A284" s="2" t="n">
         <v>39417</v>
       </c>
-      <c r="B284">
+      <c r="B284" t="n">
         <v>185541000000</v>
       </c>
-      <c r="C284">
+      <c r="C284" t="n">
         <v>0.1246882793017456</v>
       </c>
-      <c r="D284">
+      <c r="D284" t="n">
         <v>23134788029.92519</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="2">
+    <row r="285">
+      <c r="A285" s="2" t="n">
         <v>39448</v>
       </c>
-      <c r="B285">
+      <c r="B285" t="n">
         <v>186941000000</v>
       </c>
-      <c r="C285">
+      <c r="C285" t="n">
         <v>0.1245562682942019</v>
       </c>
-      <c r="D285">
+      <c r="D285" t="n">
         <v>23284673351.1864</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="2">
+    <row r="286">
+      <c r="A286" s="2" t="n">
         <v>39479</v>
       </c>
-      <c r="B286">
+      <c r="B286" t="n">
         <v>187789000000</v>
       </c>
-      <c r="C286">
+      <c r="C286" t="n">
         <v>0.1248252446574795</v>
       </c>
-      <c r="D286">
+      <c r="D286" t="n">
         <v>23440807868.98342</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="2">
+    <row r="287">
+      <c r="A287" s="2" t="n">
         <v>39508</v>
       </c>
-      <c r="B287">
+      <c r="B287" t="n">
         <v>185286000000</v>
       </c>
-      <c r="C287">
+      <c r="C287" t="n">
         <v>0.1248657692980047</v>
       </c>
-      <c r="D287">
+      <c r="D287" t="n">
         <v>23135878930.15009</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="2">
+    <row r="288">
+      <c r="A288" s="2" t="n">
         <v>39539</v>
       </c>
-      <c r="B288">
+      <c r="B288" t="n">
         <v>184837000000</v>
       </c>
-      <c r="C288">
+      <c r="C288" t="n">
         <v>0.1247271593389461</v>
       </c>
-      <c r="D288">
+      <c r="D288" t="n">
         <v>23054193950.73277</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="2">
+    <row r="289">
+      <c r="A289" s="2" t="n">
         <v>39569</v>
       </c>
-      <c r="B289">
+      <c r="B289" t="n">
         <v>184615000000</v>
       </c>
-      <c r="C289">
+      <c r="C289" t="n">
         <v>0.1247271593389461</v>
       </c>
-      <c r="D289">
+      <c r="D289" t="n">
         <v>23026504521.35953</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="2">
+    <row r="290">
+      <c r="A290" s="2" t="n">
         <v>39600</v>
       </c>
-      <c r="B290">
+      <c r="B290" t="n">
         <v>182659000000</v>
       </c>
-      <c r="C290">
+      <c r="C290" t="n">
         <v>0.1243672814555947</v>
       </c>
-      <c r="D290">
+      <c r="D290" t="n">
         <v>22716803263.39747</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="2">
+    <row r="291">
+      <c r="A291" s="2" t="n">
         <v>39630</v>
       </c>
-      <c r="B291">
+      <c r="B291" t="n">
         <v>186419000000</v>
       </c>
-      <c r="C291">
+      <c r="C291" t="n">
         <v>0.1244338260912846</v>
       </c>
-      <c r="D291">
+      <c r="D291" t="n">
         <v>23196829426.11119</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
-      <c r="A292" s="2">
+    <row r="292">
+      <c r="A292" s="2" t="n">
         <v>39661</v>
       </c>
-      <c r="B292">
+      <c r="B292" t="n">
         <v>190077000000</v>
       </c>
-      <c r="C292">
+      <c r="C292" t="n">
         <v>0.124317806039359</v>
       </c>
-      <c r="D292">
+      <c r="D292" t="n">
         <v>23629955618.54324</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
-      <c r="A293" s="2">
+    <row r="293">
+      <c r="A293" s="2" t="n">
         <v>39692</v>
       </c>
-      <c r="B293">
+      <c r="B293" t="n">
         <v>191094000000</v>
       </c>
-      <c r="C293">
+      <c r="C293" t="n">
         <v>0.124317806039359</v>
       </c>
-      <c r="D293">
+      <c r="D293" t="n">
         <v>23756386827.28527</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="2">
+    <row r="294">
+      <c r="A294" s="2" t="n">
         <v>39722</v>
       </c>
-      <c r="B294">
+      <c r="B294" t="n">
         <v>189541000000</v>
       </c>
-      <c r="C294">
+      <c r="C294" t="n">
         <v>0.125250501002004</v>
       </c>
-      <c r="D294">
+      <c r="D294" t="n">
         <v>23740105210.42084</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="2">
+    <row r="295">
+      <c r="A295" s="2" t="n">
         <v>39753</v>
       </c>
-      <c r="B295">
+      <c r="B295" t="n">
         <v>185056000000</v>
       </c>
-      <c r="C295">
+      <c r="C295" t="n">
         <v>0.125250501002004</v>
       </c>
-      <c r="D295">
+      <c r="D295" t="n">
         <v>23178356713.42685</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="2">
+    <row r="296">
+      <c r="A296" s="2" t="n">
         <v>39783</v>
       </c>
-      <c r="B296">
+      <c r="B296" t="n">
         <v>189790000000</v>
       </c>
-      <c r="C296">
+      <c r="C296" t="n">
         <v>0.125278745208088</v>
       </c>
-      <c r="D296">
+      <c r="D296" t="n">
         <v>23776653053.04302</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="2">
+    <row r="297">
+      <c r="A297" s="2" t="n">
         <v>39814</v>
       </c>
-      <c r="B297">
+      <c r="B297" t="n">
         <v>194191000000</v>
       </c>
-      <c r="C297">
+      <c r="C297" t="n">
         <v>0.125278745208088</v>
       </c>
-      <c r="D297">
+      <c r="D297" t="n">
         <v>24328004810.70382</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="2">
+    <row r="298">
+      <c r="A298" s="2" t="n">
         <v>39845</v>
       </c>
-      <c r="B298">
+      <c r="B298" t="n">
         <v>192423000000</v>
       </c>
-      <c r="C298">
+      <c r="C298" t="n">
         <v>0.1252112940587241</v>
       </c>
-      <c r="D298">
+      <c r="D298" t="n">
         <v>24093532836.66187</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
-      <c r="A299" s="2">
+    <row r="299">
+      <c r="A299" s="2" t="n">
         <v>39873</v>
       </c>
-      <c r="B299">
+      <c r="B299" t="n">
         <v>196618000000</v>
       </c>
-      <c r="C299">
+      <c r="C299" t="n">
         <v>0.1252803147041505</v>
       </c>
-      <c r="D299">
+      <c r="D299" t="n">
         <v>24632364916.50067</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
-      <c r="A300" s="2">
+    <row r="300">
+      <c r="A300" s="2" t="n">
         <v>39904</v>
       </c>
-      <c r="B300">
+      <c r="B300" t="n">
         <v>197265000000</v>
       </c>
-      <c r="C300">
+      <c r="C300" t="n">
         <v>0.1252756063339346</v>
       </c>
-      <c r="D300">
+      <c r="D300" t="n">
         <v>24712492483.46362</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
-      <c r="A301" s="2">
+    <row r="301">
+      <c r="A301" s="2" t="n">
         <v>39934</v>
       </c>
-      <c r="B301">
+      <c r="B301" t="n">
         <v>201731000000</v>
       </c>
-      <c r="C301">
+      <c r="C301" t="n">
         <v>0.1252646215129461</v>
       </c>
-      <c r="D301">
+      <c r="D301" t="n">
         <v>25269757362.42813</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
-      <c r="A302" s="2">
+    <row r="302">
+      <c r="A302" s="2" t="n">
         <v>39965</v>
       </c>
-      <c r="B302">
+      <c r="B302" t="n">
         <v>203308000000</v>
       </c>
-      <c r="C302">
+      <c r="C302" t="n">
         <v>0.1253478402567124</v>
       </c>
-      <c r="D302">
+      <c r="D302" t="n">
         <v>25484218706.91168</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
-      <c r="A303" s="2">
+    <row r="303">
+      <c r="A303" s="2" t="n">
         <v>39995</v>
       </c>
-      <c r="B303">
+      <c r="B303" t="n">
         <v>208472000000</v>
       </c>
-      <c r="C303">
+      <c r="C303" t="n">
         <v>0.1253525540582889</v>
       </c>
-      <c r="D303">
+      <c r="D303" t="n">
         <v>26132497649.63961</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
-      <c r="A304" s="2">
+    <row r="304">
+      <c r="A304" s="2" t="n">
         <v>40026</v>
       </c>
-      <c r="B304">
+      <c r="B304" t="n">
         <v>207801000000</v>
       </c>
-      <c r="C304">
+      <c r="C304" t="n">
         <v>0.1253352718522046</v>
       </c>
-      <c r="D304">
+      <c r="D304" t="n">
         <v>26044794826.15998</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
-      <c r="A305" s="2">
+    <row r="305">
+      <c r="A305" s="2" t="n">
         <v>40057</v>
       </c>
-      <c r="B305">
+      <c r="B305" t="n">
         <v>208371000000</v>
       </c>
-      <c r="C305">
+      <c r="C305" t="n">
         <v>0.1253478402567124</v>
       </c>
-      <c r="D305">
+      <c r="D305" t="n">
         <v>26118854822.13141</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
-      <c r="A306" s="2">
+    <row r="306">
+      <c r="A306" s="2" t="n">
         <v>40087</v>
       </c>
-      <c r="B306">
+      <c r="B306" t="n">
         <v>211018000000</v>
       </c>
-      <c r="C306">
+      <c r="C306" t="n">
         <v>0.1253494114845131</v>
       </c>
-      <c r="D306">
+      <c r="D306" t="n">
         <v>26450982112.63898</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
-      <c r="A307" s="2">
+    <row r="307">
+      <c r="A307" s="2" t="n">
         <v>40118</v>
       </c>
-      <c r="B307">
+      <c r="B307" t="n">
         <v>211404000000</v>
       </c>
-      <c r="C307">
+      <c r="C307" t="n">
         <v>0.1253509827517048</v>
       </c>
-      <c r="D307">
+      <c r="D307" t="n">
         <v>26499699157.6414</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
-      <c r="A308" s="2">
+    <row r="308">
+      <c r="A308" s="2" t="n">
         <v>40148</v>
       </c>
-      <c r="B308">
+      <c r="B308" t="n">
         <v>212233000000</v>
       </c>
-      <c r="C308">
+      <c r="C308" t="n">
         <v>0.1252693290574736</v>
       </c>
-      <c r="D308">
+      <c r="D308" t="n">
         <v>26586285513.85479</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
-      <c r="A309" s="2">
+    <row r="309">
+      <c r="A309" s="2" t="n">
         <v>40179</v>
       </c>
-      <c r="B309">
+      <c r="B309" t="n">
         <v>215433000000</v>
       </c>
-      <c r="C309">
+      <c r="C309" t="n">
         <v>0.1249828148629564</v>
       </c>
-      <c r="D309">
+      <c r="D309" t="n">
         <v>26925422754.37128</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
-      <c r="A310" s="2">
+    <row r="310">
+      <c r="A310" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="B310">
+      <c r="B310" t="n">
         <v>210201000000</v>
       </c>
-      <c r="C310">
+      <c r="C310" t="n">
         <v>0.1251204284123469</v>
       </c>
-      <c r="D310">
+      <c r="D310" t="n">
         <v>26300439172.70373</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
-      <c r="A311" s="2">
+    <row r="311">
+      <c r="A311" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="B311">
+      <c r="B311" t="n">
         <v>215934000000</v>
       </c>
-      <c r="C311">
+      <c r="C311" t="n">
         <v>0.1251219939440955</v>
       </c>
-      <c r="D311">
+      <c r="D311" t="n">
         <v>27018092640.32431</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
-      <c r="A312" s="2">
+    <row r="312">
+      <c r="A312" s="2" t="n">
         <v>40269</v>
       </c>
-      <c r="B312">
+      <c r="B312" t="n">
         <v>216852000000</v>
       </c>
-      <c r="C312">
+      <c r="C312" t="n">
         <v>0.1251032101483724</v>
       </c>
-      <c r="D312">
+      <c r="D312" t="n">
         <v>27128881327.09485</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
-      <c r="A313" s="2">
+    <row r="313">
+      <c r="A313" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="B313">
+      <c r="B313" t="n">
         <v>216097000000</v>
       </c>
-      <c r="C313">
+      <c r="C313" t="n">
         <v>0.1247147150892334</v>
       </c>
-      <c r="D313">
+      <c r="D313" t="n">
         <v>26950475786.63807</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
-      <c r="A314" s="2">
+    <row r="314">
+      <c r="A314" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="B314">
+      <c r="B314" t="n">
         <v>222160000000</v>
       </c>
-      <c r="C314">
+      <c r="C314" t="n">
         <v>0.1247863034553327</v>
       </c>
-      <c r="D314">
+      <c r="D314" t="n">
         <v>27722525175.63672</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
-      <c r="A315" s="2">
+    <row r="315">
+      <c r="A315" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="B315">
+      <c r="B315" t="n">
         <v>228319000000</v>
       </c>
-      <c r="C315">
+      <c r="C315" t="n">
         <v>0.1250891260022766</v>
       </c>
-      <c r="D315">
+      <c r="D315" t="n">
         <v>28560224159.71379</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="2">
+    <row r="316">
+      <c r="A316" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="B316">
+      <c r="B316" t="n">
         <v>230230000000</v>
       </c>
-      <c r="C316">
+      <c r="C316" t="n">
         <v>0.124857974054513</v>
       </c>
-      <c r="D316">
+      <c r="D316" t="n">
         <v>28746051366.57053</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
-      <c r="A317" s="2">
+    <row r="317">
+      <c r="A317" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="B317">
+      <c r="B317" t="n">
         <v>236764000000</v>
       </c>
-      <c r="C317">
+      <c r="C317" t="n">
         <v>0.1251846473548484</v>
       </c>
-      <c r="D317">
+      <c r="D317" t="n">
         <v>29639217846.32333</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
-      <c r="A318" s="2">
+    <row r="318">
+      <c r="A318" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="B318">
+      <c r="B318" t="n">
         <v>244398000000</v>
       </c>
-      <c r="C318">
+      <c r="C318" t="n">
         <v>0.1252395205831152</v>
       </c>
-      <c r="D318">
+      <c r="D318" t="n">
         <v>30608288351.47219</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
-      <c r="A319" s="2">
+    <row r="319">
+      <c r="A319" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="B319">
+      <c r="B319" t="n">
         <v>240260000000</v>
       </c>
-      <c r="C319">
+      <c r="C319" t="n">
         <v>0.1251126013412071</v>
       </c>
-      <c r="D319">
+      <c r="D319" t="n">
         <v>30059553598.23841</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
-      <c r="A320" s="2">
+    <row r="320">
+      <c r="A320" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="B320">
+      <c r="B320" t="n">
         <v>243054000000</v>
       </c>
-      <c r="C320">
+      <c r="C320" t="n">
         <v>0.1248314775053678</v>
       </c>
-      <c r="D320">
+      <c r="D320" t="n">
         <v>30340789933.58966</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
-      <c r="A321" s="2">
+    <row r="321">
+      <c r="A321" s="2" t="n">
         <v>40544</v>
       </c>
-      <c r="B321">
+      <c r="B321" t="n">
         <v>259017000000</v>
       </c>
-      <c r="C321">
+      <c r="C321" t="n">
         <v>0.1246727340730582</v>
       </c>
-      <c r="D321">
+      <c r="D321" t="n">
         <v>32292357561.40132</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
-      <c r="A322" s="2">
+    <row r="322">
+      <c r="A322" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="B322">
+      <c r="B322" t="n">
         <v>252537000000</v>
       </c>
-      <c r="C322">
+      <c r="C322" t="n">
         <v>0.1246447624270828</v>
       </c>
-      <c r="D322">
+      <c r="D322" t="n">
         <v>31477414369.04821</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
-      <c r="A323" s="2">
+    <row r="323">
+      <c r="A323" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B323">
+      <c r="B323" t="n">
         <v>258770000000</v>
       </c>
-      <c r="C323">
+      <c r="C323" t="n">
         <v>0.1247831892087498</v>
       </c>
-      <c r="D323">
+      <c r="D323" t="n">
         <v>32290145871.54818</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
-      <c r="A324" s="2">
+    <row r="324">
+      <c r="A324" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B324">
+      <c r="B324" t="n">
         <v>267595000000</v>
       </c>
-      <c r="C324">
+      <c r="C324" t="n">
         <v>0.1250203158013177</v>
       </c>
-      <c r="D324">
+      <c r="D324" t="n">
         <v>33454811406.85361</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
-      <c r="A325" s="2">
+    <row r="325">
+      <c r="A325" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B325">
+      <c r="B325" t="n">
         <v>270182000000</v>
       </c>
-      <c r="C325">
+      <c r="C325" t="n">
         <v>0.1249016399585327</v>
       </c>
-      <c r="D325">
+      <c r="D325" t="n">
         <v>33746174887.27627</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
-      <c r="A326" s="2">
+    <row r="326">
+      <c r="A326" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B326">
+      <c r="B326" t="n">
         <v>271083000000</v>
       </c>
-      <c r="C326">
+      <c r="C326" t="n">
         <v>0.1248377109757315</v>
       </c>
-      <c r="D326">
+      <c r="D326" t="n">
         <v>33841381204.43423</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
-      <c r="A327" s="2">
+    <row r="327">
+      <c r="A327" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B327">
+      <c r="B327" t="n">
         <v>274137000000</v>
       </c>
-      <c r="C327">
+      <c r="C327" t="n">
         <v>0.1246649629121735</v>
       </c>
-      <c r="D327">
+      <c r="D327" t="n">
         <v>34175278937.85452</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
-      <c r="A328" s="2">
+    <row r="328">
+      <c r="A328" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B328">
+      <c r="B328" t="n">
         <v>278920000000</v>
       </c>
-      <c r="C328">
+      <c r="C328" t="n">
         <v>0.1246121446996224</v>
       </c>
-      <c r="D328">
+      <c r="D328" t="n">
         <v>34756819399.61868</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
-      <c r="A329" s="2">
+    <row r="329">
+      <c r="A329" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B329">
+      <c r="B329" t="n">
         <v>278433000000</v>
       </c>
-      <c r="C329">
+      <c r="C329" t="n">
         <v>0.1245935136616788</v>
       </c>
-      <c r="D329">
+      <c r="D329" t="n">
         <v>34690945789.36221</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
-      <c r="A330" s="2">
+    <row r="330">
+      <c r="A330" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B330">
+      <c r="B330" t="n">
         <v>292363000000</v>
       </c>
-      <c r="C330">
+      <c r="C330" t="n">
         <v>0.1251204284123469</v>
       </c>
-      <c r="D330">
+      <c r="D330" t="n">
         <v>36580583811.91898</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
-      <c r="A331" s="2">
+    <row r="331">
+      <c r="A331" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B331">
+      <c r="B331" t="n">
         <v>301987000000</v>
       </c>
-      <c r="C331">
+      <c r="C331" t="n">
         <v>0.1247193813918683</v>
       </c>
-      <c r="D331">
+      <c r="D331" t="n">
         <v>37663631828.38613</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
-      <c r="A332" s="2">
+    <row r="332">
+      <c r="A332" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B332">
+      <c r="B332" t="n">
         <v>297964000000</v>
       </c>
-      <c r="C332">
+      <c r="C332" t="n">
         <v>0.1250046876757878</v>
       </c>
-      <c r="D332">
+      <c r="D332" t="n">
         <v>37246896758.62845</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
-      <c r="A333" s="2">
+    <row r="333">
+      <c r="A333" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B333">
+      <c r="B333" t="n">
         <v>310516000000</v>
       </c>
-      <c r="C333">
+      <c r="C333" t="n">
         <v>0.12523167860542</v>
       </c>
-      <c r="D333">
+      <c r="D333" t="n">
         <v>38886439913.84061</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
-      <c r="A334" s="2">
+    <row r="334">
+      <c r="A334" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B334">
+      <c r="B334" t="n">
         <v>310551000000</v>
       </c>
-      <c r="C334">
+      <c r="C334" t="n">
         <v>0.1252677598366508</v>
       </c>
-      <c r="D334">
+      <c r="D334" t="n">
         <v>38902028085.03175</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
-      <c r="A335" s="2">
+    <row r="335">
+      <c r="A335" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B335">
+      <c r="B335" t="n">
         <v>310588000000</v>
       </c>
-      <c r="C335">
+      <c r="C335" t="n">
         <v>0.1251126013412071</v>
       </c>
-      <c r="D335">
+      <c r="D335" t="n">
         <v>38858472625.36282</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
-      <c r="A336" s="2">
+    <row r="336">
+      <c r="A336" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B336">
+      <c r="B336" t="n">
         <v>316667000000</v>
       </c>
-      <c r="C336">
+      <c r="C336" t="n">
         <v>0.1252050232255318</v>
       </c>
-      <c r="D336">
+      <c r="D336" t="n">
         <v>39648299089.75948</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
-      <c r="A337" s="2">
+    <row r="337">
+      <c r="A337" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B337">
+      <c r="B337" t="n">
         <v>320500000000</v>
       </c>
-      <c r="C337">
+      <c r="C337" t="n">
         <v>0.1251047752492713</v>
       </c>
-      <c r="D337">
+      <c r="D337" t="n">
         <v>40096080467.39144</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
-      <c r="A338" s="2">
+    <row r="338">
+      <c r="A338" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B338">
+      <c r="B338" t="n">
         <v>321474000000</v>
       </c>
-      <c r="C338">
+      <c r="C338" t="n">
         <v>0.1252128618651708</v>
       </c>
-      <c r="D338">
+      <c r="D338" t="n">
         <v>40252679555.24392</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
-      <c r="A339" s="2">
+    <row r="339">
+      <c r="A339" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B339">
+      <c r="B339" t="n">
         <v>330800000000</v>
       </c>
-      <c r="C339">
+      <c r="C339" t="n">
         <v>0.1252708983176118</v>
       </c>
-      <c r="D339">
+      <c r="D339" t="n">
         <v>41439613163.46599</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
-      <c r="A340" s="2">
+    <row r="340">
+      <c r="A340" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B340">
+      <c r="B340" t="n">
         <v>348118000000</v>
       </c>
-      <c r="C340">
+      <c r="C340" t="n">
         <v>0.125250501002004</v>
       </c>
-      <c r="D340">
+      <c r="D340" t="n">
         <v>43601953907.81563</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
-      <c r="A341" s="2">
+    <row r="341">
+      <c r="A341" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B341">
+      <c r="B341" t="n">
         <v>348199000000</v>
       </c>
-      <c r="C341">
+      <c r="C341" t="n">
         <v>0.1252960118279435</v>
       </c>
-      <c r="D341">
+      <c r="D341" t="n">
         <v>43627946022.47811</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
-      <c r="A342" s="2">
+    <row r="342">
+      <c r="A342" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B342">
+      <c r="B342" t="n">
         <v>360070000000</v>
       </c>
-      <c r="C342">
+      <c r="C342" t="n">
         <v>0.1253509827517048</v>
       </c>
-      <c r="D342">
+      <c r="D342" t="n">
         <v>45135128359.40634</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
-      <c r="A343" s="2">
+    <row r="343">
+      <c r="A343" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B343">
+      <c r="B343" t="n">
         <v>370320000000</v>
       </c>
-      <c r="C343">
+      <c r="C343" t="n">
         <v>0.12531328320802</v>
       </c>
-      <c r="D343">
+      <c r="D343" t="n">
         <v>46406015037.59398</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
-      <c r="A344" s="2">
+    <row r="344">
+      <c r="A344" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B344">
+      <c r="B344" t="n">
         <v>374431000000</v>
       </c>
-      <c r="C344">
+      <c r="C344" t="n">
         <v>0.125328988595062</v>
       </c>
-      <c r="D344">
+      <c r="D344" t="n">
         <v>46927058528.63767</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
-      <c r="A345" s="2">
+    <row r="345">
+      <c r="A345" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B345">
+      <c r="B345" t="n">
         <v>389960000000</v>
       </c>
-      <c r="C345">
+      <c r="C345" t="n">
         <v>0.1252207014863697</v>
       </c>
-      <c r="D345">
+      <c r="D345" t="n">
         <v>48831064751.62474</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
-      <c r="A346" s="2">
+    <row r="346">
+      <c r="A346" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B346">
+      <c r="B346" t="n">
         <v>390682000000</v>
       </c>
-      <c r="C346">
+      <c r="C346" t="n">
         <v>0.1252426576491953</v>
       </c>
-      <c r="D346">
+      <c r="D346" t="n">
         <v>48930051975.70293</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
-      <c r="A347" s="2">
+    <row r="347">
+      <c r="A347" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B347">
+      <c r="B347" t="n">
         <v>391113000000</v>
       </c>
-      <c r="C347">
+      <c r="C347" t="n">
         <v>0.125140783381304</v>
       </c>
-      <c r="D347">
+      <c r="D347" t="n">
         <v>48944187210.61194</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
-      <c r="A348" s="2">
+    <row r="348">
+      <c r="A348" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B348">
+      <c r="B348" t="n">
         <v>396465000000</v>
       </c>
-      <c r="C348">
+      <c r="C348" t="n">
         <v>0.1251721116535236</v>
       </c>
-      <c r="D348">
+      <c r="D348" t="n">
         <v>49626361246.71423</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
-      <c r="A349" s="2">
+    <row r="349">
+      <c r="A349" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B349">
+      <c r="B349" t="n">
         <v>407601000000</v>
       </c>
-      <c r="C349">
+      <c r="C349" t="n">
         <v>0.1251360854929736</v>
       </c>
-      <c r="D349">
+      <c r="D349" t="n">
         <v>51005593583.02154</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
-      <c r="A350" s="2">
+    <row r="350">
+      <c r="A350" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B350">
+      <c r="B350" t="n">
         <v>396394190000</v>
       </c>
-      <c r="C350">
+      <c r="C350" t="n">
         <v>0.1252395205831152</v>
       </c>
-      <c r="D350">
+      <c r="D350" t="n">
         <v>49644218317.53228</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
-      <c r="A351" s="2">
+    <row r="351">
+      <c r="A351" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B351">
+      <c r="B351" t="n">
         <v>410672260000</v>
       </c>
-      <c r="C351">
+      <c r="C351" t="n">
         <v>0.1252410890965108</v>
       </c>
-      <c r="D351">
+      <c r="D351" t="n">
         <v>51433041104.12543</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
-      <c r="A352" s="2">
+    <row r="352">
+      <c r="A352" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B352">
+      <c r="B352" t="n">
         <v>419338080000</v>
       </c>
-      <c r="C352">
+      <c r="C352" t="n">
         <v>0.1252599143222186</v>
       </c>
-      <c r="D352">
+      <c r="D352" t="n">
         <v>52526251972.84365</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
-      <c r="A353" s="2">
+    <row r="353">
+      <c r="A353" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B353">
+      <c r="B353" t="n">
         <v>426604400000</v>
       </c>
-      <c r="C353">
+      <c r="C353" t="n">
         <v>0.1252850234282994</v>
       </c>
-      <c r="D353">
+      <c r="D353" t="n">
         <v>53447142248.61561</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
-      <c r="A354" s="2">
+    <row r="354">
+      <c r="A354" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B354">
+      <c r="B354" t="n">
         <v>445420290000</v>
       </c>
-      <c r="C354">
+      <c r="C354" t="n">
         <v>0.1253007217321572</v>
       </c>
-      <c r="D354">
+      <c r="D354" t="n">
         <v>55811483811.14675</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
-      <c r="A355" s="2">
+    <row r="355">
+      <c r="A355" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B355">
+      <c r="B355" t="n">
         <v>445714670000</v>
       </c>
-      <c r="C355">
+      <c r="C355" t="n">
         <v>0.12531328320802</v>
       </c>
-      <c r="D355">
+      <c r="D355" t="n">
         <v>55853968671.67919</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
-      <c r="A356" s="2">
+    <row r="356">
+      <c r="A356" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B356">
+      <c r="B356" t="n">
         <v>441362440000</v>
       </c>
-      <c r="C356">
+      <c r="C356" t="n">
         <v>0.1252850234282994</v>
       </c>
-      <c r="D356">
+      <c r="D356" t="n">
         <v>55296103635.77139</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
-      <c r="A357" s="2">
+    <row r="357">
+      <c r="A357" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B357">
+      <c r="B357" t="n">
         <v>460936010000</v>
       </c>
-      <c r="C357">
+      <c r="C357" t="n">
         <v>0.1251564455569462</v>
       </c>
-      <c r="D357">
+      <c r="D357" t="n">
         <v>57689112640.801</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
-      <c r="A358" s="2">
+    <row r="358">
+      <c r="A358" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B358">
+      <c r="B358" t="n">
         <v>456966590000</v>
       </c>
-      <c r="C358">
+      <c r="C358" t="n">
         <v>0.1251799461726232</v>
       </c>
-      <c r="D358">
+      <c r="D358" t="n">
         <v>57203053138.88715</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
-      <c r="A359" s="2">
+    <row r="359">
+      <c r="A359" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B359">
+      <c r="B359" t="n">
         <v>455333990000</v>
       </c>
-      <c r="C359">
+      <c r="C359" t="n">
         <v>0.1252301103277272</v>
       </c>
-      <c r="D359">
+      <c r="D359" t="n">
         <v>57021525803.66424</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
-      <c r="A360" s="2">
+    <row r="360">
+      <c r="A360" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B360">
+      <c r="B360" t="n">
         <v>464955250000</v>
       </c>
-      <c r="C360">
+      <c r="C360" t="n">
         <v>0.1253007217321572</v>
       </c>
-      <c r="D360">
+      <c r="D360" t="n">
         <v>58259228398.15557</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
-      <c r="A361" s="2">
+    <row r="361">
+      <c r="A361" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B361">
+      <c r="B361" t="n">
         <v>473845700000</v>
       </c>
-      <c r="C361">
+      <c r="C361" t="n">
         <v>0.1253070021552804</v>
       </c>
-      <c r="D361">
+      <c r="D361" t="n">
         <v>59376184151.17036</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
-      <c r="A362" s="2">
+    <row r="362">
+      <c r="A362" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B362">
+      <c r="B362" t="n">
         <v>483607010000</v>
       </c>
-      <c r="C362">
+      <c r="C362" t="n">
         <v>0.1253274178792094</v>
       </c>
-      <c r="D362">
+      <c r="D362" t="n">
         <v>60609217831.58501</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
-      <c r="A363" s="2">
+    <row r="363">
+      <c r="A363" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B363">
+      <c r="B363" t="n">
         <v>489436210000</v>
       </c>
-      <c r="C363">
+      <c r="C363" t="n">
         <v>0.1253494114845131</v>
       </c>
-      <c r="D363">
+      <c r="D363" t="n">
         <v>61350540882.71056</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
-      <c r="A364" s="2">
+    <row r="364">
+      <c r="A364" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B364">
+      <c r="B364" t="n">
         <v>489102480000</v>
       </c>
-      <c r="C364">
+      <c r="C364" t="n">
         <v>0.1253494114845131</v>
       </c>
-      <c r="D364">
+      <c r="D364" t="n">
         <v>61308708023.61584</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
-      <c r="A365" s="2">
+    <row r="365">
+      <c r="A365" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B365">
+      <c r="B365" t="n">
         <v>487364580000</v>
       </c>
-      <c r="C365">
+      <c r="C365" t="n">
         <v>0.125140783381304</v>
       </c>
-      <c r="D365">
+      <c r="D365" t="n">
         <v>60989185333.50019</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
-      <c r="A366" s="2">
+    <row r="366">
+      <c r="A366" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B366">
+      <c r="B366" t="n">
         <v>489591870000</v>
       </c>
-      <c r="C366">
+      <c r="C366" t="n">
         <v>0.1252693290574736</v>
       </c>
-      <c r="D366">
+      <c r="D366" t="n">
         <v>61330845066.89382</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
-      <c r="A367" s="2">
+    <row r="367">
+      <c r="A367" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B367">
+      <c r="B367" t="n">
         <v>484318600000</v>
       </c>
-      <c r="C367">
+      <c r="C367" t="n">
         <v>0.1253070021552804</v>
       </c>
-      <c r="D367">
+      <c r="D367" t="n">
         <v>60688511854.0424</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
+    <row r="368">
+      <c r="A368" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B368">
+      <c r="B368" t="n">
         <v>487593340000</v>
       </c>
-      <c r="C368">
+      <c r="C368" t="n">
         <v>0.125236383674185</v>
       </c>
-      <c r="D368">
+      <c r="D368" t="n">
         <v>61064426605.21735</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
+    <row r="369">
+      <c r="A369" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B369">
+      <c r="B369" t="n">
         <v>493438020000</v>
       </c>
-      <c r="C369">
+      <c r="C369" t="n">
         <v>0.1253164239705256</v>
       </c>
-      <c r="D369">
+      <c r="D369" t="n">
         <v>61835888117.49668</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
+    <row r="370">
+      <c r="A370" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B370">
+      <c r="B370" t="n">
         <v>481679130000</v>
       </c>
-      <c r="C370">
+      <c r="C370" t="n">
         <v>0.1252614833464858</v>
       </c>
-      <c r="D370">
+      <c r="D370" t="n">
         <v>60335842320.84476</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
+    <row r="371">
+      <c r="A371" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B371">
+      <c r="B371" t="n">
         <v>477595350000</v>
       </c>
-      <c r="C371">
+      <c r="C371" t="n">
         <v>0.1252803147041505</v>
       </c>
-      <c r="D371">
+      <c r="D371" t="n">
         <v>59833295749.23893</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
+    <row r="372">
+      <c r="A372" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B372">
+      <c r="B372" t="n">
         <v>492456520000</v>
       </c>
-      <c r="C372">
+      <c r="C372" t="n">
         <v>0.1253415557393898</v>
       </c>
-      <c r="D372">
+      <c r="D372" t="n">
         <v>61725266350.80595</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
+    <row r="373">
+      <c r="A373" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B373">
+      <c r="B373" t="n">
         <v>493361090000</v>
       </c>
-      <c r="C373">
+      <c r="C373" t="n">
         <v>0.1252975817566721</v>
       </c>
-      <c r="D373">
+      <c r="D373" t="n">
         <v>61816951509.83586</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
+    <row r="374">
+      <c r="A374" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B374">
+      <c r="B374" t="n">
         <v>488763124000</v>
       </c>
-      <c r="C374">
+      <c r="C374" t="n">
         <v>0.1253148535695936</v>
       </c>
-      <c r="D374">
+      <c r="D374" t="n">
         <v>61249279314.27711</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
+    <row r="375">
+      <c r="A375" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B375">
+      <c r="B375" t="n">
         <v>485290528000</v>
       </c>
-      <c r="C375">
+      <c r="C375" t="n">
         <v>0.12531328320802</v>
       </c>
-      <c r="D375">
+      <c r="D375" t="n">
         <v>60813349373.43358</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
+    <row r="376">
+      <c r="A376" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B376">
+      <c r="B376" t="n">
         <v>478454632000</v>
       </c>
-      <c r="C376">
+      <c r="C376" t="n">
         <v>0.1253478402567124</v>
       </c>
-      <c r="D376">
+      <c r="D376" t="n">
         <v>59973254782.0201</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
+    <row r="377">
+      <c r="A377" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B377">
+      <c r="B377" t="n">
         <v>482321910000</v>
       </c>
-      <c r="C377">
+      <c r="C377" t="n">
         <v>0.1253509827517048</v>
       </c>
-      <c r="D377">
+      <c r="D377" t="n">
         <v>60459525421.17931</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
+    <row r="378">
+      <c r="A378" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B378">
+      <c r="B378" t="n">
         <v>478053893000</v>
       </c>
-      <c r="C378">
+      <c r="C378" t="n">
         <v>0.1253509827517048</v>
       </c>
-      <c r="D378">
+      <c r="D378" t="n">
         <v>59924525295.82832</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
+    <row r="379">
+      <c r="A379" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B379">
+      <c r="B379" t="n">
         <v>469695529000</v>
       </c>
-      <c r="C379">
+      <c r="C379" t="n">
         <v>0.1253478402567124</v>
       </c>
-      <c r="D379">
+      <c r="D379" t="n">
         <v>58875320138.38401</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
+    <row r="380">
+      <c r="A380" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B380">
+      <c r="B380" t="n">
         <v>472826401000</v>
       </c>
-      <c r="C380">
+      <c r="C380" t="n">
         <v>0.125338413717036</v>
       </c>
-      <c r="D380">
+      <c r="D380" t="n">
         <v>59263311064.87516</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
+    <row r="381">
+      <c r="A381" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B381">
+      <c r="B381" t="n">
         <v>473827000000</v>
       </c>
-      <c r="C381">
+      <c r="C381" t="n">
         <v>0.1246851699458866</v>
       </c>
-      <c r="D381">
+      <c r="D381" t="n">
         <v>59079200019.94962</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
+    <row r="382">
+      <c r="A382" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B382">
+      <c r="B382" t="n">
         <v>469553414000</v>
       </c>
-      <c r="C382">
+      <c r="C382" t="n">
         <v>0.1246867246044314</v>
       </c>
-      <c r="D382">
+      <c r="D382" t="n">
         <v>58547077218.48856</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
+    <row r="383">
+      <c r="A383" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B383">
+      <c r="B383" t="n">
         <v>469849073000</v>
       </c>
-      <c r="C383">
+      <c r="C383" t="n">
         <v>0.1251689781204626</v>
       </c>
-      <c r="D383">
+      <c r="D383" t="n">
         <v>58810528338.25665</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
+    <row r="384">
+      <c r="A384" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B384">
+      <c r="B384" t="n">
         <v>463657875000</v>
       </c>
-      <c r="C384">
+      <c r="C384" t="n">
         <v>0.125145481622386</v>
       </c>
-      <c r="D384">
+      <c r="D384" t="n">
         <v>58024688074.88705</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
+    <row r="385">
+      <c r="A385" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B385">
+      <c r="B385" t="n">
         <v>465286082000</v>
       </c>
-      <c r="C385">
+      <c r="C385" t="n">
         <v>0.1249359703152135</v>
       </c>
-      <c r="D385">
+      <c r="D385" t="n">
         <v>58130968128.83398</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
+    <row r="386">
+      <c r="A386" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B386">
+      <c r="B386" t="n">
         <v>478843715000</v>
       </c>
-      <c r="C386">
+      <c r="C386" t="n">
         <v>0.125140783381304</v>
       </c>
-      <c r="D386">
+      <c r="D386" t="n">
         <v>59922877612.31385</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
+    <row r="387">
+      <c r="A387" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B387">
+      <c r="B387" t="n">
         <v>491343402000</v>
       </c>
-      <c r="C387">
+      <c r="C387" t="n">
         <v>0.1251658447442862</v>
       </c>
-      <c r="D387">
+      <c r="D387" t="n">
         <v>61499411970.8614</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
+    <row r="388">
+      <c r="A388" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B388">
+      <c r="B388" t="n">
         <v>503738744000</v>
       </c>
-      <c r="C388">
+      <c r="C388" t="n">
         <v>0.1251658447442862</v>
       </c>
-      <c r="D388">
+      <c r="D388" t="n">
         <v>63050885423.18572</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
+    <row r="389">
+      <c r="A389" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B389">
+      <c r="B389" t="n">
         <v>505799597000</v>
       </c>
-      <c r="C389">
+      <c r="C389" t="n">
         <v>0.1252222695284129</v>
       </c>
-      <c r="D389">
+      <c r="D389" t="n">
         <v>63337373462.89664</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="2">
+    <row r="390">
+      <c r="A390" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B390">
+      <c r="B390" t="n">
         <v>516157449000</v>
       </c>
-      <c r="C390">
+      <c r="C390" t="n">
         <v>0.1251924834432941</v>
       </c>
-      <c r="D390">
+      <c r="D390" t="n">
         <v>64619032888.0654</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
-      <c r="A391" s="2">
+    <row r="391">
+      <c r="A391" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B391">
+      <c r="B391" t="n">
         <v>519386361000</v>
       </c>
-      <c r="C391">
+      <c r="C391" t="n">
         <v>0.1251799461726232</v>
       </c>
-      <c r="D391">
+      <c r="D391" t="n">
         <v>65016756712.77462</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="2">
+    <row r="392">
+      <c r="A392" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B392">
+      <c r="B392" t="n">
         <v>532448942000.0001</v>
       </c>
-      <c r="C392">
+      <c r="C392" t="n">
         <v>0.1252159975958528</v>
       </c>
-      <c r="D392">
+      <c r="D392" t="n">
         <v>66671125441.3864</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
-      <c r="A393" s="2">
+    <row r="393">
+      <c r="A393" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B393">
+      <c r="B393" t="n">
         <v>536784029000</v>
       </c>
-      <c r="C393">
+      <c r="C393" t="n">
         <v>0.1251376514165582</v>
       </c>
-      <c r="D393">
+      <c r="D393" t="n">
         <v>67171892706.97768</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
-      <c r="A394" s="2">
+    <row r="394">
+      <c r="A394" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B394">
+      <c r="B394" t="n">
         <v>540694398000.0001</v>
       </c>
-      <c r="C394">
+      <c r="C394" t="n">
         <v>0.1250813028468505</v>
       </c>
-      <c r="D394">
+      <c r="D394" t="n">
         <v>67630759743.83351</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
-      <c r="A395" s="2">
+    <row r="395">
+      <c r="A395" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B395">
+      <c r="B395" t="n">
         <v>547202142000</v>
       </c>
-      <c r="C395">
+      <c r="C395" t="n">
         <v>0.1249640728290616</v>
       </c>
-      <c r="D395">
+      <c r="D395" t="n">
         <v>68380608325.10654</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
-      <c r="A396" s="2">
+    <row r="396">
+      <c r="A396" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B396">
+      <c r="B396" t="n">
         <v>543502480000</v>
       </c>
-      <c r="C396">
+      <c r="C396" t="n">
         <v>0.1248221284669346</v>
       </c>
-      <c r="D396">
+      <c r="D396" t="n">
         <v>67841136380.65756</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
-      <c r="A397" s="2">
+    <row r="397">
+      <c r="A397" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B397">
+      <c r="B397" t="n">
         <v>553831055000</v>
       </c>
-      <c r="C397">
+      <c r="C397" t="n">
         <v>0.1246043810900391</v>
       </c>
-      <c r="D397">
+      <c r="D397" t="n">
         <v>69009775836.71841</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
-      <c r="A398" s="2">
+    <row r="398">
+      <c r="A398" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B398">
+      <c r="B398" t="n">
         <v>556634227000</v>
       </c>
-      <c r="C398">
+      <c r="C398" t="n">
         <v>0.1243812035125252</v>
       </c>
-      <c r="D398">
+      <c r="D398" t="n">
         <v>69234835070.52415</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
-      <c r="A399" s="2">
+    <row r="399">
+      <c r="A399" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B399">
+      <c r="B399" t="n">
         <v>568320269000</v>
       </c>
-      <c r="C399">
+      <c r="C399" t="n">
         <v>0.1243317170210121</v>
       </c>
-      <c r="D399">
+      <c r="D399" t="n">
         <v>70660234862.61346</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
-      <c r="A400" s="2">
+    <row r="400">
+      <c r="A400" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B400">
+      <c r="B400" t="n">
         <v>574373547000</v>
       </c>
-      <c r="C400">
+      <c r="C400" t="n">
         <v>0.1240664003374606</v>
       </c>
-      <c r="D400">
+      <c r="D400" t="n">
         <v>71260458425.34924</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
-      <c r="A401" s="2">
+    <row r="401">
+      <c r="A401" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B401">
+      <c r="B401" t="n">
         <v>567686365000</v>
       </c>
-      <c r="C401">
+      <c r="C401" t="n">
         <v>0.124313169737202</v>
       </c>
-      <c r="D401">
+      <c r="D401" t="n">
         <v>70570891449.74019</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
-      <c r="A402" s="2">
+    <row r="402">
+      <c r="A402" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B402">
+      <c r="B402" t="n">
         <v>580929323000</v>
       </c>
-      <c r="C402">
+      <c r="C402" t="n">
         <v>0.1244818443230055</v>
       </c>
-      <c r="D402">
+      <c r="D402" t="n">
         <v>72315153548.35497</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
-      <c r="A403" s="2">
+    <row r="403">
+      <c r="A403" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B403">
+      <c r="B403" t="n">
         <v>588456782000</v>
       </c>
-      <c r="C403">
+      <c r="C403" t="n">
         <v>0.1243224426873539</v>
       </c>
-      <c r="D403">
+      <c r="D403" t="n">
         <v>73158384554.17972</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
-      <c r="A404" s="2">
+    <row r="404">
+      <c r="A404" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B404">
+      <c r="B404" t="n">
         <v>591485041000</v>
       </c>
-      <c r="C404">
+      <c r="C404" t="n">
         <v>0.1242884486315842</v>
       </c>
-      <c r="D404">
+      <c r="D404" t="n">
         <v>73514758134.67897</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
-      <c r="A405" s="2">
+    <row r="405">
+      <c r="A405" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B405">
+      <c r="B405" t="n">
         <v>606873414000</v>
       </c>
-      <c r="C405">
+      <c r="C405" t="n">
         <v>0.1242266888618351</v>
       </c>
-      <c r="D405">
+      <c r="D405" t="n">
         <v>75389874779.49763</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
-      <c r="A406" s="2">
+    <row r="406">
+      <c r="A406" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B406">
+      <c r="B406" t="n">
         <v>606106271000</v>
       </c>
-      <c r="C406">
+      <c r="C406" t="n">
         <v>0.1241018131274898</v>
       </c>
-      <c r="D406">
+      <c r="D406" t="n">
         <v>75218887179.04169</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
-      <c r="A407" s="2">
+    <row r="407">
+      <c r="A407" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B407">
+      <c r="B407" t="n">
         <v>604204020000</v>
       </c>
-      <c r="C407">
+      <c r="C407" t="n">
         <v>0.123806811850788</v>
       </c>
-      <c r="D407">
+      <c r="D407" t="n">
         <v>74804573423.62978</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
-      <c r="A408" s="2">
+    <row r="408">
+      <c r="A408" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B408">
+      <c r="B408" t="n">
         <v>610441234000</v>
       </c>
-      <c r="C408">
+      <c r="C408" t="n">
         <v>0.1237087895094946</v>
       </c>
-      <c r="D408">
+      <c r="D408" t="n">
         <v>75516946124.82216</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
-      <c r="A409" s="2">
+    <row r="409">
+      <c r="A409" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B409">
+      <c r="B409" t="n">
         <v>610236871000</v>
       </c>
-      <c r="C409">
+      <c r="C409" t="n">
         <v>0.1237746311515992</v>
       </c>
-      <c r="D409">
+      <c r="D409" t="n">
         <v>75531843623.131</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
-      <c r="A410" s="2">
+    <row r="410">
+      <c r="A410" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B410">
+      <c r="B410" t="n">
         <v>601124196000</v>
       </c>
-      <c r="C410">
+      <c r="C410" t="n">
         <v>0.1237562496906094</v>
       </c>
-      <c r="D410">
+      <c r="D410" t="n">
         <v>74392876095.24281</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
-      <c r="A411" s="2">
+    <row r="411">
+      <c r="A411" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B411">
+      <c r="B411" t="n">
         <v>616356372000</v>
       </c>
-      <c r="C411">
+      <c r="C411" t="n">
         <v>0.1237011380504701</v>
       </c>
-      <c r="D411">
+      <c r="D411" t="n">
         <v>76243984661.05888</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
-      <c r="A412" s="2">
+    <row r="412">
+      <c r="A412" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B412">
+      <c r="B412" t="n">
         <v>621523060000</v>
       </c>
-      <c r="C412">
+      <c r="C412" t="n">
         <v>0.123714911358266</v>
       </c>
-      <c r="D412">
+      <c r="D412" t="n">
         <v>76891670275.01825</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
-      <c r="A413" s="2">
+    <row r="413">
+      <c r="A413" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B413">
+      <c r="B413" t="n">
         <v>626433507000</v>
       </c>
-      <c r="C413">
+      <c r="C413" t="n">
         <v>0.1240463933511133</v>
       </c>
-      <c r="D413">
+      <c r="D413" t="n">
         <v>77706817217.63939</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
-      <c r="A414" s="2">
+    <row r="414">
+      <c r="A414" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B414">
+      <c r="B414" t="n">
         <v>623805715000</v>
       </c>
-      <c r="C414">
+      <c r="C414" t="n">
         <v>0.1238144763885794</v>
       </c>
-      <c r="D414">
+      <c r="D414" t="n">
         <v>77236177970.92838</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
-      <c r="A415" s="2">
+    <row r="415">
+      <c r="A415" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B415">
+      <c r="B415" t="n">
         <v>632969007000</v>
       </c>
-      <c r="C415">
+      <c r="C415" t="n">
         <v>0.1240910331819423</v>
       </c>
-      <c r="D415">
+      <c r="D415" t="n">
         <v>78545778050.77805</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
-      <c r="A416" s="2">
+    <row r="416">
+      <c r="A416" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B416">
+      <c r="B416" t="n">
         <v>651438044000</v>
       </c>
-      <c r="C416">
+      <c r="C416" t="n">
         <v>0.1239756511821078</v>
       </c>
-      <c r="D416">
+      <c r="D416" t="n">
         <v>80762455709.69861</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
-      <c r="A417" s="2">
+    <row r="417">
+      <c r="A417" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B417">
+      <c r="B417" t="n">
         <v>658699256000</v>
       </c>
-      <c r="C417">
+      <c r="C417" t="n">
         <v>0.123734811551882</v>
       </c>
-      <c r="D417">
+      <c r="D417" t="n">
         <v>81504028310.52489</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
-      <c r="A418" s="2">
+    <row r="418">
+      <c r="A418" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B418">
+      <c r="B418" t="n">
         <v>654236925000</v>
       </c>
-      <c r="C418">
+      <c r="C418" t="n">
         <v>0.1236873678091257</v>
       </c>
-      <c r="D418">
+      <c r="D418" t="n">
         <v>80920843176.78636</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
-      <c r="A419" s="2">
+    <row r="419">
+      <c r="A419" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B419">
+      <c r="B419" t="n">
         <v>662080521000</v>
       </c>
-      <c r="C419">
+      <c r="C419" t="n">
         <v>0.1236858379715522</v>
       </c>
-      <c r="D419">
+      <c r="D419" t="n">
         <v>81889984044.5269</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
-      <c r="A420" s="2">
+    <row r="420">
+      <c r="A420" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B420">
+      <c r="B420" t="n">
         <v>665051643000</v>
       </c>
-      <c r="C420">
+      <c r="C420" t="n">
         <v>0.123768503391257</v>
       </c>
-      <c r="D420">
+      <c r="D420" t="n">
         <v>82312446532.00655</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
-      <c r="A421" s="2">
+    <row r="421">
+      <c r="A421" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B421">
+      <c r="B421" t="n">
         <v>671192556000</v>
       </c>
-      <c r="C421">
+      <c r="C421" t="n">
         <v>0.1238834999566408</v>
       </c>
-      <c r="D421">
+      <c r="D421" t="n">
         <v>83149682982.1236</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
-      <c r="A422" s="2">
+    <row r="422">
+      <c r="A422" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B422">
+      <c r="B422" t="n">
         <v>671099875000</v>
       </c>
-      <c r="C422">
+      <c r="C422" t="n">
         <v>0.1242869038889372</v>
       </c>
-      <c r="D422">
+      <c r="D422" t="n">
         <v>83408925664.00279</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
-      <c r="A423" s="2">
+    <row r="423">
+      <c r="A423" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B423">
+      <c r="B423" t="n">
         <v>662771606000</v>
       </c>
-      <c r="C423">
+      <c r="C423" t="n">
         <v>0.1240356230309345</v>
       </c>
-      <c r="D423">
+      <c r="D423" t="n">
         <v>82207289077.42303</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
-      <c r="A424" s="2">
+    <row r="424">
+      <c r="A424" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B424">
+      <c r="B424" t="n">
         <v>663644010000</v>
       </c>
-      <c r="C424">
+      <c r="C424" t="n">
         <v>0.1237976156579224</v>
       </c>
-      <c r="D424">
+      <c r="D424" t="n">
         <v>82157546083.66243</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
-      <c r="A425" s="2">
+    <row r="425">
+      <c r="A425" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B425">
+      <c r="B425" t="n">
         <v>671390795000</v>
       </c>
-      <c r="C425">
+      <c r="C425" t="n">
         <v>0.123851279383716</v>
       </c>
-      <c r="D425">
+      <c r="D425" t="n">
         <v>83152608927.20023</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
-      <c r="A426" s="2">
+    <row r="426">
+      <c r="A426" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B426">
+      <c r="B426" t="n">
         <v>673722070000</v>
       </c>
-      <c r="C426">
+      <c r="C426" t="n">
         <v>0.1238881042642286</v>
       </c>
-      <c r="D426">
+      <c r="D426" t="n">
         <v>83466150053.2719</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
-      <c r="A427" s="2">
+    <row r="427">
+      <c r="A427" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B427">
+      <c r="B427" t="n">
         <v>672913614000</v>
       </c>
-      <c r="C427">
+      <c r="C427" t="n">
         <v>0.1240202401031848</v>
       </c>
-      <c r="D427">
+      <c r="D427" t="n">
         <v>83454907976.98184</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
-      <c r="A428" s="2">
+    <row r="428">
+      <c r="A428" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B428">
+      <c r="B428" t="n">
         <v>687530823000</v>
       </c>
-      <c r="C428">
+      <c r="C428" t="n">
         <v>0.1246292280465615</v>
       </c>
-      <c r="D428">
+      <c r="D428" t="n">
         <v>85686435728.70711</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
-      <c r="A429" s="2">
+    <row r="429">
+      <c r="A429" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B429">
+      <c r="B429" t="n">
         <v>699396883000</v>
       </c>
-      <c r="C429">
+      <c r="C429" t="n">
         <v>0.1250468925847193</v>
       </c>
-      <c r="D429">
+      <c r="D429" t="n">
         <v>87457406902.58847</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
-      <c r="A430" s="2">
+    <row r="430">
+      <c r="A430" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B430">
+      <c r="B430" t="n">
         <v>687777999000</v>
       </c>
-      <c r="C430">
+      <c r="C430" t="n">
         <v>0.1245733363230934</v>
       </c>
-      <c r="D430">
+      <c r="D430" t="n">
         <v>85678799985.05119</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
-      <c r="A431" s="2">
+    <row r="431">
+      <c r="A431" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B431">
+      <c r="B431" t="n">
         <v>679287550000</v>
       </c>
-      <c r="C431">
+      <c r="C431" t="n">
         <v>0.1252646215129461</v>
       </c>
-      <c r="D431">
+      <c r="D431" t="n">
         <v>85090697849.20645</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
-      <c r="A432" s="2">
+    <row r="432">
+      <c r="A432" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B432">
+      <c r="B432" t="n">
         <v>682365069000</v>
       </c>
-      <c r="C432">
+      <c r="C432" t="n">
         <v>0.1252489322528526</v>
       </c>
-      <c r="D432">
+      <c r="D432" t="n">
         <v>85465496298.89406</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
-      <c r="A433" s="2">
+    <row r="433">
+      <c r="A433" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B433">
+      <c r="B433" t="n">
         <v>686829754000</v>
       </c>
-      <c r="C433">
+      <c r="C433" t="n">
         <v>0.1252583453372581</v>
       </c>
-      <c r="D433">
+      <c r="D433" t="n">
         <v>86031158514.43604</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
-      <c r="A434" s="2">
+    <row r="434">
+      <c r="A434" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B434">
+      <c r="B434" t="n">
         <v>712227002000</v>
       </c>
-      <c r="C434">
+      <c r="C434" t="n">
         <v>0.1252724676170671</v>
       </c>
-      <c r="D434">
+      <c r="D434" t="n">
         <v>89222434044.04579</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
-      <c r="A435" s="2">
+    <row r="435">
+      <c r="A435" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B435">
+      <c r="B435" t="n">
         <v>708411658000</v>
       </c>
-      <c r="C435">
+      <c r="C435" t="n">
         <v>0.1252756063339346</v>
       </c>
-      <c r="D435">
+      <c r="D435" t="n">
         <v>88746699989.97794</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
-      <c r="A436" s="2">
+    <row r="436">
+      <c r="A436" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B436">
+      <c r="B436" t="n">
         <v>701677932000</v>
       </c>
-      <c r="C436">
+      <c r="C436" t="n">
         <v>0.1252771757513499</v>
       </c>
-      <c r="D436">
+      <c r="D436" t="n">
         <v>87904229608.00772</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
-      <c r="A437" s="2">
+    <row r="437">
+      <c r="A437" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B437">
+      <c r="B437" t="n">
         <v>690518190000</v>
       </c>
-      <c r="C437">
+      <c r="C437" t="n">
         <v>0.125278745208088</v>
       </c>
-      <c r="D437">
+      <c r="D437" t="n">
         <v>86507252386.56009</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
-      <c r="A438" s="2">
+    <row r="438">
+      <c r="A438" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B438">
+      <c r="B438" t="n">
         <v>685648021000</v>
       </c>
-      <c r="C438">
+      <c r="C438" t="n">
         <v>0.1252379521090071</v>
       </c>
-      <c r="D438">
+      <c r="D438" t="n">
         <v>85869154017.63351</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
-      <c r="A439" s="2">
+    <row r="439">
+      <c r="A439" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B439">
+      <c r="B439" t="n">
         <v>695269339000</v>
       </c>
-      <c r="C439">
+      <c r="C439" t="n">
         <v>0.1252599143222186</v>
       </c>
-      <c r="D439">
+      <c r="D439" t="n">
         <v>87089377834.00557</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
-      <c r="A440" s="2">
+    <row r="440">
+      <c r="A440" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B440">
+      <c r="B440" t="n">
         <v>692358396000</v>
       </c>
-      <c r="C440">
+      <c r="C440" t="n">
         <v>0.1252426576491953</v>
       </c>
-      <c r="D440">
+      <c r="D440" t="n">
         <v>86712805560.774</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
-      <c r="A441" s="2">
+    <row r="441">
+      <c r="A441" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B441">
+      <c r="B441" t="n">
         <v>695875668000</v>
       </c>
-      <c r="C441">
+      <c r="C441" t="n">
         <v>0.1252301103277272</v>
       </c>
-      <c r="D441">
+      <c r="D441" t="n">
         <v>87144586678.02087</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
-      <c r="A442" s="2">
+    <row r="442">
+      <c r="A442" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B442">
+      <c r="B442" t="n">
         <v>695806782000</v>
       </c>
-      <c r="C442">
+      <c r="C442" t="n">
         <v>0.1251736784788895</v>
       </c>
-      <c r="D442">
+      <c r="D442" t="n">
         <v>87096694413.49873</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
-      <c r="A443" s="2">
+    <row r="443">
+      <c r="A443" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B443">
+      <c r="B443" t="n">
         <v>699380241000</v>
       </c>
-      <c r="C443">
+      <c r="C443" t="n">
         <v>0.124890720619458</v>
       </c>
-      <c r="D443">
+      <c r="D443" t="n">
         <v>87346102285.5002</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
-      <c r="A444" s="2">
+    <row r="444">
+      <c r="A444" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B444">
+      <c r="B444" t="n">
         <v>698098486000</v>
       </c>
-      <c r="C444">
+      <c r="C444" t="n">
         <v>0.124998437519531</v>
       </c>
-      <c r="D444">
+      <c r="D444" t="n">
         <v>87261219984.75018</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
-      <c r="A445" s="2">
+    <row r="445">
+      <c r="A445" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B445">
+      <c r="B445" t="n">
         <v>702975198000</v>
       </c>
-      <c r="C445">
+      <c r="C445" t="n">
         <v>0.1251016450866329</v>
       </c>
-      <c r="D445">
+      <c r="D445" t="n">
         <v>87943353724.90147</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
-      <c r="A446" s="2">
+    <row r="446">
+      <c r="A446" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B446">
+      <c r="B446" t="n">
         <v>695097335000</v>
       </c>
-      <c r="C446">
+      <c r="C446" t="n">
         <v>0.1250328211155428</v>
       </c>
-      <c r="D446">
+      <c r="D446" t="n">
         <v>86909980744.94556</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
-      <c r="A447" s="2">
+    <row r="447">
+      <c r="A447" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B447">
+      <c r="B447" t="n">
         <v>690246004000</v>
       </c>
-      <c r="C447">
+      <c r="C447" t="n">
         <v>0.1249172423269584</v>
       </c>
-      <c r="D447">
+      <c r="D447" t="n">
         <v>86223627346.88269</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
-      <c r="A448" s="2">
+    <row r="448">
+      <c r="A448" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B448">
+      <c r="B448" t="n">
         <v>687094515000</v>
       </c>
-      <c r="C448">
+      <c r="C448" t="n">
         <v>0.1248314775053678</v>
       </c>
-      <c r="D448">
+      <c r="D448" t="n">
         <v>85771023493.28407</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
-      <c r="A449" s="2">
+    <row r="449">
+      <c r="A449" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B449">
+      <c r="B449" t="n">
         <v>688497998000</v>
       </c>
-      <c r="C449">
+      <c r="C449" t="n">
         <v>0.1247007182761373</v>
       </c>
-      <c r="D449">
+      <c r="D449" t="n">
         <v>85856194882.28253</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
-      <c r="A450" s="2">
+    <row r="450">
+      <c r="A450" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B450">
+      <c r="B450" t="n">
         <v>693836253000</v>
       </c>
-      <c r="C450">
+      <c r="C450" t="n">
         <v>0.1248143386712265</v>
       </c>
-      <c r="D450">
+      <c r="D450" t="n">
         <v>86600713064.31682</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
-      <c r="A451" s="2">
+    <row r="451">
+      <c r="A451" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B451">
+      <c r="B451" t="n">
         <v>691080659000</v>
       </c>
-      <c r="C451">
+      <c r="C451" t="n">
         <v>0.1245283488786222</v>
       </c>
-      <c r="D451">
+      <c r="D451" t="n">
         <v>86059133407.22015</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
-      <c r="A452" s="2">
+    <row r="452">
+      <c r="A452" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B452">
+      <c r="B452" t="n">
         <v>687542070000</v>
       </c>
-      <c r="C452">
+      <c r="C452" t="n">
         <v>0.1245392049417157</v>
       </c>
-      <c r="D452">
+      <c r="D452" t="n">
         <v>85625942761.7814</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
-      <c r="A453" s="2">
+    <row r="453">
+      <c r="A453" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B453">
+      <c r="B453" t="n">
         <v>692254530000</v>
       </c>
-      <c r="C453">
+      <c r="C453" t="n">
         <v>0.1245190451879615</v>
       </c>
-      <c r="D453">
+      <c r="D453" t="n">
         <v>86198873102.64104</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
-      <c r="A454" s="2">
+    <row r="454">
+      <c r="A454" s="2" t="n">
         <v>44593</v>
       </c>
-      <c r="B454">
+      <c r="B454" t="n">
         <v>688343391000</v>
       </c>
-      <c r="C454">
+      <c r="C454" t="n">
         <v>0.1242575610725913</v>
       </c>
-      <c r="D454">
+      <c r="D454" t="n">
         <v>85531870946.09706</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
-      <c r="A455" s="2">
+    <row r="455">
+      <c r="A455" s="2" t="n">
         <v>44621</v>
       </c>
-      <c r="B455">
+      <c r="B455" t="n">
         <v>686330104000</v>
       </c>
-      <c r="C455">
+      <c r="C455" t="n">
         <v>0.1239587465291551</v>
       </c>
-      <c r="D455">
+      <c r="D455" t="n">
         <v>85076619397.06467</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
-      <c r="A456" s="2">
+    <row r="456">
+      <c r="A456" s="2" t="n">
         <v>44652</v>
       </c>
-      <c r="B456">
+      <c r="B456" t="n">
         <v>673886009000</v>
       </c>
-      <c r="C456">
+      <c r="C456" t="n">
         <v>0.1237394048134628</v>
       </c>
-      <c r="D456">
+      <c r="D456" t="n">
         <v>83386253665.77988</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
-      <c r="A457" s="2">
+    <row r="457">
+      <c r="A457" s="2" t="n">
         <v>44682</v>
       </c>
-      <c r="B457">
+      <c r="B457" t="n">
         <v>674492103000</v>
       </c>
-      <c r="C457">
+      <c r="C457" t="n">
         <v>0.123733280540467</v>
       </c>
-      <c r="D457">
+      <c r="D457" t="n">
         <v>83457120602.82855</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
-      <c r="A458" s="2">
+    <row r="458">
+      <c r="A458" s="2" t="n">
         <v>44713</v>
       </c>
-      <c r="B458">
+      <c r="B458" t="n">
         <v>680090698000</v>
       </c>
-      <c r="C458">
+      <c r="C458" t="n">
         <v>0.1237409359764397</v>
       </c>
-      <c r="D458">
+      <c r="D458" t="n">
         <v>84155059519.3902</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
-      <c r="A459" s="2">
+    <row r="459">
+      <c r="A459" s="2" t="n">
         <v>44743</v>
       </c>
-      <c r="B459">
+      <c r="B459" t="n">
         <v>681645831000</v>
       </c>
-      <c r="C459">
+      <c r="C459" t="n">
         <v>0.1236812486858867</v>
       </c>
-      <c r="D459">
+      <c r="D459" t="n">
         <v>84306807539.60892</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
-      <c r="A460" s="2">
+    <row r="460">
+      <c r="A460" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="B460">
+      <c r="B460" t="n">
         <v>689582855000</v>
       </c>
-      <c r="C460">
+      <c r="C460" t="n">
         <v>0.1236965476293557</v>
       </c>
-      <c r="D460">
+      <c r="D460" t="n">
         <v>85299018467.89456</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
-      <c r="A461" s="2">
+    <row r="461">
+      <c r="A461" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="B461">
+      <c r="B461" t="n">
         <v>679741430000</v>
       </c>
-      <c r="C461">
+      <c r="C461" t="n">
         <v>0.1236858379715522</v>
       </c>
-      <c r="D461">
+      <c r="D461" t="n">
         <v>84074388373.53122</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
-      <c r="A462" s="2">
+    <row r="462">
+      <c r="A462" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B462">
+      <c r="B462" t="n">
         <v>681040162000</v>
       </c>
-      <c r="C462">
+      <c r="C462" t="n">
         <v>0.1236934875378811</v>
       </c>
-      <c r="D462">
+      <c r="D462" t="n">
         <v>84240232791.14355</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
-      <c r="A463" s="2">
+    <row r="463">
+      <c r="A463" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="B463">
+      <c r="B463" t="n">
         <v>682745255000</v>
       </c>
-      <c r="C463">
+      <c r="C463" t="n">
         <v>0.1243286254227173</v>
       </c>
-      <c r="D463">
+      <c r="D463" t="n">
         <v>84884779068.03262</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
-      <c r="A464" s="2">
+    <row r="464">
+      <c r="A464" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B464">
+      <c r="B464" t="n">
         <v>717868353000</v>
       </c>
-      <c r="C464">
+      <c r="C464" t="n">
         <v>0.1243239883135451</v>
       </c>
-      <c r="D464">
+      <c r="D464" t="n">
         <v>89248256729.03587</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
-      <c r="A465" s="2">
+    <row r="465">
+      <c r="A465" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="B465">
+      <c r="B465" t="n">
         <v>724117483000</v>
       </c>
-      <c r="C465">
+      <c r="C465" t="n">
         <v>0.1238390092879257</v>
       </c>
-      <c r="D465">
+      <c r="D465" t="n">
         <v>89673991702.78639</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
-      <c r="A466" s="2">
+    <row r="466">
+      <c r="A466" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B466">
+      <c r="B466" t="n">
         <v>716099830000</v>
       </c>
-      <c r="C466">
+      <c r="C466" t="n">
         <v>0.1236934875378811</v>
       </c>
-      <c r="D466">
+      <c r="D466" t="n">
         <v>88576885397.9838</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
-      <c r="A467" s="2">
+    <row r="467">
+      <c r="A467" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B467">
+      <c r="B467" t="n">
         <v>726196941000</v>
       </c>
-      <c r="C467">
+      <c r="C467" t="n">
         <v>0.1236873678091257</v>
       </c>
-      <c r="D467">
+      <c r="D467" t="n">
         <v>89821388143.32893</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
-      <c r="A468" s="2">
+    <row r="468">
+      <c r="A468" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B468">
+      <c r="B468" t="n">
         <v>723226837000</v>
       </c>
-      <c r="C468">
+      <c r="C468" t="n">
         <v>0.1236888976845438</v>
       </c>
-      <c r="D468">
+      <c r="D468" t="n">
         <v>89455130244.40927</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
-      <c r="A469" s="2">
+    <row r="469">
+      <c r="A469" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B469">
+      <c r="B469" t="n">
         <v>713359814000</v>
       </c>
-      <c r="C469">
+      <c r="C469" t="n">
         <v>0.1240048609905508</v>
       </c>
-      <c r="D469">
+      <c r="D469" t="n">
         <v>88460084571.3152</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
-      <c r="A470" s="2">
+    <row r="470">
+      <c r="A470" s="2" t="n">
         <v>45078</v>
       </c>
-      <c r="B470">
+      <c r="B470" t="n">
         <v>717217430000</v>
       </c>
-      <c r="C470">
+      <c r="C470" t="n">
         <v>0.123898848979693</v>
       </c>
-      <c r="D470">
+      <c r="D470" t="n">
         <v>88862414045.17352</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
-      <c r="A471" s="2">
+    <row r="471">
+      <c r="A471" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B471">
+      <c r="B471" t="n">
         <v>725593240000</v>
       </c>
-      <c r="C471">
+      <c r="C471" t="n">
         <v>0.1245050922582734</v>
       </c>
-      <c r="D471">
+      <c r="D471" t="n">
         <v>90340053288.17949</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
-      <c r="A472" s="2">
+    <row r="472">
+      <c r="A472" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B472">
+      <c r="B472" t="n">
         <v>723739340000</v>
       </c>
-      <c r="C472">
+      <c r="C472" t="n">
         <v>0.1238098775520311</v>
       </c>
-      <c r="D472">
+      <c r="D472" t="n">
         <v>89606079064.98781</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
-      <c r="A473" s="2">
+    <row r="473">
+      <c r="A473" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B473">
+      <c r="B473" t="n">
         <v>727283340000</v>
       </c>
-      <c r="C473">
+      <c r="C473" t="n">
         <v>0.1239864110893446</v>
       </c>
-      <c r="D473">
+      <c r="D473" t="n">
         <v>90173251171.67159</v>
       </c>
     </row>
+    <row r="474">
+      <c r="A474" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B474" t="n">
+        <v>728468750000</v>
+      </c>
+      <c r="C474" t="n">
+        <v>0.1240941129752804</v>
+      </c>
+      <c r="D474" t="n">
+        <v>90398683361.46133</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B475" t="n">
+        <v>728422500000</v>
+      </c>
+      <c r="C475" t="n">
+        <v>0.1242961729208358</v>
+      </c>
+      <c r="D475" t="n">
+        <v>90540129019.42751</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/Macau.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Macau.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Macau_M2 (MOP)</t>
+  </si>
+  <si>
+    <t>Macau_FX (USD)</t>
+  </si>
+  <si>
+    <t>Macau_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,6041 +385,5727 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D475"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D476"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Macau_M2 (MOP)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Macau_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Macau_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>30834</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>7381000000</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>30864</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>7403000000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>30895</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>7442000000</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>30926</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>7414000000</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>30956</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>7563000000</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>30987</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>8030000000</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>31017</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>8331000000</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>31048</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>8439000000</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>31079</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>8513000000</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>31107</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>8560000000</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>31138</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>8638000000</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>31168</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>8686000000</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>31199</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>8870000000</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>31229</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>9103000000</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>31260</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>9268000000</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
         <v>31291</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>9360000000</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
         <v>31321</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>9332000000</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
         <v>31352</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>9499000000</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
         <v>31382</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>9593000000</v>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
         <v>31413</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>9882000000</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
         <v>31444</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>10043000000</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
         <v>31472</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>10106000000</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
         <v>31503</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>10377000000</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
         <v>31533</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>10447000000</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
         <v>31564</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>10604000000</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
         <v>31594</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>10640000000</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
         <v>31625</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>10879000000</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
         <v>31656</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>11263000000</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
         <v>31686</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>11293000000</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
         <v>31717</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>11542000000</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
         <v>31747</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>11444000000</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
         <v>31778</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>11654000000</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
         <v>31809</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>11892000000</v>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
         <v>31837</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>12366000000</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
         <v>31868</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>12530000000</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
         <v>31898</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>12779000000</v>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
         <v>31929</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>13065000000</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
         <v>31959</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>13400000000</v>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
         <v>31990</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>13691000000</v>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
         <v>32021</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>13884000000</v>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
         <v>32051</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>14093000000</v>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
         <v>32082</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>14380000000</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
         <v>32112</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>14582000000</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
         <v>32143</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>14964000000</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
         <v>32174</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>15020000000</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
         <v>32203</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>15360000000</v>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
         <v>32234</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>15689000000</v>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
         <v>32264</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>15926000000</v>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
         <v>32295</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>17069000000</v>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
         <v>32325</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>17357000000</v>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
         <v>32356</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>17443000000</v>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
         <v>32387</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>17895000000</v>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
         <v>32417</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>17828000000</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
         <v>32448</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>18383000000</v>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
         <v>32478</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>20087000000</v>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
         <v>32509</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>20205000000</v>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
         <v>32540</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>20243000000</v>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
         <v>32568</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>21029000000</v>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
         <v>32599</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>21265000000</v>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
         <v>32629</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>21747000000</v>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
         <v>32660</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>21614000000</v>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
         <v>32690</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>22134000000</v>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
         <v>32721</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>22392000000</v>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
         <v>32752</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>22582000000</v>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
         <v>32782</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>22982000000</v>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
         <v>32813</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>23556000000</v>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
         <v>32843</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>24441000000</v>
       </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
         <v>32874</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>24850000000</v>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
         <v>32905</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>25199000000</v>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
         <v>32933</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>25661000000</v>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
         <v>32964</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>25865000000</v>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
         <v>32994</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>26290000000</v>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
         <v>33025</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>27031000000</v>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
         <v>33055</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>27265000000</v>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
         <v>33086</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>27463000000</v>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
         <v>33117</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>28428000000</v>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
         <v>33147</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>30246000000</v>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
         <v>33178</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>30892000000</v>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
         <v>33208</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>30745000000</v>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
         <v>33239</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>31592000000</v>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
         <v>33270</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>31740000000</v>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
         <v>33298</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>32254000000</v>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
         <v>33329</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>32576000000</v>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2">
         <v>33359</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>33444000000</v>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2">
         <v>33390</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>34677000000</v>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2">
         <v>33420</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>35299000000</v>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2">
         <v>33451</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>37086000000</v>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2">
         <v>33482</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>37545000000</v>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2">
         <v>33512</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>38891000000</v>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2">
         <v>33543</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>40722000000</v>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
         <v>33573</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>42069000000</v>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
         <v>33604</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>43256000000</v>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
         <v>33635</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>43645000000</v>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
         <v>33664</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>44667000000</v>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
         <v>33695</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>44897000000</v>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2">
         <v>33725</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>46928000000</v>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
         <v>33756</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>48021000000</v>
       </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
         <v>33786</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>49090000000</v>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2">
         <v>33817</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>48754000000</v>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
         <v>33848</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>48841000000</v>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2">
         <v>33878</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>48710000000</v>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
         <v>33909</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>49557000000</v>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
         <v>33939</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>50801000000</v>
       </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
         <v>33970</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>51401000000</v>
       </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
         <v>34001</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>51055000000</v>
       </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
         <v>34029</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>52339000000</v>
       </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
         <v>34060</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>52659000000</v>
       </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
         <v>34090</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>53566000000</v>
       </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
         <v>34121</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>53368000000</v>
       </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
         <v>34151</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>53253000000</v>
       </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
         <v>34182</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>53616000000</v>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
         <v>34213</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>53730000000</v>
       </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
         <v>34243</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>53698000000</v>
       </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
         <v>34274</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>53882000000</v>
       </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
         <v>34304</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>54312000000</v>
       </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
         <v>34335</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>54828000000</v>
       </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
         <v>34366</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>55262000000</v>
       </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
         <v>34394</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>54950000000</v>
       </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
         <v>34425</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>56290000000</v>
       </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
         <v>34455</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>56823000000</v>
       </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
         <v>34486</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>58048000000</v>
       </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
         <v>34516</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>59087000000</v>
       </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
         <v>34547</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>59379000000</v>
       </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2">
         <v>34578</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>59941000000</v>
       </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2">
         <v>34608</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>60784000000</v>
       </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2">
         <v>34639</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>60761000000</v>
       </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2">
         <v>34669</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>61213000000</v>
       </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
         <v>34700</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>61565000000</v>
       </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
         <v>34731</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>62317000000</v>
       </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
         <v>34759</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>62652000000</v>
       </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
         <v>34790</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>63357000000</v>
       </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
         <v>34820</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>63886000000</v>
       </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
         <v>34851</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>67348000000</v>
       </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
         <v>34881</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>66250000000</v>
       </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
         <v>34912</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>66432000000</v>
       </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
         <v>34943</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>66366000000</v>
       </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
         <v>34973</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>67004000000</v>
       </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
         <v>35004</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>67712000000</v>
       </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
         <v>35034</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>69444000000</v>
       </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2">
         <v>35065</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>69947000000</v>
       </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
         <v>35096</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>71126000000</v>
       </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2">
         <v>35125</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>71418000000</v>
       </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2">
         <v>35156</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>71411000000</v>
       </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>35186</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>72189000000</v>
       </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>35217</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>72920000000</v>
       </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>35247</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>72527000000</v>
       </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>35278</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>73499000000</v>
       </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>35309</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>74465000000</v>
       </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>35339</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>74981000000</v>
       </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>35370</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>75448000000</v>
       </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>35400</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>74333000000</v>
       </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>35431</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>75136000000</v>
       </c>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>35462</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>75617000000</v>
       </c>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>35490</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>76062000000</v>
       </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>35521</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>75147000000</v>
       </c>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>35551</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>75892000000</v>
       </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>35582</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>76330000000</v>
       </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>35612</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>75666000000</v>
       </c>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>35643</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>77273000000</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>0.1250468925847193</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>9662748530.699013</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>35674</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>77317000000</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>9673088952.833729</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>35704</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>77141000000</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>0.1250719163519023</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>9648172699.302099</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>35735</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>77114000000</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>0.1250468925847193</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>9642866074.778042</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>35765</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>78183000000</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>0.1251079055685529</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>9781311381.066168</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>35796</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>74824000000</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>0.1250390747108472</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>9355923726.164429</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>35827</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>76728000000</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>0.1250390747108472</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>9593998124.413881</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>35855</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>77263000000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>0.1250390747108472</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>9660894029.384184</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>35886</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>76643000000</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>0.1249141215414403</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>9573793017.300606</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>35916</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>76676000000</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>0.1249032000199845</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>9577077764.732332</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>35947</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>76677000000</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>0.1249266056191987</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>9578997339.063301</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>35977</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>76907000000</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>0.1249500199920032</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>9609531187.52499</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>36008</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>78428000000</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>0.124962511246626</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>9800559832.050385</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>36039</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>79151000000</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>0.1249500199920032</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>9889919032.387045</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>36069</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>80085000000</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>0.1249188027781942</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>10004122320.49168</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>36100</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>80928000000</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>0.1250390747108472</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>10119162238.19944</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>36130</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>80628000000</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>0.124979690800245</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>10076862509.84215</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>36161</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>81921000000</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>0.1249406531897349</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>10235263249.95627</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>36192</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>82453000000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>0.1249344094350466</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>10301216861.1479</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>36220</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>83041000000</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>0.1259445843828715</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>10458564231.73804</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>36251</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>83813000000</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>0.1258811681772407</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>10550478348.43907</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>36281</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>83480000000</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>0.1258494840171155</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>10505914925.74881</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>36312</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>83909000000</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>0.1247816321437484</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>10470301971.54979</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>36342</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>84098000000</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>0.1257229067136032</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>10573045008.8006</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>36373</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>84542000000</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>0.1246773972346553</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>10540476517.01223</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>36404</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>84500000000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>0.1246354413340977</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>10531694792.73126</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>36434</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>84600000000</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>0.1255965837729214</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>10625470987.18915</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>36465</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>85740000000</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>0.1255413972757517</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>10763919402.42295</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>36495</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>86096000000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>0.1255808112520407</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>10812005525.55569</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>36526</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>85895000000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>0.1254233036498181</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>10773234667.00113</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>36557</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>85761000000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>0.1243889393355143</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>10667719826.35304</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>36586</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>86485000000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>0.125328988595062</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>10839077578.64394</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>36617</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>79765000000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>0.125281884239539</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>9993109496.366825</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>36647</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>79572000000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.1252348152786475</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>9965184721.352535</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>36678</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>80774000000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.125203455615375</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>10113183923.8763</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>36708</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>82051000000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>0.1251251251251251</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>10266641641.64164</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>36739</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>83576000000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>0.1251564455569462</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>10460075093.86733</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>36770</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>83257000000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>0.1251564455569462</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>10420150187.73467</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>36800</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>83834000000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>0.1244555071561917</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>10433602986.93217</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>36831</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>84728000000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>10600275240.83573</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>36861</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>84918000000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>10624046040.28525</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>36892</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>86060000000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0.1244245365186015</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>10707975612.79084</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>36923</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>85996000000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0.1244555071561917</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>10702675793.40386</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>36951</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>85347000000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>0.1243781094527363</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>10615298507.46269</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>36982</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>85730000000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>10725634930.56424</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>37012</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>87370000000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>10930814462.65482</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>37043</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>87803000000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>0.125093820365274</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>10983612709.53215</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>37073</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>88413000000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>11061303640.6856</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>37104</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>89167000000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>11155636181.65895</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>37135</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>89527000000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.1244864932154861</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>11144902278.10283</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>37165</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>90342000000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>11302639809.8336</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>37196</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>90605000000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>11335543600.65057</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>37226</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>91550000000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.125140783381304</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>11456638718.55838</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>37257</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>91752000000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.1244864932154861</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>11421884725.50728</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>37288</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>91989000000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.1244864932154861</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>11451388024.39935</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>37316</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>93632000000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>11714249968.72263</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>37347</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>94271000000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>11794194920.55549</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>37377</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>95047000000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>11891279869.88615</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>37408</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>95696000000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.125093820365274</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>11970978233.67526</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>37438</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>94820000000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.125093820365274</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>11861396047.03528</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>37469</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>95664000000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>0.125093820365274</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>11966975231.42357</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>37500</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>95659000000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>11967846866.00776</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>37530</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>96797000000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>12110221443.76329</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>37561</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>98135000000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>0.1251251251251251</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>12279154154.15416</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>37591</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>98959000000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>0.1251251251251251</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>12382257257.25726</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>37622</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>100010000000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>0.125093820365274</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>12510632974.73105</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>37653</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>100474000000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>12570248967.84687</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>37681</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>100884000000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>12621543850.86951</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>37712</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>100241000000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>12541098461.15351</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>37742</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>101864000000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>0.1244942421413009</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>12681481481.48148</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>37773</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>101696000000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>0.1251251251251251</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>12724724724.72473</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>37803</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>102340000000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>0.1244833939152517</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>12739630533.28686</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>37834</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>107306000000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>0.1251094707869386</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>13424996872.26323</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>37865</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>108071000000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>0.126008064516129</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>13617817540.32258</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>37895</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>109445000000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>0.125012501250125</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>13681993199.31993</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>37926</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>110752000000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>0.1254044292844423</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>13888791352.11056</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>37956</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>111090000000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>0.1254044292844423</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>13931178049.2087</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>37987</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>112373000000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>0.1248782437123804</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>14032942880.69133</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>38018</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>110989000000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>0.1248969600079934</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>13862188694.32718</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>38047</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>110898000000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>0.1248969600079934</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>13850823070.96645</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>38078</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>110138000000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>0.1248969600079934</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>13755901381.36038</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>38108</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>109862000000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>13722286756.34828</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>38139</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>111721000000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>13954484705.41212</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>38169</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>113468000000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>14172693321.34248</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>38200</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>114252000000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>14270618653.27688</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>38231</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>115262000000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>14396772460.99849</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>38261</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>117236000000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>14643334457.47617</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>38292</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>118590000000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>0.124912561207155</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>14813380633.55651</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>38322</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>120947000000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>0.124912561207155</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>15107799540.32178</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>38353</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>123030000000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>0.124912561207155</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>15367992405.31628</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>38384</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>123775000000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>0.124912561207155</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>15461052263.41561</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>38412</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>122484000000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>0.124912561207155</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>15299790146.89717</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>38443</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>126656000000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>0.124912561207155</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>15820925352.25342</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>38473</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>127669000000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>0.124912561207155</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>15947461776.75627</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>38504</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>129774000000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>0.124912561207155</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>16210402718.09733</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>38534</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>130331000000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>0.124912561207155</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>16279979014.68972</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>38565</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>132191000000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>0.124912561207155</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>16512316378.53503</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>38596</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>132008000000</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>0.124912561207155</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>16489457379.83412</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>38626</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>132610000000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>0.124912561207155</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>16564654741.68083</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>38657</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>133005000000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>0.124912561207155</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>16613995203.35765</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>38687</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>135660000000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>0.124912561207155</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>16945638053.36265</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>38718</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>142820000000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>0.124912561207155</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>17840011991.60588</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>38749</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>144325000000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>0.124912561207155</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>18028005396.22264</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>38777</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>146247000000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>0.124912561207155</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>18268087338.8628</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>38808</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>150290000000</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>0.124912561207155</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>18773108823.82333</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
         <v>38838</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>150560000000</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>0.124912561207155</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>18806835215.34926</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
         <v>38869</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>153025000000</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>0.124912561207155</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>19114744678.7249</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
         <v>38899</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>155120000000</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>0.124912561207155</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>19376436494.45388</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
         <v>38930</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>156440000000</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>0.124912561207155</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>19541321075.24733</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
         <v>38961</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>160117000000</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>0.124912561207155</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>20000624562.80604</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
         <v>38991</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>162451000000</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>0.124912561207155</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>20292170480.66354</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
         <v>39022</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>163731000000</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>0.124912561207155</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>20452058559.0087</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
         <v>39052</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>168912000000</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>21097912841.45839</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>39083</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>169105000000</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>21122019460.16162</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>39114</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>167475000000</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>20918424701.16536</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>39142</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>168856000000</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>21090918174.89164</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>39173</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>174191000000</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>21757285070.13402</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>39203</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>175749000000</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>0.1243765624805662</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>21859056479.39702</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>39234</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>175226000000</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>0.1249047601204082</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>21886561496.85865</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>39264</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>180077000000</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>0.1242621932277105</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>22376762969.86642</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>39295</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>181189000000</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>0.1245717844908128</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>22571037060.10589</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>39326</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>182288000000</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>0.1246882793017456</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>22729177057.35661</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>39356</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>187427000000</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>0.125328988595062</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>23490036345.40669</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>39387</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>182415000000</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>0.1249921879882507</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>22800449971.87675</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>39417</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>185541000000</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>0.1246882793017456</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>23134788029.92519</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>39448</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>186941000000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>0.1245562682942019</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>23284673351.1864</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>39479</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>187789000000</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>0.1248252446574795</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>23440807868.98342</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>39508</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>185286000000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>0.1248657692980047</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>23135878930.15009</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>39539</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>184837000000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>0.1247271593389461</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>23054193950.73277</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>39569</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>184615000000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>0.1247271593389461</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>23026504521.35953</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>39600</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>182659000000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>0.1243672814555947</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>22716803263.39747</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>39630</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>186419000000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>0.1244338260912846</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>23196829426.11119</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>39661</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>190077000000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>0.124317806039359</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>23629955618.54324</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>39692</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>191094000000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>0.124317806039359</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>23756386827.28527</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>39722</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>189541000000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>0.125250501002004</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>23740105210.42084</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>39753</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>185056000000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>0.125250501002004</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>23178356713.42685</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>39783</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>189790000000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>0.125278745208088</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>23776653053.04302</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>39814</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>194191000000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>0.125278745208088</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>24328004810.70382</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>39845</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>192423000000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>0.1252112940587241</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>24093532836.66187</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>39873</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>196618000000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>0.1252803147041505</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>24632364916.50067</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>39904</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>197265000000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>0.1252756063339346</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>24712492483.46362</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>39934</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>201731000000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>0.1252646215129461</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>25269757362.42813</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>39965</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>203308000000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>0.1253478402567124</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>25484218706.91168</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>39995</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>208472000000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>0.1253525540582889</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>26132497649.63961</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>40026</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>207801000000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>0.1253352718522046</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>26044794826.15998</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>40057</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>208371000000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>0.1253478402567124</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D305">
         <v>26118854822.13141</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>40087</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>211018000000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>0.1253494114845131</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D306">
         <v>26450982112.63898</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>40118</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>211404000000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>0.1253509827517048</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D307">
         <v>26499699157.6414</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>40148</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>212233000000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>0.1252693290574736</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D308">
         <v>26586285513.85479</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>40179</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>215433000000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>0.1249828148629564</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D309">
         <v>26925422754.37128</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>40210</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>210201000000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>0.1251204284123469</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D310">
         <v>26300439172.70373</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>40238</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>215934000000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>0.1251219939440955</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D311">
         <v>27018092640.32431</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>40269</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>216852000000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>0.1251032101483724</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D312">
         <v>27128881327.09485</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>40299</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>216097000000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>0.1247147150892334</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D313">
         <v>26950475786.63807</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>40330</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>222160000000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>0.1247863034553327</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D314">
         <v>27722525175.63672</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>40360</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>228319000000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>0.1250891260022766</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D315">
         <v>28560224159.71379</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>40391</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>230230000000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>0.124857974054513</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D316">
         <v>28746051366.57053</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>40422</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>236764000000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>0.1251846473548484</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D317">
         <v>29639217846.32333</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>40452</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>244398000000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>0.1252395205831152</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D318">
         <v>30608288351.47219</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>40483</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>240260000000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>0.1251126013412071</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D319">
         <v>30059553598.23841</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>40513</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>243054000000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320">
         <v>0.1248314775053678</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D320">
         <v>30340789933.58966</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>40544</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>259017000000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321">
         <v>0.1246727340730582</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D321">
         <v>32292357561.40132</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>40575</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>252537000000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322">
         <v>0.1246447624270828</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D322">
         <v>31477414369.04821</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>40603</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>258770000000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323">
         <v>0.1247831892087498</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D323">
         <v>32290145871.54818</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>40634</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>267595000000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C324">
         <v>0.1250203158013177</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D324">
         <v>33454811406.85361</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>40664</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>270182000000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C325">
         <v>0.1249016399585327</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D325">
         <v>33746174887.27627</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>40695</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>271083000000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C326">
         <v>0.1248377109757315</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D326">
         <v>33841381204.43423</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>40725</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>274137000000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C327">
         <v>0.1246649629121735</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D327">
         <v>34175278937.85452</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>40756</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>278920000000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C328">
         <v>0.1246121446996224</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D328">
         <v>34756819399.61868</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>40787</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>278433000000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C329">
         <v>0.1245935136616788</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D329">
         <v>34690945789.36221</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>40817</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>292363000000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C330">
         <v>0.1251204284123469</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D330">
         <v>36580583811.91898</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>40848</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>301987000000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C331">
         <v>0.1247193813918683</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D331">
         <v>37663631828.38613</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>40878</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>297964000000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C332">
         <v>0.1250046876757878</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D332">
         <v>37246896758.62845</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>40909</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>310516000000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C333">
         <v>0.12523167860542</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D333">
         <v>38886439913.84061</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>40940</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>310551000000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C334">
         <v>0.1252677598366508</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D334">
         <v>38902028085.03175</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>40969</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>310588000000</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C335">
         <v>0.1251126013412071</v>
       </c>
-      <c r="D335" t="n">
+      <c r="D335">
         <v>38858472625.36282</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
         <v>41000</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>316667000000</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C336">
         <v>0.1252050232255318</v>
       </c>
-      <c r="D336" t="n">
+      <c r="D336">
         <v>39648299089.75948</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
         <v>41030</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>320500000000</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C337">
         <v>0.1251047752492713</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D337">
         <v>40096080467.39144</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
         <v>41061</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>321474000000</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C338">
         <v>0.1252128618651708</v>
       </c>
-      <c r="D338" t="n">
+      <c r="D338">
         <v>40252679555.24392</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
         <v>41091</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>330800000000</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C339">
         <v>0.1252708983176118</v>
       </c>
-      <c r="D339" t="n">
+      <c r="D339">
         <v>41439613163.46599</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
         <v>41122</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>348118000000</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C340">
         <v>0.125250501002004</v>
       </c>
-      <c r="D340" t="n">
+      <c r="D340">
         <v>43601953907.81563</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
         <v>41153</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>348199000000</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C341">
         <v>0.1252960118279435</v>
       </c>
-      <c r="D341" t="n">
+      <c r="D341">
         <v>43627946022.47811</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
         <v>41183</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>360070000000</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C342">
         <v>0.1253509827517048</v>
       </c>
-      <c r="D342" t="n">
+      <c r="D342">
         <v>45135128359.40634</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
         <v>41214</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>370320000000</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C343">
         <v>0.12531328320802</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D343">
         <v>46406015037.59398</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
         <v>41244</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>374431000000</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C344">
         <v>0.125328988595062</v>
       </c>
-      <c r="D344" t="n">
+      <c r="D344">
         <v>46927058528.63767</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
         <v>41275</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>389960000000</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C345">
         <v>0.1252207014863697</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D345">
         <v>48831064751.62474</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
         <v>41306</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>390682000000</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C346">
         <v>0.1252426576491953</v>
       </c>
-      <c r="D346" t="n">
+      <c r="D346">
         <v>48930051975.70293</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
         <v>41334</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>391113000000</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C347">
         <v>0.125140783381304</v>
       </c>
-      <c r="D347" t="n">
+      <c r="D347">
         <v>48944187210.61194</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
         <v>41365</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>396465000000</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C348">
         <v>0.1251721116535236</v>
       </c>
-      <c r="D348" t="n">
+      <c r="D348">
         <v>49626361246.71423</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
         <v>41395</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>407601000000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C349">
         <v>0.1251360854929736</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D349">
         <v>51005593583.02154</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
         <v>41426</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>396394190000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C350">
         <v>0.1252395205831152</v>
       </c>
-      <c r="D350" t="n">
+      <c r="D350">
         <v>49644218317.53228</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
         <v>41456</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>410672260000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C351">
         <v>0.1252410890965108</v>
       </c>
-      <c r="D351" t="n">
+      <c r="D351">
         <v>51433041104.12543</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
         <v>41487</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>419338080000</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C352">
         <v>0.1252599143222186</v>
       </c>
-      <c r="D352" t="n">
+      <c r="D352">
         <v>52526251972.84365</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
         <v>41518</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>426604400000</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C353">
         <v>0.1252850234282994</v>
       </c>
-      <c r="D353" t="n">
+      <c r="D353">
         <v>53447142248.61561</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
         <v>41548</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>445420290000</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C354">
         <v>0.1253007217321572</v>
       </c>
-      <c r="D354" t="n">
+      <c r="D354">
         <v>55811483811.14675</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
         <v>41579</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>445714670000</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C355">
         <v>0.12531328320802</v>
       </c>
-      <c r="D355" t="n">
+      <c r="D355">
         <v>55853968671.67919</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
         <v>41609</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>441362440000</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C356">
         <v>0.1252850234282994</v>
       </c>
-      <c r="D356" t="n">
+      <c r="D356">
         <v>55296103635.77139</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
         <v>41640</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>460936010000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C357">
         <v>0.1251564455569462</v>
       </c>
-      <c r="D357" t="n">
+      <c r="D357">
         <v>57689112640.801</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
         <v>41671</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>456966590000</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C358">
         <v>0.1251799461726232</v>
       </c>
-      <c r="D358" t="n">
+      <c r="D358">
         <v>57203053138.88715</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
         <v>41699</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>455333990000</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C359">
         <v>0.1252301103277272</v>
       </c>
-      <c r="D359" t="n">
+      <c r="D359">
         <v>57021525803.66424</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
         <v>41730</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>464955250000</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C360">
         <v>0.1253007217321572</v>
       </c>
-      <c r="D360" t="n">
+      <c r="D360">
         <v>58259228398.15557</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
         <v>41760</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>473845700000</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C361">
         <v>0.1253070021552804</v>
       </c>
-      <c r="D361" t="n">
+      <c r="D361">
         <v>59376184151.17036</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="2" t="n">
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
         <v>41791</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>483607010000</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C362">
         <v>0.1253274178792094</v>
       </c>
-      <c r="D362" t="n">
+      <c r="D362">
         <v>60609217831.58501</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="2" t="n">
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
         <v>41821</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>489436210000</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C363">
         <v>0.1253494114845131</v>
       </c>
-      <c r="D363" t="n">
+      <c r="D363">
         <v>61350540882.71056</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="2" t="n">
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
         <v>41852</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>489102480000</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C364">
         <v>0.1253494114845131</v>
       </c>
-      <c r="D364" t="n">
+      <c r="D364">
         <v>61308708023.61584</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="2" t="n">
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
         <v>41883</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>487364580000</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C365">
         <v>0.125140783381304</v>
       </c>
-      <c r="D365" t="n">
+      <c r="D365">
         <v>60989185333.50019</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="2" t="n">
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
         <v>41913</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>489591870000</v>
       </c>
-      <c r="C366" t="n">
+      <c r="C366">
         <v>0.1252693290574736</v>
       </c>
-      <c r="D366" t="n">
+      <c r="D366">
         <v>61330845066.89382</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="2" t="n">
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
         <v>41944</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B367">
         <v>484318600000</v>
       </c>
-      <c r="C367" t="n">
+      <c r="C367">
         <v>0.1253070021552804</v>
       </c>
-      <c r="D367" t="n">
+      <c r="D367">
         <v>60688511854.0424</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="2" t="n">
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
         <v>41974</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B368">
         <v>487593340000</v>
       </c>
-      <c r="C368" t="n">
+      <c r="C368">
         <v>0.125236383674185</v>
       </c>
-      <c r="D368" t="n">
+      <c r="D368">
         <v>61064426605.21735</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="2" t="n">
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
         <v>42005</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B369">
         <v>493438020000</v>
       </c>
-      <c r="C369" t="n">
+      <c r="C369">
         <v>0.1253164239705256</v>
       </c>
-      <c r="D369" t="n">
+      <c r="D369">
         <v>61835888117.49668</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="2" t="n">
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
         <v>42036</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B370">
         <v>481679130000</v>
       </c>
-      <c r="C370" t="n">
+      <c r="C370">
         <v>0.1252614833464858</v>
       </c>
-      <c r="D370" t="n">
+      <c r="D370">
         <v>60335842320.84476</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="2" t="n">
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
         <v>42064</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B371">
         <v>477595350000</v>
       </c>
-      <c r="C371" t="n">
+      <c r="C371">
         <v>0.1252803147041505</v>
       </c>
-      <c r="D371" t="n">
+      <c r="D371">
         <v>59833295749.23893</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="2" t="n">
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
         <v>42095</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B372">
         <v>492456520000</v>
       </c>
-      <c r="C372" t="n">
+      <c r="C372">
         <v>0.1253415557393898</v>
       </c>
-      <c r="D372" t="n">
+      <c r="D372">
         <v>61725266350.80595</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="2" t="n">
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
         <v>42125</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B373">
         <v>493361090000</v>
       </c>
-      <c r="C373" t="n">
+      <c r="C373">
         <v>0.1252975817566721</v>
       </c>
-      <c r="D373" t="n">
+      <c r="D373">
         <v>61816951509.83586</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="2" t="n">
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
         <v>42156</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B374">
         <v>488763124000</v>
       </c>
-      <c r="C374" t="n">
+      <c r="C374">
         <v>0.1253148535695936</v>
       </c>
-      <c r="D374" t="n">
+      <c r="D374">
         <v>61249279314.27711</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="2" t="n">
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
         <v>42186</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B375">
         <v>485290528000</v>
       </c>
-      <c r="C375" t="n">
+      <c r="C375">
         <v>0.12531328320802</v>
       </c>
-      <c r="D375" t="n">
+      <c r="D375">
         <v>60813349373.43358</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="2" t="n">
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
         <v>42217</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B376">
         <v>478454632000</v>
       </c>
-      <c r="C376" t="n">
+      <c r="C376">
         <v>0.1253478402567124</v>
       </c>
-      <c r="D376" t="n">
+      <c r="D376">
         <v>59973254782.0201</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="2" t="n">
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
         <v>42248</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B377">
         <v>482321910000</v>
       </c>
-      <c r="C377" t="n">
+      <c r="C377">
         <v>0.1253509827517048</v>
       </c>
-      <c r="D377" t="n">
+      <c r="D377">
         <v>60459525421.17931</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="2" t="n">
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
         <v>42278</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B378">
         <v>478053893000</v>
       </c>
-      <c r="C378" t="n">
+      <c r="C378">
         <v>0.1253509827517048</v>
       </c>
-      <c r="D378" t="n">
+      <c r="D378">
         <v>59924525295.82832</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="2" t="n">
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
         <v>42309</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B379">
         <v>469695529000</v>
       </c>
-      <c r="C379" t="n">
+      <c r="C379">
         <v>0.1253478402567124</v>
       </c>
-      <c r="D379" t="n">
+      <c r="D379">
         <v>58875320138.38401</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="2" t="n">
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
         <v>42339</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B380">
         <v>472826401000</v>
       </c>
-      <c r="C380" t="n">
+      <c r="C380">
         <v>0.125338413717036</v>
       </c>
-      <c r="D380" t="n">
+      <c r="D380">
         <v>59263311064.87516</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="2" t="n">
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
         <v>42370</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B381">
         <v>473827000000</v>
       </c>
-      <c r="C381" t="n">
+      <c r="C381">
         <v>0.1246851699458866</v>
       </c>
-      <c r="D381" t="n">
+      <c r="D381">
         <v>59079200019.94962</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="2" t="n">
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
         <v>42401</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B382">
         <v>469553414000</v>
       </c>
-      <c r="C382" t="n">
+      <c r="C382">
         <v>0.1246867246044314</v>
       </c>
-      <c r="D382" t="n">
+      <c r="D382">
         <v>58547077218.48856</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="2" t="n">
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
         <v>42430</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B383">
         <v>469849073000</v>
       </c>
-      <c r="C383" t="n">
+      <c r="C383">
         <v>0.1251689781204626</v>
       </c>
-      <c r="D383" t="n">
+      <c r="D383">
         <v>58810528338.25665</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="2" t="n">
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
         <v>42461</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B384">
         <v>463657875000</v>
       </c>
-      <c r="C384" t="n">
+      <c r="C384">
         <v>0.125145481622386</v>
       </c>
-      <c r="D384" t="n">
+      <c r="D384">
         <v>58024688074.88705</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="2" t="n">
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
         <v>42491</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B385">
         <v>465286082000</v>
       </c>
-      <c r="C385" t="n">
+      <c r="C385">
         <v>0.1249359703152135</v>
       </c>
-      <c r="D385" t="n">
+      <c r="D385">
         <v>58130968128.83398</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="2" t="n">
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
         <v>42522</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B386">
         <v>478843715000</v>
       </c>
-      <c r="C386" t="n">
+      <c r="C386">
         <v>0.125140783381304</v>
       </c>
-      <c r="D386" t="n">
+      <c r="D386">
         <v>59922877612.31385</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="2" t="n">
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
         <v>42552</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B387">
         <v>491343402000</v>
       </c>
-      <c r="C387" t="n">
+      <c r="C387">
         <v>0.1251658447442862</v>
       </c>
-      <c r="D387" t="n">
+      <c r="D387">
         <v>61499411970.8614</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="2" t="n">
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
         <v>42583</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B388">
         <v>503738744000</v>
       </c>
-      <c r="C388" t="n">
+      <c r="C388">
         <v>0.1251658447442862</v>
       </c>
-      <c r="D388" t="n">
+      <c r="D388">
         <v>63050885423.18572</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="2" t="n">
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
         <v>42614</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B389">
         <v>505799597000</v>
       </c>
-      <c r="C389" t="n">
+      <c r="C389">
         <v>0.1252222695284129</v>
       </c>
-      <c r="D389" t="n">
+      <c r="D389">
         <v>63337373462.89664</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="2" t="n">
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
         <v>42644</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B390">
         <v>516157449000</v>
       </c>
-      <c r="C390" t="n">
+      <c r="C390">
         <v>0.1251924834432941</v>
       </c>
-      <c r="D390" t="n">
+      <c r="D390">
         <v>64619032888.0654</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="2" t="n">
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
         <v>42675</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B391">
         <v>519386361000</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C391">
         <v>0.1251799461726232</v>
       </c>
-      <c r="D391" t="n">
+      <c r="D391">
         <v>65016756712.77462</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="2" t="n">
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
         <v>42705</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B392">
         <v>532448942000.0001</v>
       </c>
-      <c r="C392" t="n">
+      <c r="C392">
         <v>0.1252159975958528</v>
       </c>
-      <c r="D392" t="n">
+      <c r="D392">
         <v>66671125441.3864</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="2" t="n">
+    <row r="393" spans="1:4">
+      <c r="A393" s="2">
         <v>42736</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B393">
         <v>536784029000</v>
       </c>
-      <c r="C393" t="n">
+      <c r="C393">
         <v>0.1251376514165582</v>
       </c>
-      <c r="D393" t="n">
+      <c r="D393">
         <v>67171892706.97768</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="2" t="n">
+    <row r="394" spans="1:4">
+      <c r="A394" s="2">
         <v>42767</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B394">
         <v>540694398000.0001</v>
       </c>
-      <c r="C394" t="n">
+      <c r="C394">
         <v>0.1250813028468505</v>
       </c>
-      <c r="D394" t="n">
+      <c r="D394">
         <v>67630759743.83351</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="2" t="n">
+    <row r="395" spans="1:4">
+      <c r="A395" s="2">
         <v>42795</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B395">
         <v>547202142000</v>
       </c>
-      <c r="C395" t="n">
+      <c r="C395">
         <v>0.1249640728290616</v>
       </c>
-      <c r="D395" t="n">
+      <c r="D395">
         <v>68380608325.10654</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="2" t="n">
+    <row r="396" spans="1:4">
+      <c r="A396" s="2">
         <v>42826</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B396">
         <v>543502480000</v>
       </c>
-      <c r="C396" t="n">
+      <c r="C396">
         <v>0.1248221284669346</v>
       </c>
-      <c r="D396" t="n">
+      <c r="D396">
         <v>67841136380.65756</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="2" t="n">
+    <row r="397" spans="1:4">
+      <c r="A397" s="2">
         <v>42856</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B397">
         <v>553831055000</v>
       </c>
-      <c r="C397" t="n">
+      <c r="C397">
         <v>0.1246043810900391</v>
       </c>
-      <c r="D397" t="n">
+      <c r="D397">
         <v>69009775836.71841</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="2" t="n">
+    <row r="398" spans="1:4">
+      <c r="A398" s="2">
         <v>42887</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B398">
         <v>556634227000</v>
       </c>
-      <c r="C398" t="n">
+      <c r="C398">
         <v>0.1243812035125252</v>
       </c>
-      <c r="D398" t="n">
+      <c r="D398">
         <v>69234835070.52415</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="2" t="n">
+    <row r="399" spans="1:4">
+      <c r="A399" s="2">
         <v>42917</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B399">
         <v>568320269000</v>
       </c>
-      <c r="C399" t="n">
+      <c r="C399">
         <v>0.1243317170210121</v>
       </c>
-      <c r="D399" t="n">
+      <c r="D399">
         <v>70660234862.61346</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="2" t="n">
+    <row r="400" spans="1:4">
+      <c r="A400" s="2">
         <v>42948</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B400">
         <v>574373547000</v>
       </c>
-      <c r="C400" t="n">
+      <c r="C400">
         <v>0.1240664003374606</v>
       </c>
-      <c r="D400" t="n">
+      <c r="D400">
         <v>71260458425.34924</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="2" t="n">
+    <row r="401" spans="1:4">
+      <c r="A401" s="2">
         <v>42979</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B401">
         <v>567686365000</v>
       </c>
-      <c r="C401" t="n">
+      <c r="C401">
         <v>0.124313169737202</v>
       </c>
-      <c r="D401" t="n">
+      <c r="D401">
         <v>70570891449.74019</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="2" t="n">
+    <row r="402" spans="1:4">
+      <c r="A402" s="2">
         <v>43009</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B402">
         <v>580929323000</v>
       </c>
-      <c r="C402" t="n">
+      <c r="C402">
         <v>0.1244818443230055</v>
       </c>
-      <c r="D402" t="n">
+      <c r="D402">
         <v>72315153548.35497</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="2" t="n">
+    <row r="403" spans="1:4">
+      <c r="A403" s="2">
         <v>43040</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B403">
         <v>588456782000</v>
       </c>
-      <c r="C403" t="n">
+      <c r="C403">
         <v>0.1243224426873539</v>
       </c>
-      <c r="D403" t="n">
+      <c r="D403">
         <v>73158384554.17972</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="2" t="n">
+    <row r="404" spans="1:4">
+      <c r="A404" s="2">
         <v>43070</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B404">
         <v>591485041000</v>
       </c>
-      <c r="C404" t="n">
+      <c r="C404">
         <v>0.1242884486315842</v>
       </c>
-      <c r="D404" t="n">
+      <c r="D404">
         <v>73514758134.67897</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
+    <row r="405" spans="1:4">
+      <c r="A405" s="2">
         <v>43101</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B405">
         <v>606873414000</v>
       </c>
-      <c r="C405" t="n">
+      <c r="C405">
         <v>0.1242266888618351</v>
       </c>
-      <c r="D405" t="n">
+      <c r="D405">
         <v>75389874779.49763</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
+    <row r="406" spans="1:4">
+      <c r="A406" s="2">
         <v>43132</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B406">
         <v>606106271000</v>
       </c>
-      <c r="C406" t="n">
+      <c r="C406">
         <v>0.1241018131274898</v>
       </c>
-      <c r="D406" t="n">
+      <c r="D406">
         <v>75218887179.04169</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
+    <row r="407" spans="1:4">
+      <c r="A407" s="2">
         <v>43160</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B407">
         <v>604204020000</v>
       </c>
-      <c r="C407" t="n">
+      <c r="C407">
         <v>0.123806811850788</v>
       </c>
-      <c r="D407" t="n">
+      <c r="D407">
         <v>74804573423.62978</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
+    <row r="408" spans="1:4">
+      <c r="A408" s="2">
         <v>43191</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B408">
         <v>610441234000</v>
       </c>
-      <c r="C408" t="n">
+      <c r="C408">
         <v>0.1237087895094946</v>
       </c>
-      <c r="D408" t="n">
+      <c r="D408">
         <v>75516946124.82216</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
+    <row r="409" spans="1:4">
+      <c r="A409" s="2">
         <v>43221</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B409">
         <v>610236871000</v>
       </c>
-      <c r="C409" t="n">
+      <c r="C409">
         <v>0.1237746311515992</v>
       </c>
-      <c r="D409" t="n">
+      <c r="D409">
         <v>75531843623.131</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
+    <row r="410" spans="1:4">
+      <c r="A410" s="2">
         <v>43252</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B410">
         <v>601124196000</v>
       </c>
-      <c r="C410" t="n">
+      <c r="C410">
         <v>0.1237562496906094</v>
       </c>
-      <c r="D410" t="n">
+      <c r="D410">
         <v>74392876095.24281</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
+    <row r="411" spans="1:4">
+      <c r="A411" s="2">
         <v>43282</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B411">
         <v>616356372000</v>
       </c>
-      <c r="C411" t="n">
+      <c r="C411">
         <v>0.1237011380504701</v>
       </c>
-      <c r="D411" t="n">
+      <c r="D411">
         <v>76243984661.05888</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
+    <row r="412" spans="1:4">
+      <c r="A412" s="2">
         <v>43313</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B412">
         <v>621523060000</v>
       </c>
-      <c r="C412" t="n">
+      <c r="C412">
         <v>0.123714911358266</v>
       </c>
-      <c r="D412" t="n">
+      <c r="D412">
         <v>76891670275.01825</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
+    <row r="413" spans="1:4">
+      <c r="A413" s="2">
         <v>43344</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B413">
         <v>626433507000</v>
       </c>
-      <c r="C413" t="n">
+      <c r="C413">
         <v>0.1240463933511133</v>
       </c>
-      <c r="D413" t="n">
+      <c r="D413">
         <v>77706817217.63939</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="2" t="n">
+    <row r="414" spans="1:4">
+      <c r="A414" s="2">
         <v>43374</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B414">
         <v>623805715000</v>
       </c>
-      <c r="C414" t="n">
+      <c r="C414">
         <v>0.1238144763885794</v>
       </c>
-      <c r="D414" t="n">
+      <c r="D414">
         <v>77236177970.92838</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="2" t="n">
+    <row r="415" spans="1:4">
+      <c r="A415" s="2">
         <v>43405</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B415">
         <v>632969007000</v>
       </c>
-      <c r="C415" t="n">
+      <c r="C415">
         <v>0.1240910331819423</v>
       </c>
-      <c r="D415" t="n">
+      <c r="D415">
         <v>78545778050.77805</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="2" t="n">
+    <row r="416" spans="1:4">
+      <c r="A416" s="2">
         <v>43435</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B416">
         <v>651438044000</v>
       </c>
-      <c r="C416" t="n">
+      <c r="C416">
         <v>0.1239756511821078</v>
       </c>
-      <c r="D416" t="n">
+      <c r="D416">
         <v>80762455709.69861</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="2" t="n">
+    <row r="417" spans="1:4">
+      <c r="A417" s="2">
         <v>43466</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B417">
         <v>658699256000</v>
       </c>
-      <c r="C417" t="n">
+      <c r="C417">
         <v>0.123734811551882</v>
       </c>
-      <c r="D417" t="n">
+      <c r="D417">
         <v>81504028310.52489</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="2" t="n">
+    <row r="418" spans="1:4">
+      <c r="A418" s="2">
         <v>43497</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B418">
         <v>654236925000</v>
       </c>
-      <c r="C418" t="n">
+      <c r="C418">
         <v>0.1236873678091257</v>
       </c>
-      <c r="D418" t="n">
+      <c r="D418">
         <v>80920843176.78636</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="2" t="n">
+    <row r="419" spans="1:4">
+      <c r="A419" s="2">
         <v>43525</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B419">
         <v>662080521000</v>
       </c>
-      <c r="C419" t="n">
+      <c r="C419">
         <v>0.1236858379715522</v>
       </c>
-      <c r="D419" t="n">
+      <c r="D419">
         <v>81889984044.5269</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="2" t="n">
+    <row r="420" spans="1:4">
+      <c r="A420" s="2">
         <v>43556</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B420">
         <v>665051643000</v>
       </c>
-      <c r="C420" t="n">
+      <c r="C420">
         <v>0.123768503391257</v>
       </c>
-      <c r="D420" t="n">
+      <c r="D420">
         <v>82312446532.00655</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="2" t="n">
+    <row r="421" spans="1:4">
+      <c r="A421" s="2">
         <v>43586</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B421">
         <v>671192556000</v>
       </c>
-      <c r="C421" t="n">
+      <c r="C421">
         <v>0.1238834999566408</v>
       </c>
-      <c r="D421" t="n">
+      <c r="D421">
         <v>83149682982.1236</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="2" t="n">
+    <row r="422" spans="1:4">
+      <c r="A422" s="2">
         <v>43617</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B422">
         <v>671099875000</v>
       </c>
-      <c r="C422" t="n">
+      <c r="C422">
         <v>0.1242869038889372</v>
       </c>
-      <c r="D422" t="n">
+      <c r="D422">
         <v>83408925664.00279</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="2" t="n">
+    <row r="423" spans="1:4">
+      <c r="A423" s="2">
         <v>43647</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B423">
         <v>662771606000</v>
       </c>
-      <c r="C423" t="n">
+      <c r="C423">
         <v>0.1240356230309345</v>
       </c>
-      <c r="D423" t="n">
+      <c r="D423">
         <v>82207289077.42303</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="2" t="n">
+    <row r="424" spans="1:4">
+      <c r="A424" s="2">
         <v>43678</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B424">
         <v>663644010000</v>
       </c>
-      <c r="C424" t="n">
+      <c r="C424">
         <v>0.1237976156579224</v>
       </c>
-      <c r="D424" t="n">
+      <c r="D424">
         <v>82157546083.66243</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="2" t="n">
+    <row r="425" spans="1:4">
+      <c r="A425" s="2">
         <v>43709</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B425">
         <v>671390795000</v>
       </c>
-      <c r="C425" t="n">
+      <c r="C425">
         <v>0.123851279383716</v>
       </c>
-      <c r="D425" t="n">
+      <c r="D425">
         <v>83152608927.20023</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="2" t="n">
+    <row r="426" spans="1:4">
+      <c r="A426" s="2">
         <v>43739</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B426">
         <v>673722070000</v>
       </c>
-      <c r="C426" t="n">
+      <c r="C426">
         <v>0.1238881042642286</v>
       </c>
-      <c r="D426" t="n">
+      <c r="D426">
         <v>83466150053.2719</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="2" t="n">
+    <row r="427" spans="1:4">
+      <c r="A427" s="2">
         <v>43770</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B427">
         <v>672913614000</v>
       </c>
-      <c r="C427" t="n">
+      <c r="C427">
         <v>0.1240202401031848</v>
       </c>
-      <c r="D427" t="n">
+      <c r="D427">
         <v>83454907976.98184</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="2" t="n">
+    <row r="428" spans="1:4">
+      <c r="A428" s="2">
         <v>43800</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B428">
         <v>687530823000</v>
       </c>
-      <c r="C428" t="n">
+      <c r="C428">
         <v>0.1246292280465615</v>
       </c>
-      <c r="D428" t="n">
+      <c r="D428">
         <v>85686435728.70711</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="2" t="n">
+    <row r="429" spans="1:4">
+      <c r="A429" s="2">
         <v>43831</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B429">
         <v>699396883000</v>
       </c>
-      <c r="C429" t="n">
+      <c r="C429">
         <v>0.1250468925847193</v>
       </c>
-      <c r="D429" t="n">
+      <c r="D429">
         <v>87457406902.58847</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="2" t="n">
+    <row r="430" spans="1:4">
+      <c r="A430" s="2">
         <v>43862</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B430">
         <v>687777999000</v>
       </c>
-      <c r="C430" t="n">
+      <c r="C430">
         <v>0.1245733363230934</v>
       </c>
-      <c r="D430" t="n">
+      <c r="D430">
         <v>85678799985.05119</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="2" t="n">
+    <row r="431" spans="1:4">
+      <c r="A431" s="2">
         <v>43891</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B431">
         <v>679287550000</v>
       </c>
-      <c r="C431" t="n">
+      <c r="C431">
         <v>0.1252646215129461</v>
       </c>
-      <c r="D431" t="n">
+      <c r="D431">
         <v>85090697849.20645</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="2" t="n">
+    <row r="432" spans="1:4">
+      <c r="A432" s="2">
         <v>43922</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B432">
         <v>682365069000</v>
       </c>
-      <c r="C432" t="n">
+      <c r="C432">
         <v>0.1252489322528526</v>
       </c>
-      <c r="D432" t="n">
+      <c r="D432">
         <v>85465496298.89406</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="2" t="n">
+    <row r="433" spans="1:4">
+      <c r="A433" s="2">
         <v>43952</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B433">
         <v>686829754000</v>
       </c>
-      <c r="C433" t="n">
+      <c r="C433">
         <v>0.1252583453372581</v>
       </c>
-      <c r="D433" t="n">
+      <c r="D433">
         <v>86031158514.43604</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="2" t="n">
+    <row r="434" spans="1:4">
+      <c r="A434" s="2">
         <v>43983</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B434">
         <v>712227002000</v>
       </c>
-      <c r="C434" t="n">
+      <c r="C434">
         <v>0.1252724676170671</v>
       </c>
-      <c r="D434" t="n">
+      <c r="D434">
         <v>89222434044.04579</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
+    <row r="435" spans="1:4">
+      <c r="A435" s="2">
         <v>44013</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B435">
         <v>708411658000</v>
       </c>
-      <c r="C435" t="n">
+      <c r="C435">
         <v>0.1252756063339346</v>
       </c>
-      <c r="D435" t="n">
+      <c r="D435">
         <v>88746699989.97794</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="2" t="n">
+    <row r="436" spans="1:4">
+      <c r="A436" s="2">
         <v>44044</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B436">
         <v>701677932000</v>
       </c>
-      <c r="C436" t="n">
+      <c r="C436">
         <v>0.1252771757513499</v>
       </c>
-      <c r="D436" t="n">
+      <c r="D436">
         <v>87904229608.00772</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
+    <row r="437" spans="1:4">
+      <c r="A437" s="2">
         <v>44075</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B437">
         <v>690518190000</v>
       </c>
-      <c r="C437" t="n">
+      <c r="C437">
         <v>0.125278745208088</v>
       </c>
-      <c r="D437" t="n">
+      <c r="D437">
         <v>86507252386.56009</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
+    <row r="438" spans="1:4">
+      <c r="A438" s="2">
         <v>44105</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B438">
         <v>685648021000</v>
       </c>
-      <c r="C438" t="n">
+      <c r="C438">
         <v>0.1252379521090071</v>
       </c>
-      <c r="D438" t="n">
+      <c r="D438">
         <v>85869154017.63351</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
+    <row r="439" spans="1:4">
+      <c r="A439" s="2">
         <v>44136</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B439">
         <v>695269339000</v>
       </c>
-      <c r="C439" t="n">
+      <c r="C439">
         <v>0.1252599143222186</v>
       </c>
-      <c r="D439" t="n">
+      <c r="D439">
         <v>87089377834.00557</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
+    <row r="440" spans="1:4">
+      <c r="A440" s="2">
         <v>44166</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B440">
         <v>692358396000</v>
       </c>
-      <c r="C440" t="n">
+      <c r="C440">
         <v>0.1252426576491953</v>
       </c>
-      <c r="D440" t="n">
+      <c r="D440">
         <v>86712805560.774</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="2" t="n">
+    <row r="441" spans="1:4">
+      <c r="A441" s="2">
         <v>44197</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B441">
         <v>695875668000</v>
       </c>
-      <c r="C441" t="n">
+      <c r="C441">
         <v>0.1252301103277272</v>
       </c>
-      <c r="D441" t="n">
+      <c r="D441">
         <v>87144586678.02087</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="2" t="n">
+    <row r="442" spans="1:4">
+      <c r="A442" s="2">
         <v>44228</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B442">
         <v>695806782000</v>
       </c>
-      <c r="C442" t="n">
+      <c r="C442">
         <v>0.1251736784788895</v>
       </c>
-      <c r="D442" t="n">
+      <c r="D442">
         <v>87096694413.49873</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="2" t="n">
+    <row r="443" spans="1:4">
+      <c r="A443" s="2">
         <v>44256</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B443">
         <v>699380241000</v>
       </c>
-      <c r="C443" t="n">
+      <c r="C443">
         <v>0.124890720619458</v>
       </c>
-      <c r="D443" t="n">
+      <c r="D443">
         <v>87346102285.5002</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="2" t="n">
+    <row r="444" spans="1:4">
+      <c r="A444" s="2">
         <v>44287</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B444">
         <v>698098486000</v>
       </c>
-      <c r="C444" t="n">
+      <c r="C444">
         <v>0.124998437519531</v>
       </c>
-      <c r="D444" t="n">
+      <c r="D444">
         <v>87261219984.75018</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="2" t="n">
+    <row r="445" spans="1:4">
+      <c r="A445" s="2">
         <v>44317</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B445">
         <v>702975198000</v>
       </c>
-      <c r="C445" t="n">
+      <c r="C445">
         <v>0.1251016450866329</v>
       </c>
-      <c r="D445" t="n">
+      <c r="D445">
         <v>87943353724.90147</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="2" t="n">
+    <row r="446" spans="1:4">
+      <c r="A446" s="2">
         <v>44348</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B446">
         <v>695097335000</v>
       </c>
-      <c r="C446" t="n">
+      <c r="C446">
         <v>0.1250328211155428</v>
       </c>
-      <c r="D446" t="n">
+      <c r="D446">
         <v>86909980744.94556</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="2" t="n">
+    <row r="447" spans="1:4">
+      <c r="A447" s="2">
         <v>44378</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B447">
         <v>690246004000</v>
       </c>
-      <c r="C447" t="n">
+      <c r="C447">
         <v>0.1249172423269584</v>
       </c>
-      <c r="D447" t="n">
+      <c r="D447">
         <v>86223627346.88269</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="2" t="n">
+    <row r="448" spans="1:4">
+      <c r="A448" s="2">
         <v>44409</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B448">
         <v>687094515000</v>
       </c>
-      <c r="C448" t="n">
+      <c r="C448">
         <v>0.1248314775053678</v>
       </c>
-      <c r="D448" t="n">
+      <c r="D448">
         <v>85771023493.28407</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="2" t="n">
+    <row r="449" spans="1:4">
+      <c r="A449" s="2">
         <v>44440</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B449">
         <v>688497998000</v>
       </c>
-      <c r="C449" t="n">
+      <c r="C449">
         <v>0.1247007182761373</v>
       </c>
-      <c r="D449" t="n">
+      <c r="D449">
         <v>85856194882.28253</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="2" t="n">
+    <row r="450" spans="1:4">
+      <c r="A450" s="2">
         <v>44470</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B450">
         <v>693836253000</v>
       </c>
-      <c r="C450" t="n">
+      <c r="C450">
         <v>0.1248143386712265</v>
       </c>
-      <c r="D450" t="n">
+      <c r="D450">
         <v>86600713064.31682</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="2" t="n">
+    <row r="451" spans="1:4">
+      <c r="A451" s="2">
         <v>44501</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B451">
         <v>691080659000</v>
       </c>
-      <c r="C451" t="n">
+      <c r="C451">
         <v>0.1245283488786222</v>
       </c>
-      <c r="D451" t="n">
+      <c r="D451">
         <v>86059133407.22015</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="2" t="n">
+    <row r="452" spans="1:4">
+      <c r="A452" s="2">
         <v>44531</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B452">
         <v>687542070000</v>
       </c>
-      <c r="C452" t="n">
+      <c r="C452">
         <v>0.1245392049417157</v>
       </c>
-      <c r="D452" t="n">
+      <c r="D452">
         <v>85625942761.7814</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="2" t="n">
+    <row r="453" spans="1:4">
+      <c r="A453" s="2">
         <v>44562</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B453">
         <v>692254530000</v>
       </c>
-      <c r="C453" t="n">
+      <c r="C453">
         <v>0.1245190451879615</v>
       </c>
-      <c r="D453" t="n">
+      <c r="D453">
         <v>86198873102.64104</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="2" t="n">
+    <row r="454" spans="1:4">
+      <c r="A454" s="2">
         <v>44593</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B454">
         <v>688343391000</v>
       </c>
-      <c r="C454" t="n">
+      <c r="C454">
         <v>0.1242575610725913</v>
       </c>
-      <c r="D454" t="n">
+      <c r="D454">
         <v>85531870946.09706</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="2" t="n">
+    <row r="455" spans="1:4">
+      <c r="A455" s="2">
         <v>44621</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B455">
         <v>686330104000</v>
       </c>
-      <c r="C455" t="n">
+      <c r="C455">
         <v>0.1239587465291551</v>
       </c>
-      <c r="D455" t="n">
+      <c r="D455">
         <v>85076619397.06467</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="2" t="n">
+    <row r="456" spans="1:4">
+      <c r="A456" s="2">
         <v>44652</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B456">
         <v>673886009000</v>
       </c>
-      <c r="C456" t="n">
+      <c r="C456">
         <v>0.1237394048134628</v>
       </c>
-      <c r="D456" t="n">
+      <c r="D456">
         <v>83386253665.77988</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="2" t="n">
+    <row r="457" spans="1:4">
+      <c r="A457" s="2">
         <v>44682</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B457">
         <v>674492103000</v>
       </c>
-      <c r="C457" t="n">
+      <c r="C457">
         <v>0.123733280540467</v>
       </c>
-      <c r="D457" t="n">
+      <c r="D457">
         <v>83457120602.82855</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
+    <row r="458" spans="1:4">
+      <c r="A458" s="2">
         <v>44713</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B458">
         <v>680090698000</v>
       </c>
-      <c r="C458" t="n">
+      <c r="C458">
         <v>0.1237409359764397</v>
       </c>
-      <c r="D458" t="n">
+      <c r="D458">
         <v>84155059519.3902</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="2" t="n">
+    <row r="459" spans="1:4">
+      <c r="A459" s="2">
         <v>44743</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B459">
         <v>681645831000</v>
       </c>
-      <c r="C459" t="n">
+      <c r="C459">
         <v>0.1236812486858867</v>
       </c>
-      <c r="D459" t="n">
+      <c r="D459">
         <v>84306807539.60892</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="2" t="n">
+    <row r="460" spans="1:4">
+      <c r="A460" s="2">
         <v>44774</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B460">
         <v>689582855000</v>
       </c>
-      <c r="C460" t="n">
+      <c r="C460">
         <v>0.1236965476293557</v>
       </c>
-      <c r="D460" t="n">
+      <c r="D460">
         <v>85299018467.89456</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="2" t="n">
+    <row r="461" spans="1:4">
+      <c r="A461" s="2">
         <v>44805</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B461">
         <v>679741430000</v>
       </c>
-      <c r="C461" t="n">
+      <c r="C461">
         <v>0.1236858379715522</v>
       </c>
-      <c r="D461" t="n">
+      <c r="D461">
         <v>84074388373.53122</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="2" t="n">
+    <row r="462" spans="1:4">
+      <c r="A462" s="2">
         <v>44835</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B462">
         <v>681040162000</v>
       </c>
-      <c r="C462" t="n">
+      <c r="C462">
         <v>0.1236934875378811</v>
       </c>
-      <c r="D462" t="n">
+      <c r="D462">
         <v>84240232791.14355</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
+    <row r="463" spans="1:4">
+      <c r="A463" s="2">
         <v>44866</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B463">
         <v>682745255000</v>
       </c>
-      <c r="C463" t="n">
+      <c r="C463">
         <v>0.1243286254227173</v>
       </c>
-      <c r="D463" t="n">
+      <c r="D463">
         <v>84884779068.03262</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="2" t="n">
+    <row r="464" spans="1:4">
+      <c r="A464" s="2">
         <v>44896</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B464">
         <v>717868353000</v>
       </c>
-      <c r="C464" t="n">
+      <c r="C464">
         <v>0.1243239883135451</v>
       </c>
-      <c r="D464" t="n">
+      <c r="D464">
         <v>89248256729.03587</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="2" t="n">
+    <row r="465" spans="1:4">
+      <c r="A465" s="2">
         <v>44927</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B465">
         <v>724117483000</v>
       </c>
-      <c r="C465" t="n">
+      <c r="C465">
         <v>0.1238390092879257</v>
       </c>
-      <c r="D465" t="n">
+      <c r="D465">
         <v>89673991702.78639</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="2" t="n">
+    <row r="466" spans="1:4">
+      <c r="A466" s="2">
         <v>44958</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B466">
         <v>716099830000</v>
       </c>
-      <c r="C466" t="n">
+      <c r="C466">
         <v>0.1236934875378811</v>
       </c>
-      <c r="D466" t="n">
+      <c r="D466">
         <v>88576885397.9838</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="2" t="n">
+    <row r="467" spans="1:4">
+      <c r="A467" s="2">
         <v>44986</v>
       </c>
-      <c r="B467" t="n">
+      <c r="B467">
         <v>726196941000</v>
       </c>
-      <c r="C467" t="n">
+      <c r="C467">
         <v>0.1236873678091257</v>
       </c>
-      <c r="D467" t="n">
+      <c r="D467">
         <v>89821388143.32893</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="2" t="n">
+    <row r="468" spans="1:4">
+      <c r="A468" s="2">
         <v>45017</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B468">
         <v>723226837000</v>
       </c>
-      <c r="C468" t="n">
+      <c r="C468">
         <v>0.1236888976845438</v>
       </c>
-      <c r="D468" t="n">
+      <c r="D468">
         <v>89455130244.40927</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="2" t="n">
+    <row r="469" spans="1:4">
+      <c r="A469" s="2">
         <v>45047</v>
       </c>
-      <c r="B469" t="n">
+      <c r="B469">
         <v>713359814000</v>
       </c>
-      <c r="C469" t="n">
+      <c r="C469">
         <v>0.1240048609905508</v>
       </c>
-      <c r="D469" t="n">
+      <c r="D469">
         <v>88460084571.3152</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="2" t="n">
+    <row r="470" spans="1:4">
+      <c r="A470" s="2">
         <v>45078</v>
       </c>
-      <c r="B470" t="n">
+      <c r="B470">
         <v>717217430000</v>
       </c>
-      <c r="C470" t="n">
+      <c r="C470">
         <v>0.123898848979693</v>
       </c>
-      <c r="D470" t="n">
+      <c r="D470">
         <v>88862414045.17352</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="2" t="n">
+    <row r="471" spans="1:4">
+      <c r="A471" s="2">
         <v>45108</v>
       </c>
-      <c r="B471" t="n">
+      <c r="B471">
         <v>725593240000</v>
       </c>
-      <c r="C471" t="n">
+      <c r="C471">
         <v>0.1245050922582734</v>
       </c>
-      <c r="D471" t="n">
+      <c r="D471">
         <v>90340053288.17949</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" s="2" t="n">
+    <row r="472" spans="1:4">
+      <c r="A472" s="2">
         <v>45139</v>
       </c>
-      <c r="B472" t="n">
+      <c r="B472">
         <v>723739340000</v>
       </c>
-      <c r="C472" t="n">
+      <c r="C472">
         <v>0.1238098775520311</v>
       </c>
-      <c r="D472" t="n">
+      <c r="D472">
         <v>89606079064.98781</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="2" t="n">
+    <row r="473" spans="1:4">
+      <c r="A473" s="2">
         <v>45170</v>
       </c>
-      <c r="B473" t="n">
+      <c r="B473">
         <v>727283340000</v>
       </c>
-      <c r="C473" t="n">
+      <c r="C473">
         <v>0.1239864110893446</v>
       </c>
-      <c r="D473" t="n">
+      <c r="D473">
         <v>90173251171.67159</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" s="2" t="n">
+    <row r="474" spans="1:4">
+      <c r="A474" s="2">
         <v>45200</v>
       </c>
-      <c r="B474" t="n">
+      <c r="B474">
         <v>728468750000</v>
       </c>
-      <c r="C474" t="n">
+      <c r="C474">
         <v>0.1240941129752804</v>
       </c>
-      <c r="D474" t="n">
+      <c r="D474">
         <v>90398683361.46133</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" s="2" t="n">
+    <row r="475" spans="1:4">
+      <c r="A475" s="2">
         <v>45231</v>
       </c>
-      <c r="B475" t="n">
+      <c r="B475">
         <v>728422500000</v>
       </c>
-      <c r="C475" t="n">
+      <c r="C475">
         <v>0.1242961729208358</v>
       </c>
-      <c r="D475" t="n">
+      <c r="D475">
         <v>90540129019.42751</v>
       </c>
     </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B476">
+        <v>726578770000</v>
+      </c>
+      <c r="C476">
+        <v>0.1243425388259578</v>
+      </c>
+      <c r="D476">
+        <v>90344648918.84163</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>